--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -221,13 +221,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,13 +258,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -273,8 +266,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,35 +289,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,29 +330,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,6 +349,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -373,11 +379,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,23 +402,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -484,7 +497,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +635,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,157 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,32 +716,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,17 +733,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,157 +775,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,6 +1044,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2619,7 +2635,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2925,7 +2941,9 @@
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
       <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
+      <c r="AD5" s="28">
+        <v>27.72</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="5">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -221,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -258,11 +258,25 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,16 +288,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,62 +371,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,31 +394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,7 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +515,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,13 +587,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,25 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,91 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +716,81 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -736,231 +810,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,9 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2635,7 +2632,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2941,7 +2938,7 @@
       <c r="AA5" s="22"/>
       <c r="AB5" s="22"/>
       <c r="AC5" s="22"/>
-      <c r="AD5" s="28">
+      <c r="AD5" s="7">
         <v>27.72</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -221,11 +221,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -265,6 +265,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -273,8 +287,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,47 +326,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,14 +352,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,37 +397,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,19 +497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +533,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,139 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,6 +724,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -751,6 +762,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,125 +810,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,58 +911,61 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,6 +1048,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1308,6 +1314,32 @@
           </cell>
           <cell r="BL4">
             <v>24.74</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BE5">
+            <v>44531</v>
+          </cell>
+          <cell r="BF5">
+            <v>27.7</v>
+          </cell>
+          <cell r="BG5">
+            <v>100</v>
+          </cell>
+          <cell r="BH5">
+            <v>5</v>
+          </cell>
+          <cell r="BI5">
+            <v>2.77</v>
+          </cell>
+          <cell r="BJ5">
+            <v>2762.23</v>
+          </cell>
+          <cell r="BK5">
+            <v>28.7</v>
+          </cell>
+          <cell r="BL5">
+            <v>27.5</v>
           </cell>
         </row>
         <row r="6">
@@ -2628,11 +2660,11 @@
   <dimension ref="A1:AD495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2663,4330 +2695,4374 @@
     <col min="27" max="27" width="22.0267857142857" customWidth="1"/>
     <col min="28" max="28" width="24.5446428571429" customWidth="1"/>
     <col min="29" max="29" width="18.75" customWidth="1"/>
+    <col min="30" max="30" width="9.07142857142857" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="13" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="16" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="26" t="s">
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="25" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="27"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="23" t="s">
+      <c r="W3" s="20"/>
+      <c r="X3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AA3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="27" t="s">
+      <c r="AC3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="26"/>
+      <c r="AD3" s="27"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:30">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="24" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="26"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="27"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44530</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>29.71</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>28.9</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>30.32</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>28.81</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>26.93</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>25.02</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>17.86</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>1</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="13">
         <v>0.0248</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="13">
         <f>(B5-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
         <v>-0.00335457900033539</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="13">
         <f>I5/(ROW()-4)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="7" t="str">
+      <c r="O5" s="8" t="str">
         <f>IF(B5&lt;F5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="7" t="str">
+      <c r="Q5" s="8" t="str">
         <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="R5" s="7" t="str">
+      <c r="R5" s="8" t="str">
         <f>IF(B5&gt;=(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="7">
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="8">
         <v>27.72</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44531</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
+      <c r="B6" s="7">
+        <v>29.15</v>
+      </c>
+      <c r="C6" s="7">
+        <v>29.7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29.7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>28.31</v>
+      </c>
+      <c r="F6" s="7">
+        <v>27.15</v>
+      </c>
+      <c r="G6" s="7">
+        <v>25.18</v>
+      </c>
+      <c r="H6" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <f>(B6-B5)/B5</f>
+        <v>-0.0188488724335241</v>
+      </c>
+      <c r="K6" s="13">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <v>-0.022140221402214</v>
+      </c>
+      <c r="L6" s="13">
+        <f>I6/(ROW()-4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="8" t="str">
+        <f>IF(B6&lt;F6,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="8" t="str">
+        <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="R6" s="8" t="str">
+        <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
+        <v>上部</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="29">
+        <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
+        <v>27.72</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44532</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="29"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44533</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="29"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>44534</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="29"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44535</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="29"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>44536</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="29"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>44537</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="29"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>44538</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="29"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>44539</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="29"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>44540</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="29"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44541</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="29"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44542</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="29"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44543</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="29"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>44544</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="29"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44545</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="29"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>44546</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="29"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>44547</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="29"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>44548</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="29"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>44549</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="29"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>44550</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="29"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>44551</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="29"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>44552</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
-      <c r="AB27" s="22"/>
-      <c r="AC27" s="22"/>
-      <c r="AD27" s="22"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="29"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>44553</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="22"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="29"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>44554</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
-      <c r="AB29" s="22"/>
-      <c r="AC29" s="22"/>
-      <c r="AD29" s="22"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="29"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>44555</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="22"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="29"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>44556</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="29"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>44557</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="29"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>44558</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="29"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>44559</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="29"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>44560</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="29"/>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>44561</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="29"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>44562</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="22"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="22"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="29"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>44563</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="29"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>44564</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="29"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>44565</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="29"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>44566</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="29"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>44567</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="22"/>
-      <c r="AD42" s="22"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="23"/>
+      <c r="AD42" s="29"/>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>44568</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="22"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="29"/>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>44569</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+      <c r="AD44" s="29"/>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>44570</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="29"/>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>44571</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
+      <c r="AD46" s="29"/>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>44572</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="29"/>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>44573</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="22"/>
-      <c r="AC48" s="22"/>
-      <c r="AD48" s="22"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="29"/>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>44574</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="29"/>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>44575</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="23"/>
+      <c r="AD50" s="29"/>
     </row>
     <row r="51" spans="1:30">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <v>44576</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="29"/>
     </row>
     <row r="52" spans="1:30">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>44577</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="29"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="5">
+      <c r="A53" s="6">
         <v>44578</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="29"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <v>44579</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22"/>
-      <c r="AC54" s="22"/>
-      <c r="AD54" s="22"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="29"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <v>44580</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="29"/>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="5">
+      <c r="A56" s="6">
         <v>44581</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="29"/>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <v>44582</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="22"/>
-      <c r="AD57" s="22"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="23"/>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="23"/>
+      <c r="AD57" s="29"/>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <v>44583</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="29"/>
     </row>
     <row r="59" spans="1:30">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <v>44584</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="23"/>
+      <c r="AC59" s="23"/>
+      <c r="AD59" s="29"/>
     </row>
     <row r="60" spans="1:30">
-      <c r="A60" s="5">
+      <c r="A60" s="6">
         <v>44585</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="23"/>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="23"/>
+      <c r="AD60" s="29"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <v>44586</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="23"/>
+      <c r="AB61" s="23"/>
+      <c r="AC61" s="23"/>
+      <c r="AD61" s="29"/>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="5">
+      <c r="A62" s="6">
         <v>44587</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="22"/>
-      <c r="AB62" s="22"/>
-      <c r="AC62" s="22"/>
-      <c r="AD62" s="22"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="23"/>
+      <c r="AA62" s="23"/>
+      <c r="AB62" s="23"/>
+      <c r="AC62" s="23"/>
+      <c r="AD62" s="29"/>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="5">
+      <c r="A63" s="6">
         <v>44588</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="22"/>
-      <c r="AB63" s="22"/>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="23"/>
+      <c r="AD63" s="29"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <v>44589</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="23"/>
+      <c r="AD64" s="29"/>
     </row>
     <row r="65" spans="1:30">
-      <c r="A65" s="5">
+      <c r="A65" s="6">
         <v>44590</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="22"/>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="22"/>
-      <c r="AD65" s="22"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="23"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="29"/>
     </row>
     <row r="66" spans="1:30">
-      <c r="A66" s="5">
+      <c r="A66" s="6">
         <v>44591</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="29"/>
     </row>
     <row r="67" spans="1:30">
-      <c r="A67" s="5">
+      <c r="A67" s="6">
         <v>44592</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="22"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="22"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="23"/>
+      <c r="Z67" s="23"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23"/>
+      <c r="AD67" s="29"/>
     </row>
     <row r="68" spans="1:30">
-      <c r="A68" s="5">
+      <c r="A68" s="6">
         <v>44593</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23"/>
+      <c r="Y68" s="23"/>
+      <c r="Z68" s="23"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="23"/>
+      <c r="AC68" s="23"/>
+      <c r="AD68" s="29"/>
     </row>
     <row r="69" spans="1:30">
-      <c r="A69" s="5">
+      <c r="A69" s="6">
         <v>44594</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="X69" s="22"/>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="22"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="22"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="23"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="29"/>
     </row>
     <row r="70" spans="1:30">
-      <c r="A70" s="5">
+      <c r="A70" s="6">
         <v>44595</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="22"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="22"/>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
-      <c r="AA70" s="22"/>
-      <c r="AB70" s="22"/>
-      <c r="AC70" s="22"/>
-      <c r="AD70" s="22"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="23"/>
+      <c r="Z70" s="23"/>
+      <c r="AA70" s="23"/>
+      <c r="AB70" s="23"/>
+      <c r="AC70" s="23"/>
+      <c r="AD70" s="29"/>
     </row>
     <row r="71" spans="1:30">
-      <c r="A71" s="5">
+      <c r="A71" s="6">
         <v>44596</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="22"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="X71" s="22"/>
-      <c r="Y71" s="22"/>
-      <c r="Z71" s="22"/>
-      <c r="AA71" s="22"/>
-      <c r="AB71" s="22"/>
-      <c r="AC71" s="22"/>
-      <c r="AD71" s="22"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="23"/>
+      <c r="AD71" s="29"/>
     </row>
     <row r="72" spans="1:30">
-      <c r="A72" s="5">
+      <c r="A72" s="6">
         <v>44597</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="22"/>
-      <c r="W72" s="22"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="22"/>
-      <c r="AA72" s="22"/>
-      <c r="AB72" s="22"/>
-      <c r="AC72" s="22"/>
-      <c r="AD72" s="22"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="23"/>
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="23"/>
+      <c r="AD72" s="29"/>
     </row>
     <row r="73" spans="1:30">
-      <c r="A73" s="5">
+      <c r="A73" s="6">
         <v>44598</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="22"/>
-      <c r="Z73" s="22"/>
-      <c r="AA73" s="22"/>
-      <c r="AB73" s="22"/>
-      <c r="AC73" s="22"/>
-      <c r="AD73" s="22"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="23"/>
+      <c r="Z73" s="23"/>
+      <c r="AA73" s="23"/>
+      <c r="AB73" s="23"/>
+      <c r="AC73" s="23"/>
+      <c r="AD73" s="29"/>
     </row>
     <row r="74" spans="1:30">
-      <c r="A74" s="5">
+      <c r="A74" s="6">
         <v>44599</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="22"/>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="22"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="23"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="23"/>
+      <c r="AB74" s="23"/>
+      <c r="AC74" s="23"/>
+      <c r="AD74" s="29"/>
     </row>
     <row r="75" spans="1:30">
-      <c r="A75" s="5">
+      <c r="A75" s="6">
         <v>44600</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="X75" s="22"/>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="22"/>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="22"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="23"/>
+      <c r="Z75" s="23"/>
+      <c r="AA75" s="23"/>
+      <c r="AB75" s="23"/>
+      <c r="AC75" s="23"/>
+      <c r="AD75" s="29"/>
     </row>
     <row r="76" spans="1:30">
-      <c r="A76" s="5">
+      <c r="A76" s="6">
         <v>44601</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="22"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="22"/>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="22"/>
-      <c r="AB76" s="22"/>
-      <c r="AC76" s="22"/>
-      <c r="AD76" s="22"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="23"/>
+      <c r="Z76" s="23"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="23"/>
+      <c r="AD76" s="29"/>
     </row>
     <row r="77" spans="1:30">
-      <c r="A77" s="5">
+      <c r="A77" s="6">
         <v>44602</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="X77" s="22"/>
-      <c r="Y77" s="22"/>
-      <c r="Z77" s="22"/>
-      <c r="AA77" s="22"/>
-      <c r="AB77" s="22"/>
-      <c r="AC77" s="22"/>
-      <c r="AD77" s="22"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="29"/>
     </row>
     <row r="78" spans="1:30">
-      <c r="A78" s="5">
+      <c r="A78" s="6">
         <v>44603</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="22"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="22"/>
-      <c r="Y78" s="22"/>
-      <c r="Z78" s="22"/>
-      <c r="AA78" s="22"/>
-      <c r="AB78" s="22"/>
-      <c r="AC78" s="22"/>
-      <c r="AD78" s="22"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="23"/>
+      <c r="Z78" s="23"/>
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="23"/>
+      <c r="AD78" s="29"/>
     </row>
     <row r="79" spans="1:30">
-      <c r="A79" s="5">
+      <c r="A79" s="6">
         <v>44604</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="22"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="22"/>
-      <c r="W79" s="22"/>
-      <c r="X79" s="22"/>
-      <c r="Y79" s="22"/>
-      <c r="Z79" s="22"/>
-      <c r="AA79" s="22"/>
-      <c r="AB79" s="22"/>
-      <c r="AC79" s="22"/>
-      <c r="AD79" s="22"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="23"/>
+      <c r="W79" s="23"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="23"/>
+      <c r="Z79" s="23"/>
+      <c r="AA79" s="23"/>
+      <c r="AB79" s="23"/>
+      <c r="AC79" s="23"/>
+      <c r="AD79" s="29"/>
     </row>
     <row r="80" spans="1:30">
-      <c r="A80" s="5">
+      <c r="A80" s="6">
         <v>44605</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="X80" s="22"/>
-      <c r="Y80" s="22"/>
-      <c r="Z80" s="22"/>
-      <c r="AA80" s="22"/>
-      <c r="AB80" s="22"/>
-      <c r="AC80" s="22"/>
-      <c r="AD80" s="22"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="23"/>
+      <c r="Z80" s="23"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="23"/>
+      <c r="AC80" s="23"/>
+      <c r="AD80" s="29"/>
     </row>
     <row r="81" spans="1:30">
-      <c r="A81" s="5">
+      <c r="A81" s="6">
         <v>44606</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="X81" s="22"/>
-      <c r="Y81" s="22"/>
-      <c r="Z81" s="22"/>
-      <c r="AA81" s="22"/>
-      <c r="AB81" s="22"/>
-      <c r="AC81" s="22"/>
-      <c r="AD81" s="22"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="23"/>
+      <c r="Z81" s="23"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="23"/>
+      <c r="AC81" s="23"/>
+      <c r="AD81" s="29"/>
     </row>
     <row r="82" spans="1:30">
-      <c r="A82" s="5">
+      <c r="A82" s="6">
         <v>44607</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="22"/>
-      <c r="AB82" s="22"/>
-      <c r="AC82" s="22"/>
-      <c r="AD82" s="22"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="23"/>
+      <c r="Z82" s="23"/>
+      <c r="AA82" s="23"/>
+      <c r="AB82" s="23"/>
+      <c r="AC82" s="23"/>
+      <c r="AD82" s="29"/>
     </row>
     <row r="83" spans="1:30">
-      <c r="A83" s="5">
+      <c r="A83" s="6">
         <v>44608</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="22"/>
-      <c r="AB83" s="22"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="22"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="23"/>
+      <c r="Z83" s="23"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="23"/>
+      <c r="AD83" s="29"/>
     </row>
     <row r="84" spans="1:30">
-      <c r="A84" s="5">
+      <c r="A84" s="6">
         <v>44609</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="22"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="23"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="29"/>
     </row>
     <row r="85" spans="1:30">
-      <c r="A85" s="5">
+      <c r="A85" s="6">
         <v>44610</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="22"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="22"/>
-      <c r="W85" s="22"/>
-      <c r="X85" s="22"/>
-      <c r="Y85" s="22"/>
-      <c r="Z85" s="22"/>
-      <c r="AA85" s="22"/>
-      <c r="AB85" s="22"/>
-      <c r="AC85" s="22"/>
-      <c r="AD85" s="22"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="23"/>
+      <c r="Y85" s="23"/>
+      <c r="Z85" s="23"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="23"/>
+      <c r="AD85" s="29"/>
     </row>
     <row r="86" spans="1:30">
-      <c r="A86" s="5">
+      <c r="A86" s="6">
         <v>44611</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="22"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="22"/>
-      <c r="W86" s="22"/>
-      <c r="X86" s="22"/>
-      <c r="Y86" s="22"/>
-      <c r="Z86" s="22"/>
-      <c r="AA86" s="22"/>
-      <c r="AB86" s="22"/>
-      <c r="AC86" s="22"/>
-      <c r="AD86" s="22"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="23"/>
+      <c r="X86" s="23"/>
+      <c r="Y86" s="23"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="23"/>
+      <c r="AD86" s="29"/>
     </row>
     <row r="87" spans="1:30">
-      <c r="A87" s="5">
+      <c r="A87" s="6">
         <v>44612</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
-      <c r="AA87" s="22"/>
-      <c r="AB87" s="22"/>
-      <c r="AC87" s="22"/>
-      <c r="AD87" s="22"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="23"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="23"/>
+      <c r="W87" s="23"/>
+      <c r="X87" s="23"/>
+      <c r="Y87" s="23"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="29"/>
     </row>
     <row r="88" spans="1:30">
-      <c r="A88" s="5">
+      <c r="A88" s="6">
         <v>44613</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="22"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
-      <c r="Z88" s="22"/>
-      <c r="AA88" s="22"/>
-      <c r="AB88" s="22"/>
-      <c r="AC88" s="22"/>
-      <c r="AD88" s="22"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="23"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="23"/>
+      <c r="W88" s="23"/>
+      <c r="X88" s="23"/>
+      <c r="Y88" s="23"/>
+      <c r="Z88" s="23"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="29"/>
     </row>
     <row r="89" spans="1:30">
-      <c r="A89" s="5">
+      <c r="A89" s="6">
         <v>44614</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
-      <c r="Z89" s="22"/>
-      <c r="AA89" s="22"/>
-      <c r="AB89" s="22"/>
-      <c r="AC89" s="22"/>
-      <c r="AD89" s="22"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="23"/>
+      <c r="W89" s="23"/>
+      <c r="X89" s="23"/>
+      <c r="Y89" s="23"/>
+      <c r="Z89" s="23"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="23"/>
+      <c r="AC89" s="23"/>
+      <c r="AD89" s="29"/>
     </row>
     <row r="90" spans="1:30">
-      <c r="A90" s="5">
+      <c r="A90" s="6">
         <v>44615</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="22"/>
-      <c r="X90" s="22"/>
-      <c r="Y90" s="22"/>
-      <c r="Z90" s="22"/>
-      <c r="AA90" s="22"/>
-      <c r="AB90" s="22"/>
-      <c r="AC90" s="22"/>
-      <c r="AD90" s="22"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="23"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="23"/>
+      <c r="W90" s="23"/>
+      <c r="X90" s="23"/>
+      <c r="Y90" s="23"/>
+      <c r="Z90" s="23"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="23"/>
+      <c r="AC90" s="23"/>
+      <c r="AD90" s="29"/>
     </row>
     <row r="91" spans="1:30">
-      <c r="A91" s="5">
+      <c r="A91" s="6">
         <v>44616</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AA91" s="22"/>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="22"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="29"/>
     </row>
     <row r="92" spans="1:30">
-      <c r="A92" s="5">
+      <c r="A92" s="6">
         <v>44617</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="22"/>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
-      <c r="Y92" s="22"/>
-      <c r="Z92" s="22"/>
-      <c r="AA92" s="22"/>
-      <c r="AB92" s="22"/>
-      <c r="AC92" s="22"/>
-      <c r="AD92" s="22"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="23"/>
+      <c r="W92" s="23"/>
+      <c r="X92" s="23"/>
+      <c r="Y92" s="23"/>
+      <c r="Z92" s="23"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="23"/>
+      <c r="AC92" s="23"/>
+      <c r="AD92" s="29"/>
     </row>
     <row r="93" spans="1:30">
-      <c r="A93" s="5">
+      <c r="A93" s="6">
         <v>44618</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="22"/>
-      <c r="Z93" s="22"/>
-      <c r="AA93" s="22"/>
-      <c r="AB93" s="22"/>
-      <c r="AC93" s="22"/>
-      <c r="AD93" s="22"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="23"/>
+      <c r="W93" s="23"/>
+      <c r="X93" s="23"/>
+      <c r="Y93" s="23"/>
+      <c r="Z93" s="23"/>
+      <c r="AA93" s="23"/>
+      <c r="AB93" s="23"/>
+      <c r="AC93" s="23"/>
+      <c r="AD93" s="29"/>
     </row>
     <row r="94" spans="1:30">
-      <c r="A94" s="5">
+      <c r="A94" s="6">
         <v>44619</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="22"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="22"/>
-      <c r="W94" s="22"/>
-      <c r="X94" s="22"/>
-      <c r="Y94" s="22"/>
-      <c r="Z94" s="22"/>
-      <c r="AA94" s="22"/>
-      <c r="AB94" s="22"/>
-      <c r="AC94" s="22"/>
-      <c r="AD94" s="22"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="23"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="23"/>
+      <c r="W94" s="23"/>
+      <c r="X94" s="23"/>
+      <c r="Y94" s="23"/>
+      <c r="Z94" s="23"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="23"/>
+      <c r="AD94" s="29"/>
     </row>
     <row r="95" spans="1:30">
-      <c r="A95" s="5">
+      <c r="A95" s="6">
         <v>44620</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="22"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="22"/>
-      <c r="W95" s="22"/>
-      <c r="X95" s="22"/>
-      <c r="Y95" s="22"/>
-      <c r="Z95" s="22"/>
-      <c r="AA95" s="22"/>
-      <c r="AB95" s="22"/>
-      <c r="AC95" s="22"/>
-      <c r="AD95" s="22"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="23"/>
+      <c r="W95" s="23"/>
+      <c r="X95" s="23"/>
+      <c r="Y95" s="23"/>
+      <c r="Z95" s="23"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="23"/>
+      <c r="AC95" s="23"/>
+      <c r="AD95" s="29"/>
     </row>
     <row r="96" spans="1:30">
-      <c r="A96" s="5">
+      <c r="A96" s="6">
         <v>44621</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="22"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="22"/>
-      <c r="W96" s="22"/>
-      <c r="X96" s="22"/>
-      <c r="Y96" s="22"/>
-      <c r="Z96" s="22"/>
-      <c r="AA96" s="22"/>
-      <c r="AB96" s="22"/>
-      <c r="AC96" s="22"/>
-      <c r="AD96" s="22"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="23"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="23"/>
+      <c r="W96" s="23"/>
+      <c r="X96" s="23"/>
+      <c r="Y96" s="23"/>
+      <c r="Z96" s="23"/>
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="23"/>
+      <c r="AC96" s="23"/>
+      <c r="AD96" s="29"/>
     </row>
     <row r="97" spans="1:30">
-      <c r="A97" s="5">
+      <c r="A97" s="6">
         <v>44622</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="22"/>
-      <c r="W97" s="22"/>
-      <c r="X97" s="22"/>
-      <c r="Y97" s="22"/>
-      <c r="Z97" s="22"/>
-      <c r="AA97" s="22"/>
-      <c r="AB97" s="22"/>
-      <c r="AC97" s="22"/>
-      <c r="AD97" s="22"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="23"/>
+      <c r="W97" s="23"/>
+      <c r="X97" s="23"/>
+      <c r="Y97" s="23"/>
+      <c r="Z97" s="23"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="23"/>
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="29"/>
     </row>
     <row r="98" spans="1:30">
-      <c r="A98" s="5">
+      <c r="A98" s="6">
         <v>44623</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="22"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="22"/>
-      <c r="W98" s="22"/>
-      <c r="X98" s="22"/>
-      <c r="Y98" s="22"/>
-      <c r="Z98" s="22"/>
-      <c r="AA98" s="22"/>
-      <c r="AB98" s="22"/>
-      <c r="AC98" s="22"/>
-      <c r="AD98" s="22"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="23"/>
+      <c r="W98" s="23"/>
+      <c r="X98" s="23"/>
+      <c r="Y98" s="23"/>
+      <c r="Z98" s="23"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="23"/>
+      <c r="AC98" s="23"/>
+      <c r="AD98" s="29"/>
     </row>
     <row r="99" spans="1:30">
-      <c r="A99" s="5">
+      <c r="A99" s="6">
         <v>44624</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-      <c r="Y99" s="22"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="22"/>
-      <c r="AB99" s="22"/>
-      <c r="AC99" s="22"/>
-      <c r="AD99" s="22"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="23"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="23"/>
+      <c r="W99" s="23"/>
+      <c r="X99" s="23"/>
+      <c r="Y99" s="23"/>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="23"/>
+      <c r="AD99" s="29"/>
     </row>
     <row r="100" spans="1:30">
-      <c r="A100" s="5">
+      <c r="A100" s="6">
         <v>44625</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
-      <c r="Y100" s="22"/>
-      <c r="Z100" s="22"/>
-      <c r="AA100" s="22"/>
-      <c r="AB100" s="22"/>
-      <c r="AC100" s="22"/>
-      <c r="AD100" s="22"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="23"/>
+      <c r="Y100" s="23"/>
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="23"/>
+      <c r="AD100" s="29"/>
     </row>
     <row r="101" spans="1:30">
-      <c r="A101" s="5">
+      <c r="A101" s="6">
         <v>44626</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="22"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="22"/>
-      <c r="W101" s="22"/>
-      <c r="X101" s="22"/>
-      <c r="Y101" s="22"/>
-      <c r="Z101" s="22"/>
-      <c r="AA101" s="22"/>
-      <c r="AB101" s="22"/>
-      <c r="AC101" s="22"/>
-      <c r="AD101" s="22"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="23"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="23"/>
+      <c r="W101" s="23"/>
+      <c r="X101" s="23"/>
+      <c r="Y101" s="23"/>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="23"/>
+      <c r="AD101" s="29"/>
     </row>
     <row r="102" spans="1:30">
-      <c r="A102" s="5">
+      <c r="A102" s="6">
         <v>44627</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="22"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="7"/>
-      <c r="V102" s="22"/>
-      <c r="W102" s="22"/>
-      <c r="X102" s="22"/>
-      <c r="Y102" s="22"/>
-      <c r="Z102" s="22"/>
-      <c r="AA102" s="22"/>
-      <c r="AB102" s="22"/>
-      <c r="AC102" s="22"/>
-      <c r="AD102" s="22"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="23"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="23"/>
+      <c r="W102" s="23"/>
+      <c r="X102" s="23"/>
+      <c r="Y102" s="23"/>
+      <c r="Z102" s="23"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="23"/>
+      <c r="AC102" s="23"/>
+      <c r="AD102" s="29"/>
     </row>
     <row r="103" spans="1:30">
-      <c r="A103" s="5">
+      <c r="A103" s="6">
         <v>44628</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="22"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="22"/>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="22"/>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="22"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="23"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="23"/>
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="23"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="29"/>
     </row>
     <row r="104" spans="1:30">
-      <c r="A104" s="5">
+      <c r="A104" s="6">
         <v>44629</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="22"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="7"/>
-      <c r="V104" s="22"/>
-      <c r="W104" s="22"/>
-      <c r="X104" s="22"/>
-      <c r="Y104" s="22"/>
-      <c r="Z104" s="22"/>
-      <c r="AA104" s="22"/>
-      <c r="AB104" s="22"/>
-      <c r="AC104" s="22"/>
-      <c r="AD104" s="22"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="23"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="23"/>
+      <c r="W104" s="23"/>
+      <c r="X104" s="23"/>
+      <c r="Y104" s="23"/>
+      <c r="Z104" s="23"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="23"/>
+      <c r="AD104" s="29"/>
     </row>
     <row r="105" spans="1:30">
-      <c r="A105" s="5">
+      <c r="A105" s="6">
         <v>44630</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="22"/>
-      <c r="T105" s="7"/>
-      <c r="U105" s="7"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="22"/>
-      <c r="X105" s="22"/>
-      <c r="Y105" s="22"/>
-      <c r="Z105" s="22"/>
-      <c r="AA105" s="22"/>
-      <c r="AB105" s="22"/>
-      <c r="AC105" s="22"/>
-      <c r="AD105" s="22"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="23"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="23"/>
+      <c r="W105" s="23"/>
+      <c r="X105" s="23"/>
+      <c r="Y105" s="23"/>
+      <c r="Z105" s="23"/>
+      <c r="AA105" s="23"/>
+      <c r="AB105" s="23"/>
+      <c r="AC105" s="23"/>
+      <c r="AD105" s="29"/>
     </row>
     <row r="106" spans="1:30">
-      <c r="A106" s="5">
+      <c r="A106" s="6">
         <v>44631</v>
       </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="22"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="22"/>
-      <c r="W106" s="22"/>
-      <c r="X106" s="22"/>
-      <c r="Y106" s="22"/>
-      <c r="Z106" s="22"/>
-      <c r="AA106" s="22"/>
-      <c r="AB106" s="22"/>
-      <c r="AC106" s="22"/>
-      <c r="AD106" s="22"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="23"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="23"/>
+      <c r="W106" s="23"/>
+      <c r="X106" s="23"/>
+      <c r="Y106" s="23"/>
+      <c r="Z106" s="23"/>
+      <c r="AA106" s="23"/>
+      <c r="AB106" s="23"/>
+      <c r="AC106" s="23"/>
+      <c r="AD106" s="29"/>
     </row>
     <row r="107" spans="1:30">
-      <c r="A107" s="5">
+      <c r="A107" s="6">
         <v>44632</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="22"/>
-      <c r="W107" s="22"/>
-      <c r="X107" s="22"/>
-      <c r="Y107" s="22"/>
-      <c r="Z107" s="22"/>
-      <c r="AA107" s="22"/>
-      <c r="AB107" s="22"/>
-      <c r="AC107" s="22"/>
-      <c r="AD107" s="22"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="23"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="23"/>
+      <c r="W107" s="23"/>
+      <c r="X107" s="23"/>
+      <c r="Y107" s="23"/>
+      <c r="Z107" s="23"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="23"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="29"/>
     </row>
     <row r="108" spans="1:30">
-      <c r="A108" s="5">
+      <c r="A108" s="6">
         <v>44633</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="22"/>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
-      <c r="Z108" s="22"/>
-      <c r="AA108" s="22"/>
-      <c r="AB108" s="22"/>
-      <c r="AC108" s="22"/>
-      <c r="AD108" s="22"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="23"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="23"/>
+      <c r="W108" s="23"/>
+      <c r="X108" s="23"/>
+      <c r="Y108" s="23"/>
+      <c r="Z108" s="23"/>
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="23"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="29"/>
     </row>
     <row r="109" spans="1:30">
-      <c r="A109" s="5">
+      <c r="A109" s="6">
         <v>44634</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="22"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="22"/>
-      <c r="W109" s="22"/>
-      <c r="X109" s="22"/>
-      <c r="Y109" s="22"/>
-      <c r="Z109" s="22"/>
-      <c r="AA109" s="22"/>
-      <c r="AB109" s="22"/>
-      <c r="AC109" s="22"/>
-      <c r="AD109" s="22"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="23"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="23"/>
+      <c r="W109" s="23"/>
+      <c r="X109" s="23"/>
+      <c r="Y109" s="23"/>
+      <c r="Z109" s="23"/>
+      <c r="AA109" s="23"/>
+      <c r="AB109" s="23"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="29"/>
     </row>
     <row r="110" spans="1:30">
-      <c r="A110" s="5">
+      <c r="A110" s="6">
         <v>44635</v>
       </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="22"/>
-      <c r="W110" s="22"/>
-      <c r="X110" s="22"/>
-      <c r="Y110" s="22"/>
-      <c r="Z110" s="22"/>
-      <c r="AA110" s="22"/>
-      <c r="AB110" s="22"/>
-      <c r="AC110" s="22"/>
-      <c r="AD110" s="22"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="23"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="23"/>
+      <c r="W110" s="23"/>
+      <c r="X110" s="23"/>
+      <c r="Y110" s="23"/>
+      <c r="Z110" s="23"/>
+      <c r="AA110" s="23"/>
+      <c r="AB110" s="23"/>
+      <c r="AC110" s="23"/>
+      <c r="AD110" s="29"/>
     </row>
     <row r="111" spans="1:30">
-      <c r="A111" s="5">
+      <c r="A111" s="6">
         <v>44636</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="22"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="22"/>
-      <c r="Y111" s="22"/>
-      <c r="Z111" s="22"/>
-      <c r="AA111" s="22"/>
-      <c r="AB111" s="22"/>
-      <c r="AC111" s="22"/>
-      <c r="AD111" s="22"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="23"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="23"/>
+      <c r="W111" s="23"/>
+      <c r="X111" s="23"/>
+      <c r="Y111" s="23"/>
+      <c r="Z111" s="23"/>
+      <c r="AA111" s="23"/>
+      <c r="AB111" s="23"/>
+      <c r="AC111" s="23"/>
+      <c r="AD111" s="29"/>
     </row>
     <row r="112" spans="1:30">
-      <c r="A112" s="5">
+      <c r="A112" s="6">
         <v>44637</v>
       </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="22"/>
-      <c r="W112" s="22"/>
-      <c r="X112" s="22"/>
-      <c r="Y112" s="22"/>
-      <c r="Z112" s="22"/>
-      <c r="AA112" s="22"/>
-      <c r="AB112" s="22"/>
-      <c r="AC112" s="22"/>
-      <c r="AD112" s="22"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="23"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="23"/>
+      <c r="W112" s="23"/>
+      <c r="X112" s="23"/>
+      <c r="Y112" s="23"/>
+      <c r="Z112" s="23"/>
+      <c r="AA112" s="23"/>
+      <c r="AB112" s="23"/>
+      <c r="AC112" s="23"/>
+      <c r="AD112" s="29"/>
     </row>
     <row r="113" spans="1:30">
-      <c r="A113" s="5">
+      <c r="A113" s="6">
         <v>44638</v>
       </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="22"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="22"/>
-      <c r="W113" s="22"/>
-      <c r="X113" s="22"/>
-      <c r="Y113" s="22"/>
-      <c r="Z113" s="22"/>
-      <c r="AA113" s="22"/>
-      <c r="AB113" s="22"/>
-      <c r="AC113" s="22"/>
-      <c r="AD113" s="22"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="23"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="23"/>
+      <c r="W113" s="23"/>
+      <c r="X113" s="23"/>
+      <c r="Y113" s="23"/>
+      <c r="Z113" s="23"/>
+      <c r="AA113" s="23"/>
+      <c r="AB113" s="23"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="29"/>
     </row>
     <row r="114" spans="1:30">
-      <c r="A114" s="5">
+      <c r="A114" s="6">
         <v>44639</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="22"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="22"/>
-      <c r="W114" s="22"/>
-      <c r="X114" s="22"/>
-      <c r="Y114" s="22"/>
-      <c r="Z114" s="22"/>
-      <c r="AA114" s="22"/>
-      <c r="AB114" s="22"/>
-      <c r="AC114" s="22"/>
-      <c r="AD114" s="22"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="23"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="23"/>
+      <c r="W114" s="23"/>
+      <c r="X114" s="23"/>
+      <c r="Y114" s="23"/>
+      <c r="Z114" s="23"/>
+      <c r="AA114" s="23"/>
+      <c r="AB114" s="23"/>
+      <c r="AC114" s="23"/>
+      <c r="AD114" s="29"/>
     </row>
     <row r="115" spans="1:30">
-      <c r="A115" s="5">
+      <c r="A115" s="6">
         <v>44640</v>
       </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="22"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="22"/>
-      <c r="W115" s="22"/>
-      <c r="X115" s="22"/>
-      <c r="Y115" s="22"/>
-      <c r="Z115" s="22"/>
-      <c r="AA115" s="22"/>
-      <c r="AB115" s="22"/>
-      <c r="AC115" s="22"/>
-      <c r="AD115" s="22"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="23"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="8"/>
+      <c r="V115" s="23"/>
+      <c r="W115" s="23"/>
+      <c r="X115" s="23"/>
+      <c r="Y115" s="23"/>
+      <c r="Z115" s="23"/>
+      <c r="AA115" s="23"/>
+      <c r="AB115" s="23"/>
+      <c r="AC115" s="23"/>
+      <c r="AD115" s="29"/>
     </row>
     <row r="116" spans="1:30">
-      <c r="A116" s="5">
+      <c r="A116" s="6">
         <v>44641</v>
       </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="22"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="22"/>
-      <c r="W116" s="22"/>
-      <c r="X116" s="22"/>
-      <c r="Y116" s="22"/>
-      <c r="Z116" s="22"/>
-      <c r="AA116" s="22"/>
-      <c r="AB116" s="22"/>
-      <c r="AC116" s="22"/>
-      <c r="AD116" s="22"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="23"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="23"/>
+      <c r="W116" s="23"/>
+      <c r="X116" s="23"/>
+      <c r="Y116" s="23"/>
+      <c r="Z116" s="23"/>
+      <c r="AA116" s="23"/>
+      <c r="AB116" s="23"/>
+      <c r="AC116" s="23"/>
+      <c r="AD116" s="29"/>
     </row>
     <row r="117" spans="1:30">
-      <c r="A117" s="5">
+      <c r="A117" s="6">
         <v>44642</v>
       </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="22"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="22"/>
-      <c r="W117" s="22"/>
-      <c r="X117" s="22"/>
-      <c r="Y117" s="22"/>
-      <c r="Z117" s="22"/>
-      <c r="AA117" s="22"/>
-      <c r="AB117" s="22"/>
-      <c r="AC117" s="22"/>
-      <c r="AD117" s="22"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="23"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="8"/>
+      <c r="V117" s="23"/>
+      <c r="W117" s="23"/>
+      <c r="X117" s="23"/>
+      <c r="Y117" s="23"/>
+      <c r="Z117" s="23"/>
+      <c r="AA117" s="23"/>
+      <c r="AB117" s="23"/>
+      <c r="AC117" s="23"/>
+      <c r="AD117" s="29"/>
     </row>
     <row r="118" spans="1:30">
-      <c r="A118" s="5">
+      <c r="A118" s="6">
         <v>44643</v>
       </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="22"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="22"/>
-      <c r="W118" s="22"/>
-      <c r="X118" s="22"/>
-      <c r="Y118" s="22"/>
-      <c r="Z118" s="22"/>
-      <c r="AA118" s="22"/>
-      <c r="AB118" s="22"/>
-      <c r="AC118" s="22"/>
-      <c r="AD118" s="22"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="23"/>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8"/>
+      <c r="V118" s="23"/>
+      <c r="W118" s="23"/>
+      <c r="X118" s="23"/>
+      <c r="Y118" s="23"/>
+      <c r="Z118" s="23"/>
+      <c r="AA118" s="23"/>
+      <c r="AB118" s="23"/>
+      <c r="AC118" s="23"/>
+      <c r="AD118" s="29"/>
     </row>
     <row r="119" spans="1:30">
-      <c r="A119" s="5">
+      <c r="A119" s="6">
         <v>44644</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="22"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="7"/>
-      <c r="V119" s="22"/>
-      <c r="W119" s="22"/>
-      <c r="X119" s="22"/>
-      <c r="Y119" s="22"/>
-      <c r="Z119" s="22"/>
-      <c r="AA119" s="22"/>
-      <c r="AB119" s="22"/>
-      <c r="AC119" s="22"/>
-      <c r="AD119" s="22"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="23"/>
+      <c r="T119" s="8"/>
+      <c r="U119" s="8"/>
+      <c r="V119" s="23"/>
+      <c r="W119" s="23"/>
+      <c r="X119" s="23"/>
+      <c r="Y119" s="23"/>
+      <c r="Z119" s="23"/>
+      <c r="AA119" s="23"/>
+      <c r="AB119" s="23"/>
+      <c r="AC119" s="23"/>
+      <c r="AD119" s="29"/>
     </row>
     <row r="120" spans="1:30">
-      <c r="A120" s="5">
+      <c r="A120" s="6">
         <v>44645</v>
       </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="7"/>
-      <c r="U120" s="7"/>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
-      <c r="Z120" s="22"/>
-      <c r="AA120" s="22"/>
-      <c r="AB120" s="22"/>
-      <c r="AC120" s="22"/>
-      <c r="AD120" s="22"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="23"/>
+      <c r="T120" s="8"/>
+      <c r="U120" s="8"/>
+      <c r="V120" s="23"/>
+      <c r="W120" s="23"/>
+      <c r="X120" s="23"/>
+      <c r="Y120" s="23"/>
+      <c r="Z120" s="23"/>
+      <c r="AA120" s="23"/>
+      <c r="AB120" s="23"/>
+      <c r="AC120" s="23"/>
+      <c r="AD120" s="29"/>
     </row>
     <row r="121" spans="1:30">
-      <c r="A121" s="5">
+      <c r="A121" s="6">
         <v>44646</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="22"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="22"/>
-      <c r="W121" s="22"/>
-      <c r="X121" s="22"/>
-      <c r="Y121" s="22"/>
-      <c r="Z121" s="22"/>
-      <c r="AA121" s="22"/>
-      <c r="AB121" s="22"/>
-      <c r="AC121" s="22"/>
-      <c r="AD121" s="22"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="23"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="23"/>
+      <c r="W121" s="23"/>
+      <c r="X121" s="23"/>
+      <c r="Y121" s="23"/>
+      <c r="Z121" s="23"/>
+      <c r="AA121" s="23"/>
+      <c r="AB121" s="23"/>
+      <c r="AC121" s="23"/>
+      <c r="AD121" s="29"/>
     </row>
     <row r="122" spans="1:30">
-      <c r="A122" s="5">
+      <c r="A122" s="6">
         <v>44647</v>
       </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="22"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="7"/>
-      <c r="V122" s="22"/>
-      <c r="W122" s="22"/>
-      <c r="X122" s="22"/>
-      <c r="Y122" s="22"/>
-      <c r="Z122" s="22"/>
-      <c r="AA122" s="22"/>
-      <c r="AB122" s="22"/>
-      <c r="AC122" s="22"/>
-      <c r="AD122" s="22"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="23"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="8"/>
+      <c r="V122" s="23"/>
+      <c r="W122" s="23"/>
+      <c r="X122" s="23"/>
+      <c r="Y122" s="23"/>
+      <c r="Z122" s="23"/>
+      <c r="AA122" s="23"/>
+      <c r="AB122" s="23"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="29"/>
     </row>
     <row r="123" spans="1:30">
-      <c r="A123" s="5">
+      <c r="A123" s="6">
         <v>44648</v>
       </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="22"/>
-      <c r="T123" s="7"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="22"/>
-      <c r="W123" s="22"/>
-      <c r="X123" s="22"/>
-      <c r="Y123" s="22"/>
-      <c r="Z123" s="22"/>
-      <c r="AA123" s="22"/>
-      <c r="AB123" s="22"/>
-      <c r="AC123" s="22"/>
-      <c r="AD123" s="22"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="23"/>
+      <c r="T123" s="8"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="23"/>
+      <c r="W123" s="23"/>
+      <c r="X123" s="23"/>
+      <c r="Y123" s="23"/>
+      <c r="Z123" s="23"/>
+      <c r="AA123" s="23"/>
+      <c r="AB123" s="23"/>
+      <c r="AC123" s="23"/>
+      <c r="AD123" s="29"/>
     </row>
     <row r="124" spans="1:30">
-      <c r="A124" s="5">
+      <c r="A124" s="6">
         <v>44649</v>
       </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="7"/>
-      <c r="R124" s="7"/>
-      <c r="S124" s="22"/>
-      <c r="T124" s="7"/>
-      <c r="U124" s="7"/>
-      <c r="V124" s="22"/>
-      <c r="W124" s="22"/>
-      <c r="X124" s="22"/>
-      <c r="Y124" s="22"/>
-      <c r="Z124" s="22"/>
-      <c r="AA124" s="22"/>
-      <c r="AB124" s="22"/>
-      <c r="AC124" s="22"/>
-      <c r="AD124" s="22"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="23"/>
+      <c r="T124" s="8"/>
+      <c r="U124" s="8"/>
+      <c r="V124" s="23"/>
+      <c r="W124" s="23"/>
+      <c r="X124" s="23"/>
+      <c r="Y124" s="23"/>
+      <c r="Z124" s="23"/>
+      <c r="AA124" s="23"/>
+      <c r="AB124" s="23"/>
+      <c r="AC124" s="23"/>
+      <c r="AD124" s="29"/>
     </row>
     <row r="125" spans="1:21">
       <c r="A125" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -978,9 +978,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1071,6 +1074,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2912,7 +2918,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6:T8"/>
+      <selection pane="bottomRight" activeCell="AE7" sqref="AE7:AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2942,4578 +2948,4587 @@
     <col min="28" max="28" width="22.0267857142857" customWidth="1"/>
     <col min="29" max="29" width="24.5446428571429" customWidth="1"/>
     <col min="30" max="30" width="18.75" customWidth="1"/>
+    <col min="31" max="31" width="9.07142857142857" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="14" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="18" t="s">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="28" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="23" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="29" t="s">
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="28"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="29"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="15" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="20" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="28"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="29"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="19"/>
-      <c r="U4" s="24" t="s">
+      <c r="T4" s="20"/>
+      <c r="U4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="27" t="s">
+      <c r="X4" s="24"/>
+      <c r="Y4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="27" t="s">
+      <c r="AA4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AB4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="29" t="s">
+      <c r="AC4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AD4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="28"/>
+      <c r="AE4" s="29"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:31">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="X5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="28"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="29"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44530</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>29.71</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>28.9</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>30.32</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>28.81</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>26.93</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>25.02</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>17.86</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>1</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="13">
         <v>0.0248</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="13">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
         <v>-0.00335457900033539</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="13">
         <f>I6/(ROW()-4)</f>
         <v>0.5</v>
       </c>
-      <c r="M6" s="7" t="str">
+      <c r="M6" s="8" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="N6" s="7" t="str">
+      <c r="N6" s="8" t="str">
         <f>IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="32">
+        <v>27.72</v>
+      </c>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44531</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>29.15</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>29.7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>29.7</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>28.31</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>27.15</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>25.18</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>18.3</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>1</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="13">
         <f>(B7-B6)/B6</f>
         <v>-0.0188488724335241</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
         <v>-0.022140221402214</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="14">
         <f>I7/(ROW()-4)</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="M7" s="7" t="str">
+      <c r="M7" s="8" t="str">
         <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="N7" s="7" t="str">
+      <c r="N7" s="8" t="str">
         <f>IF(B7&lt;F7,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="32">
+        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7,AE6)</f>
+        <v>27.72</v>
+      </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44532</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>28.28</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>28.9</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>29.56</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>28.15</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>27.25</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>25.3</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>17.96</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>1</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="13">
         <f>(B8-B7)/B7</f>
         <v>-0.0298456260720411</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="13">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
         <v>-0.0513250587051324</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="14">
         <f>I8/(ROW()-4)</f>
         <v>0.25</v>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="18" t="str">
         <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
-      <c r="N8" s="7" t="str">
+      <c r="N8" s="8" t="str">
         <f>IF(B8&lt;F8,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="S8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="7"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="32">
+        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8,AE7)</f>
+        <v>27.72</v>
+      </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>44533</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="32"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44534</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="32"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>44535</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="32"/>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>44536</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="32"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>44537</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="32"/>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>44538</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="32"/>
     </row>
     <row r="15" spans="1:31">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>44539</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="32"/>
     </row>
     <row r="16" spans="1:31">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44540</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="32"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44541</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="32"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44542</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="32"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>44543</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44544</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="32"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>44545</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="32"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>44546</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="32"/>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>44547</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="32"/>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>44548</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="32"/>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>44549</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="32"/>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>44550</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="32"/>
     </row>
     <row r="27" spans="1:31">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>44551</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26"/>
-      <c r="AE27" s="26"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="32"/>
     </row>
     <row r="28" spans="1:31">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>44552</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="32"/>
     </row>
     <row r="29" spans="1:31">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>44553</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="32"/>
     </row>
     <row r="30" spans="1:31">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>44554</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="32"/>
     </row>
     <row r="31" spans="1:31">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>44555</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="32"/>
     </row>
     <row r="32" spans="1:31">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>44556</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="32"/>
     </row>
     <row r="33" spans="1:31">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>44557</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="32"/>
     </row>
     <row r="34" spans="1:31">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>44558</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="32"/>
     </row>
     <row r="35" spans="1:31">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>44559</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="32"/>
     </row>
     <row r="36" spans="1:31">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>44560</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="32"/>
     </row>
     <row r="37" spans="1:31">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>44561</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="32"/>
     </row>
     <row r="38" spans="1:31">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>44562</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="32"/>
     </row>
     <row r="39" spans="1:31">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>44563</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="32"/>
     </row>
     <row r="40" spans="1:31">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>44564</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="32"/>
     </row>
     <row r="41" spans="1:31">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>44565</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="32"/>
     </row>
     <row r="42" spans="1:31">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>44566</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="32"/>
     </row>
     <row r="43" spans="1:31">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>44567</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="32"/>
     </row>
     <row r="44" spans="1:31">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>44568</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="32"/>
     </row>
     <row r="45" spans="1:31">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>44569</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="32"/>
     </row>
     <row r="46" spans="1:31">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>44570</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="26"/>
-      <c r="X46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="32"/>
     </row>
     <row r="47" spans="1:31">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>44571</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="26"/>
-      <c r="X47" s="26"/>
-      <c r="Y47" s="26"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="32"/>
     </row>
     <row r="48" spans="1:31">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>44572</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="26"/>
-      <c r="X48" s="26"/>
-      <c r="Y48" s="26"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="32"/>
     </row>
     <row r="49" spans="1:31">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>44573</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="32"/>
     </row>
     <row r="50" spans="1:31">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>44574</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="32"/>
     </row>
     <row r="51" spans="1:31">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <v>44575</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="32"/>
     </row>
     <row r="52" spans="1:31">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>44576</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="26"/>
-      <c r="X52" s="26"/>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="26"/>
-      <c r="AA52" s="26"/>
-      <c r="AB52" s="26"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="26"/>
-      <c r="AE52" s="26"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="32"/>
     </row>
     <row r="53" spans="1:31">
-      <c r="A53" s="5">
+      <c r="A53" s="6">
         <v>44577</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="26"/>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="32"/>
     </row>
     <row r="54" spans="1:31">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <v>44578</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="26"/>
-      <c r="X54" s="26"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="26"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="26"/>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="32"/>
     </row>
     <row r="55" spans="1:31">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <v>44579</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="26"/>
-      <c r="Y55" s="26"/>
-      <c r="Z55" s="26"/>
-      <c r="AA55" s="26"/>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="26"/>
-      <c r="AD55" s="26"/>
-      <c r="AE55" s="26"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="27"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AE55" s="32"/>
     </row>
     <row r="56" spans="1:31">
-      <c r="A56" s="5">
+      <c r="A56" s="6">
         <v>44580</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="26"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="26"/>
-      <c r="AD56" s="26"/>
-      <c r="AE56" s="26"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="27"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AE56" s="32"/>
     </row>
     <row r="57" spans="1:31">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <v>44581</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="26"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="26"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="32"/>
     </row>
     <row r="58" spans="1:31">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <v>44582</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="32"/>
     </row>
     <row r="59" spans="1:31">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <v>44583</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="32"/>
     </row>
     <row r="60" spans="1:31">
-      <c r="A60" s="5">
+      <c r="A60" s="6">
         <v>44584</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="32"/>
     </row>
     <row r="61" spans="1:31">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <v>44585</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="26"/>
-      <c r="X61" s="26"/>
-      <c r="Y61" s="26"/>
-      <c r="Z61" s="26"/>
-      <c r="AA61" s="26"/>
-      <c r="AB61" s="26"/>
-      <c r="AC61" s="26"/>
-      <c r="AD61" s="26"/>
-      <c r="AE61" s="26"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="27"/>
+      <c r="AE61" s="32"/>
     </row>
     <row r="62" spans="1:31">
-      <c r="A62" s="5">
+      <c r="A62" s="6">
         <v>44586</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="26"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="26"/>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="26"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="32"/>
     </row>
     <row r="63" spans="1:31">
-      <c r="A63" s="5">
+      <c r="A63" s="6">
         <v>44587</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="26"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="26"/>
-      <c r="AA63" s="26"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="26"/>
-      <c r="AD63" s="26"/>
-      <c r="AE63" s="26"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="27"/>
+      <c r="AE63" s="32"/>
     </row>
     <row r="64" spans="1:31">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <v>44588</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="26"/>
-      <c r="X64" s="26"/>
-      <c r="Y64" s="26"/>
-      <c r="Z64" s="26"/>
-      <c r="AA64" s="26"/>
-      <c r="AB64" s="26"/>
-      <c r="AC64" s="26"/>
-      <c r="AD64" s="26"/>
-      <c r="AE64" s="26"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="27"/>
+      <c r="AA64" s="27"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="27"/>
+      <c r="AD64" s="27"/>
+      <c r="AE64" s="32"/>
     </row>
     <row r="65" spans="1:31">
-      <c r="A65" s="5">
+      <c r="A65" s="6">
         <v>44589</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="26"/>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="26"/>
-      <c r="Z65" s="26"/>
-      <c r="AA65" s="26"/>
-      <c r="AB65" s="26"/>
-      <c r="AC65" s="26"/>
-      <c r="AD65" s="26"/>
-      <c r="AE65" s="26"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AE65" s="32"/>
     </row>
     <row r="66" spans="1:31">
-      <c r="A66" s="5">
+      <c r="A66" s="6">
         <v>44590</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="26"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="26"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="32"/>
     </row>
     <row r="67" spans="1:31">
-      <c r="A67" s="5">
+      <c r="A67" s="6">
         <v>44591</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="26"/>
-      <c r="X67" s="26"/>
-      <c r="Y67" s="26"/>
-      <c r="Z67" s="26"/>
-      <c r="AA67" s="26"/>
-      <c r="AB67" s="26"/>
-      <c r="AC67" s="26"/>
-      <c r="AD67" s="26"/>
-      <c r="AE67" s="26"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="27"/>
+      <c r="AE67" s="32"/>
     </row>
     <row r="68" spans="1:31">
-      <c r="A68" s="5">
+      <c r="A68" s="6">
         <v>44592</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="26"/>
-      <c r="X68" s="26"/>
-      <c r="Y68" s="26"/>
-      <c r="Z68" s="26"/>
-      <c r="AA68" s="26"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="26"/>
-      <c r="AD68" s="26"/>
-      <c r="AE68" s="26"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AE68" s="32"/>
     </row>
     <row r="69" spans="1:31">
-      <c r="A69" s="5">
+      <c r="A69" s="6">
         <v>44593</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="26"/>
-      <c r="X69" s="26"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="26"/>
-      <c r="AA69" s="26"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="26"/>
-      <c r="AD69" s="26"/>
-      <c r="AE69" s="26"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AE69" s="32"/>
     </row>
     <row r="70" spans="1:31">
-      <c r="A70" s="5">
+      <c r="A70" s="6">
         <v>44594</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="26"/>
-      <c r="X70" s="26"/>
-      <c r="Y70" s="26"/>
-      <c r="Z70" s="26"/>
-      <c r="AA70" s="26"/>
-      <c r="AB70" s="26"/>
-      <c r="AC70" s="26"/>
-      <c r="AD70" s="26"/>
-      <c r="AE70" s="26"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AE70" s="32"/>
     </row>
     <row r="71" spans="1:31">
-      <c r="A71" s="5">
+      <c r="A71" s="6">
         <v>44595</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="26"/>
-      <c r="X71" s="26"/>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="26"/>
-      <c r="AA71" s="26"/>
-      <c r="AB71" s="26"/>
-      <c r="AC71" s="26"/>
-      <c r="AD71" s="26"/>
-      <c r="AE71" s="26"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="27"/>
+      <c r="AE71" s="32"/>
     </row>
     <row r="72" spans="1:31">
-      <c r="A72" s="5">
+      <c r="A72" s="6">
         <v>44596</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="26"/>
-      <c r="X72" s="26"/>
-      <c r="Y72" s="26"/>
-      <c r="Z72" s="26"/>
-      <c r="AA72" s="26"/>
-      <c r="AB72" s="26"/>
-      <c r="AC72" s="26"/>
-      <c r="AD72" s="26"/>
-      <c r="AE72" s="26"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="27"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="27"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="27"/>
+      <c r="AC72" s="27"/>
+      <c r="AD72" s="27"/>
+      <c r="AE72" s="32"/>
     </row>
     <row r="73" spans="1:31">
-      <c r="A73" s="5">
+      <c r="A73" s="6">
         <v>44597</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="26"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="26"/>
-      <c r="Z73" s="26"/>
-      <c r="AA73" s="26"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="26"/>
-      <c r="AD73" s="26"/>
-      <c r="AE73" s="26"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="32"/>
     </row>
     <row r="74" spans="1:31">
-      <c r="A74" s="5">
+      <c r="A74" s="6">
         <v>44598</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="26"/>
-      <c r="X74" s="26"/>
-      <c r="Y74" s="26"/>
-      <c r="Z74" s="26"/>
-      <c r="AA74" s="26"/>
-      <c r="AB74" s="26"/>
-      <c r="AC74" s="26"/>
-      <c r="AD74" s="26"/>
-      <c r="AE74" s="26"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="32"/>
     </row>
     <row r="75" spans="1:31">
-      <c r="A75" s="5">
+      <c r="A75" s="6">
         <v>44599</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="26"/>
-      <c r="X75" s="26"/>
-      <c r="Y75" s="26"/>
-      <c r="Z75" s="26"/>
-      <c r="AA75" s="26"/>
-      <c r="AB75" s="26"/>
-      <c r="AC75" s="26"/>
-      <c r="AD75" s="26"/>
-      <c r="AE75" s="26"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="32"/>
     </row>
     <row r="76" spans="1:31">
-      <c r="A76" s="5">
+      <c r="A76" s="6">
         <v>44600</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
-      <c r="W76" s="26"/>
-      <c r="X76" s="26"/>
-      <c r="Y76" s="26"/>
-      <c r="Z76" s="26"/>
-      <c r="AA76" s="26"/>
-      <c r="AB76" s="26"/>
-      <c r="AC76" s="26"/>
-      <c r="AD76" s="26"/>
-      <c r="AE76" s="26"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="32"/>
     </row>
     <row r="77" spans="1:31">
-      <c r="A77" s="5">
+      <c r="A77" s="6">
         <v>44601</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="26"/>
-      <c r="X77" s="26"/>
-      <c r="Y77" s="26"/>
-      <c r="Z77" s="26"/>
-      <c r="AA77" s="26"/>
-      <c r="AB77" s="26"/>
-      <c r="AC77" s="26"/>
-      <c r="AD77" s="26"/>
-      <c r="AE77" s="26"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="32"/>
     </row>
     <row r="78" spans="1:31">
-      <c r="A78" s="5">
+      <c r="A78" s="6">
         <v>44602</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
-      <c r="W78" s="26"/>
-      <c r="X78" s="26"/>
-      <c r="Y78" s="26"/>
-      <c r="Z78" s="26"/>
-      <c r="AA78" s="26"/>
-      <c r="AB78" s="26"/>
-      <c r="AC78" s="26"/>
-      <c r="AD78" s="26"/>
-      <c r="AE78" s="26"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
+      <c r="AC78" s="27"/>
+      <c r="AD78" s="27"/>
+      <c r="AE78" s="32"/>
     </row>
     <row r="79" spans="1:31">
-      <c r="A79" s="5">
+      <c r="A79" s="6">
         <v>44603</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="26"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="26"/>
-      <c r="AA79" s="26"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="26"/>
-      <c r="AD79" s="26"/>
-      <c r="AE79" s="26"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="32"/>
     </row>
     <row r="80" spans="1:31">
-      <c r="A80" s="5">
+      <c r="A80" s="6">
         <v>44604</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="26"/>
-      <c r="X80" s="26"/>
-      <c r="Y80" s="26"/>
-      <c r="Z80" s="26"/>
-      <c r="AA80" s="26"/>
-      <c r="AB80" s="26"/>
-      <c r="AC80" s="26"/>
-      <c r="AD80" s="26"/>
-      <c r="AE80" s="26"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="27"/>
+      <c r="AE80" s="32"/>
     </row>
     <row r="81" spans="1:31">
-      <c r="A81" s="5">
+      <c r="A81" s="6">
         <v>44605</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="26"/>
-      <c r="X81" s="26"/>
-      <c r="Y81" s="26"/>
-      <c r="Z81" s="26"/>
-      <c r="AA81" s="26"/>
-      <c r="AB81" s="26"/>
-      <c r="AC81" s="26"/>
-      <c r="AD81" s="26"/>
-      <c r="AE81" s="26"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="27"/>
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="27"/>
+      <c r="AE81" s="32"/>
     </row>
     <row r="82" spans="1:31">
-      <c r="A82" s="5">
+      <c r="A82" s="6">
         <v>44606</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="26"/>
-      <c r="X82" s="26"/>
-      <c r="Y82" s="26"/>
-      <c r="Z82" s="26"/>
-      <c r="AA82" s="26"/>
-      <c r="AB82" s="26"/>
-      <c r="AC82" s="26"/>
-      <c r="AD82" s="26"/>
-      <c r="AE82" s="26"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27"/>
+      <c r="AE82" s="32"/>
     </row>
     <row r="83" spans="1:31">
-      <c r="A83" s="5">
+      <c r="A83" s="6">
         <v>44607</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="26"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="26"/>
-      <c r="AA83" s="26"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="26"/>
-      <c r="AD83" s="26"/>
-      <c r="AE83" s="26"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="32"/>
     </row>
     <row r="84" spans="1:31">
-      <c r="A84" s="5">
+      <c r="A84" s="6">
         <v>44608</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="26"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="26"/>
-      <c r="Z84" s="26"/>
-      <c r="AA84" s="26"/>
-      <c r="AB84" s="26"/>
-      <c r="AC84" s="26"/>
-      <c r="AD84" s="26"/>
-      <c r="AE84" s="26"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="32"/>
     </row>
     <row r="85" spans="1:31">
-      <c r="A85" s="5">
+      <c r="A85" s="6">
         <v>44609</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="26"/>
-      <c r="X85" s="26"/>
-      <c r="Y85" s="26"/>
-      <c r="Z85" s="26"/>
-      <c r="AA85" s="26"/>
-      <c r="AB85" s="26"/>
-      <c r="AC85" s="26"/>
-      <c r="AD85" s="26"/>
-      <c r="AE85" s="26"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="32"/>
     </row>
     <row r="86" spans="1:31">
-      <c r="A86" s="5">
+      <c r="A86" s="6">
         <v>44610</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="26"/>
-      <c r="X86" s="26"/>
-      <c r="Y86" s="26"/>
-      <c r="Z86" s="26"/>
-      <c r="AA86" s="26"/>
-      <c r="AB86" s="26"/>
-      <c r="AC86" s="26"/>
-      <c r="AD86" s="26"/>
-      <c r="AE86" s="26"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="32"/>
     </row>
     <row r="87" spans="1:31">
-      <c r="A87" s="5">
+      <c r="A87" s="6">
         <v>44611</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="26"/>
-      <c r="X87" s="26"/>
-      <c r="Y87" s="26"/>
-      <c r="Z87" s="26"/>
-      <c r="AA87" s="26"/>
-      <c r="AB87" s="26"/>
-      <c r="AC87" s="26"/>
-      <c r="AD87" s="26"/>
-      <c r="AE87" s="26"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="32"/>
     </row>
     <row r="88" spans="1:31">
-      <c r="A88" s="5">
+      <c r="A88" s="6">
         <v>44612</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="26"/>
-      <c r="X88" s="26"/>
-      <c r="Y88" s="26"/>
-      <c r="Z88" s="26"/>
-      <c r="AA88" s="26"/>
-      <c r="AB88" s="26"/>
-      <c r="AC88" s="26"/>
-      <c r="AD88" s="26"/>
-      <c r="AE88" s="26"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="32"/>
     </row>
     <row r="89" spans="1:31">
-      <c r="A89" s="5">
+      <c r="A89" s="6">
         <v>44613</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="26"/>
-      <c r="X89" s="26"/>
-      <c r="Y89" s="26"/>
-      <c r="Z89" s="26"/>
-      <c r="AA89" s="26"/>
-      <c r="AB89" s="26"/>
-      <c r="AC89" s="26"/>
-      <c r="AD89" s="26"/>
-      <c r="AE89" s="26"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="32"/>
     </row>
     <row r="90" spans="1:31">
-      <c r="A90" s="5">
+      <c r="A90" s="6">
         <v>44614</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="26"/>
-      <c r="X90" s="26"/>
-      <c r="Y90" s="26"/>
-      <c r="Z90" s="26"/>
-      <c r="AA90" s="26"/>
-      <c r="AB90" s="26"/>
-      <c r="AC90" s="26"/>
-      <c r="AD90" s="26"/>
-      <c r="AE90" s="26"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="32"/>
     </row>
     <row r="91" spans="1:31">
-      <c r="A91" s="5">
+      <c r="A91" s="6">
         <v>44615</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="26"/>
-      <c r="X91" s="26"/>
-      <c r="Y91" s="26"/>
-      <c r="Z91" s="26"/>
-      <c r="AA91" s="26"/>
-      <c r="AB91" s="26"/>
-      <c r="AC91" s="26"/>
-      <c r="AD91" s="26"/>
-      <c r="AE91" s="26"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="32"/>
     </row>
     <row r="92" spans="1:31">
-      <c r="A92" s="5">
+      <c r="A92" s="6">
         <v>44616</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="26"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="26"/>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="26"/>
-      <c r="AD92" s="26"/>
-      <c r="AE92" s="26"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="27"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="27"/>
+      <c r="AE92" s="32"/>
     </row>
     <row r="93" spans="1:31">
-      <c r="A93" s="5">
+      <c r="A93" s="6">
         <v>44617</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="26"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="26"/>
-      <c r="AA93" s="26"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="26"/>
-      <c r="AD93" s="26"/>
-      <c r="AE93" s="26"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="27"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="27"/>
+      <c r="AC93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AE93" s="32"/>
     </row>
     <row r="94" spans="1:31">
-      <c r="A94" s="5">
+      <c r="A94" s="6">
         <v>44618</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="26"/>
-      <c r="X94" s="26"/>
-      <c r="Y94" s="26"/>
-      <c r="Z94" s="26"/>
-      <c r="AA94" s="26"/>
-      <c r="AB94" s="26"/>
-      <c r="AC94" s="26"/>
-      <c r="AD94" s="26"/>
-      <c r="AE94" s="26"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="27"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27"/>
+      <c r="AE94" s="32"/>
     </row>
     <row r="95" spans="1:31">
-      <c r="A95" s="5">
+      <c r="A95" s="6">
         <v>44619</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="26"/>
-      <c r="X95" s="26"/>
-      <c r="Y95" s="26"/>
-      <c r="Z95" s="26"/>
-      <c r="AA95" s="26"/>
-      <c r="AB95" s="26"/>
-      <c r="AC95" s="26"/>
-      <c r="AD95" s="26"/>
-      <c r="AE95" s="26"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="27"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="27"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="27"/>
+      <c r="AC95" s="27"/>
+      <c r="AD95" s="27"/>
+      <c r="AE95" s="32"/>
     </row>
     <row r="96" spans="1:31">
-      <c r="A96" s="5">
+      <c r="A96" s="6">
         <v>44620</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="26"/>
-      <c r="X96" s="26"/>
-      <c r="Y96" s="26"/>
-      <c r="Z96" s="26"/>
-      <c r="AA96" s="26"/>
-      <c r="AB96" s="26"/>
-      <c r="AC96" s="26"/>
-      <c r="AD96" s="26"/>
-      <c r="AE96" s="26"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="32"/>
     </row>
     <row r="97" spans="1:31">
-      <c r="A97" s="5">
+      <c r="A97" s="6">
         <v>44621</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="26"/>
-      <c r="X97" s="26"/>
-      <c r="Y97" s="26"/>
-      <c r="Z97" s="26"/>
-      <c r="AA97" s="26"/>
-      <c r="AB97" s="26"/>
-      <c r="AC97" s="26"/>
-      <c r="AD97" s="26"/>
-      <c r="AE97" s="26"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="27"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="27"/>
+      <c r="AC97" s="27"/>
+      <c r="AD97" s="27"/>
+      <c r="AE97" s="32"/>
     </row>
     <row r="98" spans="1:31">
-      <c r="A98" s="5">
+      <c r="A98" s="6">
         <v>44622</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="26"/>
-      <c r="X98" s="26"/>
-      <c r="Y98" s="26"/>
-      <c r="Z98" s="26"/>
-      <c r="AA98" s="26"/>
-      <c r="AB98" s="26"/>
-      <c r="AC98" s="26"/>
-      <c r="AD98" s="26"/>
-      <c r="AE98" s="26"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="27"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="27"/>
+      <c r="AC98" s="27"/>
+      <c r="AD98" s="27"/>
+      <c r="AE98" s="32"/>
     </row>
     <row r="99" spans="1:31">
-      <c r="A99" s="5">
+      <c r="A99" s="6">
         <v>44623</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="26"/>
-      <c r="X99" s="26"/>
-      <c r="Y99" s="26"/>
-      <c r="Z99" s="26"/>
-      <c r="AA99" s="26"/>
-      <c r="AB99" s="26"/>
-      <c r="AC99" s="26"/>
-      <c r="AD99" s="26"/>
-      <c r="AE99" s="26"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="27"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="27"/>
+      <c r="AC99" s="27"/>
+      <c r="AD99" s="27"/>
+      <c r="AE99" s="32"/>
     </row>
     <row r="100" spans="1:31">
-      <c r="A100" s="5">
+      <c r="A100" s="6">
         <v>44624</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="26"/>
-      <c r="X100" s="26"/>
-      <c r="Y100" s="26"/>
-      <c r="Z100" s="26"/>
-      <c r="AA100" s="26"/>
-      <c r="AB100" s="26"/>
-      <c r="AC100" s="26"/>
-      <c r="AD100" s="26"/>
-      <c r="AE100" s="26"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="27"/>
+      <c r="X100" s="27"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="27"/>
+      <c r="AC100" s="27"/>
+      <c r="AD100" s="27"/>
+      <c r="AE100" s="32"/>
     </row>
     <row r="101" spans="1:31">
-      <c r="A101" s="5">
+      <c r="A101" s="6">
         <v>44625</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="26"/>
-      <c r="X101" s="26"/>
-      <c r="Y101" s="26"/>
-      <c r="Z101" s="26"/>
-      <c r="AA101" s="26"/>
-      <c r="AB101" s="26"/>
-      <c r="AC101" s="26"/>
-      <c r="AD101" s="26"/>
-      <c r="AE101" s="26"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="27"/>
+      <c r="X101" s="27"/>
+      <c r="Y101" s="27"/>
+      <c r="Z101" s="27"/>
+      <c r="AA101" s="27"/>
+      <c r="AB101" s="27"/>
+      <c r="AC101" s="27"/>
+      <c r="AD101" s="27"/>
+      <c r="AE101" s="32"/>
     </row>
     <row r="102" spans="1:31">
-      <c r="A102" s="5">
+      <c r="A102" s="6">
         <v>44626</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="7"/>
-      <c r="V102" s="7"/>
-      <c r="W102" s="26"/>
-      <c r="X102" s="26"/>
-      <c r="Y102" s="26"/>
-      <c r="Z102" s="26"/>
-      <c r="AA102" s="26"/>
-      <c r="AB102" s="26"/>
-      <c r="AC102" s="26"/>
-      <c r="AD102" s="26"/>
-      <c r="AE102" s="26"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="27"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="27"/>
+      <c r="Z102" s="27"/>
+      <c r="AA102" s="27"/>
+      <c r="AB102" s="27"/>
+      <c r="AC102" s="27"/>
+      <c r="AD102" s="27"/>
+      <c r="AE102" s="32"/>
     </row>
     <row r="103" spans="1:31">
-      <c r="A103" s="5">
+      <c r="A103" s="6">
         <v>44627</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="26"/>
-      <c r="X103" s="26"/>
-      <c r="Y103" s="26"/>
-      <c r="Z103" s="26"/>
-      <c r="AA103" s="26"/>
-      <c r="AB103" s="26"/>
-      <c r="AC103" s="26"/>
-      <c r="AD103" s="26"/>
-      <c r="AE103" s="26"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="27"/>
+      <c r="X103" s="27"/>
+      <c r="Y103" s="27"/>
+      <c r="Z103" s="27"/>
+      <c r="AA103" s="27"/>
+      <c r="AB103" s="27"/>
+      <c r="AC103" s="27"/>
+      <c r="AD103" s="27"/>
+      <c r="AE103" s="32"/>
     </row>
     <row r="104" spans="1:31">
-      <c r="A104" s="5">
+      <c r="A104" s="6">
         <v>44628</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="7"/>
-      <c r="V104" s="7"/>
-      <c r="W104" s="26"/>
-      <c r="X104" s="26"/>
-      <c r="Y104" s="26"/>
-      <c r="Z104" s="26"/>
-      <c r="AA104" s="26"/>
-      <c r="AB104" s="26"/>
-      <c r="AC104" s="26"/>
-      <c r="AD104" s="26"/>
-      <c r="AE104" s="26"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="27"/>
+      <c r="X104" s="27"/>
+      <c r="Y104" s="27"/>
+      <c r="Z104" s="27"/>
+      <c r="AA104" s="27"/>
+      <c r="AB104" s="27"/>
+      <c r="AC104" s="27"/>
+      <c r="AD104" s="27"/>
+      <c r="AE104" s="32"/>
     </row>
     <row r="105" spans="1:31">
-      <c r="A105" s="5">
+      <c r="A105" s="6">
         <v>44629</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="7"/>
-      <c r="T105" s="7"/>
-      <c r="U105" s="7"/>
-      <c r="V105" s="7"/>
-      <c r="W105" s="26"/>
-      <c r="X105" s="26"/>
-      <c r="Y105" s="26"/>
-      <c r="Z105" s="26"/>
-      <c r="AA105" s="26"/>
-      <c r="AB105" s="26"/>
-      <c r="AC105" s="26"/>
-      <c r="AD105" s="26"/>
-      <c r="AE105" s="26"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="27"/>
+      <c r="X105" s="27"/>
+      <c r="Y105" s="27"/>
+      <c r="Z105" s="27"/>
+      <c r="AA105" s="27"/>
+      <c r="AB105" s="27"/>
+      <c r="AC105" s="27"/>
+      <c r="AD105" s="27"/>
+      <c r="AE105" s="32"/>
     </row>
     <row r="106" spans="1:31">
-      <c r="A106" s="5">
+      <c r="A106" s="6">
         <v>44630</v>
       </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="26"/>
-      <c r="X106" s="26"/>
-      <c r="Y106" s="26"/>
-      <c r="Z106" s="26"/>
-      <c r="AA106" s="26"/>
-      <c r="AB106" s="26"/>
-      <c r="AC106" s="26"/>
-      <c r="AD106" s="26"/>
-      <c r="AE106" s="26"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="27"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
+      <c r="AD106" s="27"/>
+      <c r="AE106" s="32"/>
     </row>
     <row r="107" spans="1:31">
-      <c r="A107" s="5">
+      <c r="A107" s="6">
         <v>44631</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="26"/>
-      <c r="X107" s="26"/>
-      <c r="Y107" s="26"/>
-      <c r="Z107" s="26"/>
-      <c r="AA107" s="26"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="26"/>
-      <c r="AD107" s="26"/>
-      <c r="AE107" s="26"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="27"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
+      <c r="AD107" s="27"/>
+      <c r="AE107" s="32"/>
     </row>
     <row r="108" spans="1:31">
-      <c r="A108" s="5">
+      <c r="A108" s="6">
         <v>44632</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="26"/>
-      <c r="AA108" s="26"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="26"/>
-      <c r="AD108" s="26"/>
-      <c r="AE108" s="26"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27"/>
+      <c r="AE108" s="32"/>
     </row>
     <row r="109" spans="1:31">
-      <c r="A109" s="5">
+      <c r="A109" s="6">
         <v>44633</v>
       </c>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="7"/>
-      <c r="W109" s="26"/>
-      <c r="X109" s="26"/>
-      <c r="Y109" s="26"/>
-      <c r="Z109" s="26"/>
-      <c r="AA109" s="26"/>
-      <c r="AB109" s="26"/>
-      <c r="AC109" s="26"/>
-      <c r="AD109" s="26"/>
-      <c r="AE109" s="26"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="27"/>
+      <c r="X109" s="27"/>
+      <c r="Y109" s="27"/>
+      <c r="Z109" s="27"/>
+      <c r="AA109" s="27"/>
+      <c r="AB109" s="27"/>
+      <c r="AC109" s="27"/>
+      <c r="AD109" s="27"/>
+      <c r="AE109" s="32"/>
     </row>
     <row r="110" spans="1:31">
-      <c r="A110" s="5">
+      <c r="A110" s="6">
         <v>44634</v>
       </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="26"/>
-      <c r="X110" s="26"/>
-      <c r="Y110" s="26"/>
-      <c r="Z110" s="26"/>
-      <c r="AA110" s="26"/>
-      <c r="AB110" s="26"/>
-      <c r="AC110" s="26"/>
-      <c r="AD110" s="26"/>
-      <c r="AE110" s="26"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="27"/>
+      <c r="AB110" s="27"/>
+      <c r="AC110" s="27"/>
+      <c r="AD110" s="27"/>
+      <c r="AE110" s="32"/>
     </row>
     <row r="111" spans="1:31">
-      <c r="A111" s="5">
+      <c r="A111" s="6">
         <v>44635</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="7"/>
-      <c r="W111" s="26"/>
-      <c r="X111" s="26"/>
-      <c r="Y111" s="26"/>
-      <c r="Z111" s="26"/>
-      <c r="AA111" s="26"/>
-      <c r="AB111" s="26"/>
-      <c r="AC111" s="26"/>
-      <c r="AD111" s="26"/>
-      <c r="AE111" s="26"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="27"/>
+      <c r="X111" s="27"/>
+      <c r="Y111" s="27"/>
+      <c r="Z111" s="27"/>
+      <c r="AA111" s="27"/>
+      <c r="AB111" s="27"/>
+      <c r="AC111" s="27"/>
+      <c r="AD111" s="27"/>
+      <c r="AE111" s="32"/>
     </row>
     <row r="112" spans="1:31">
-      <c r="A112" s="5">
+      <c r="A112" s="6">
         <v>44636</v>
       </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="7"/>
-      <c r="W112" s="26"/>
-      <c r="X112" s="26"/>
-      <c r="Y112" s="26"/>
-      <c r="Z112" s="26"/>
-      <c r="AA112" s="26"/>
-      <c r="AB112" s="26"/>
-      <c r="AC112" s="26"/>
-      <c r="AD112" s="26"/>
-      <c r="AE112" s="26"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="27"/>
+      <c r="X112" s="27"/>
+      <c r="Y112" s="27"/>
+      <c r="Z112" s="27"/>
+      <c r="AA112" s="27"/>
+      <c r="AB112" s="27"/>
+      <c r="AC112" s="27"/>
+      <c r="AD112" s="27"/>
+      <c r="AE112" s="32"/>
     </row>
     <row r="113" spans="1:31">
-      <c r="A113" s="5">
+      <c r="A113" s="6">
         <v>44637</v>
       </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="7"/>
-      <c r="W113" s="26"/>
-      <c r="X113" s="26"/>
-      <c r="Y113" s="26"/>
-      <c r="Z113" s="26"/>
-      <c r="AA113" s="26"/>
-      <c r="AB113" s="26"/>
-      <c r="AC113" s="26"/>
-      <c r="AD113" s="26"/>
-      <c r="AE113" s="26"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="27"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="27"/>
+      <c r="AA113" s="27"/>
+      <c r="AB113" s="27"/>
+      <c r="AC113" s="27"/>
+      <c r="AD113" s="27"/>
+      <c r="AE113" s="32"/>
     </row>
     <row r="114" spans="1:31">
-      <c r="A114" s="5">
+      <c r="A114" s="6">
         <v>44638</v>
       </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
-      <c r="W114" s="26"/>
-      <c r="X114" s="26"/>
-      <c r="Y114" s="26"/>
-      <c r="Z114" s="26"/>
-      <c r="AA114" s="26"/>
-      <c r="AB114" s="26"/>
-      <c r="AC114" s="26"/>
-      <c r="AD114" s="26"/>
-      <c r="AE114" s="26"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="27"/>
+      <c r="AB114" s="27"/>
+      <c r="AC114" s="27"/>
+      <c r="AD114" s="27"/>
+      <c r="AE114" s="32"/>
     </row>
     <row r="115" spans="1:31">
-      <c r="A115" s="5">
+      <c r="A115" s="6">
         <v>44639</v>
       </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="26"/>
-      <c r="X115" s="26"/>
-      <c r="Y115" s="26"/>
-      <c r="Z115" s="26"/>
-      <c r="AA115" s="26"/>
-      <c r="AB115" s="26"/>
-      <c r="AC115" s="26"/>
-      <c r="AD115" s="26"/>
-      <c r="AE115" s="26"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="8"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="27"/>
+      <c r="X115" s="27"/>
+      <c r="Y115" s="27"/>
+      <c r="Z115" s="27"/>
+      <c r="AA115" s="27"/>
+      <c r="AB115" s="27"/>
+      <c r="AC115" s="27"/>
+      <c r="AD115" s="27"/>
+      <c r="AE115" s="32"/>
     </row>
     <row r="116" spans="1:31">
-      <c r="A116" s="5">
+      <c r="A116" s="6">
         <v>44640</v>
       </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="26"/>
-      <c r="X116" s="26"/>
-      <c r="Y116" s="26"/>
-      <c r="Z116" s="26"/>
-      <c r="AA116" s="26"/>
-      <c r="AB116" s="26"/>
-      <c r="AC116" s="26"/>
-      <c r="AD116" s="26"/>
-      <c r="AE116" s="26"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="27"/>
+      <c r="X116" s="27"/>
+      <c r="Y116" s="27"/>
+      <c r="Z116" s="27"/>
+      <c r="AA116" s="27"/>
+      <c r="AB116" s="27"/>
+      <c r="AC116" s="27"/>
+      <c r="AD116" s="27"/>
+      <c r="AE116" s="32"/>
     </row>
     <row r="117" spans="1:31">
-      <c r="A117" s="5">
+      <c r="A117" s="6">
         <v>44641</v>
       </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="26"/>
-      <c r="X117" s="26"/>
-      <c r="Y117" s="26"/>
-      <c r="Z117" s="26"/>
-      <c r="AA117" s="26"/>
-      <c r="AB117" s="26"/>
-      <c r="AC117" s="26"/>
-      <c r="AD117" s="26"/>
-      <c r="AE117" s="26"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="8"/>
+      <c r="V117" s="8"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+      <c r="AA117" s="27"/>
+      <c r="AB117" s="27"/>
+      <c r="AC117" s="27"/>
+      <c r="AD117" s="27"/>
+      <c r="AE117" s="32"/>
     </row>
     <row r="118" spans="1:31">
-      <c r="A118" s="5">
+      <c r="A118" s="6">
         <v>44642</v>
       </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="7"/>
-      <c r="W118" s="26"/>
-      <c r="X118" s="26"/>
-      <c r="Y118" s="26"/>
-      <c r="Z118" s="26"/>
-      <c r="AA118" s="26"/>
-      <c r="AB118" s="26"/>
-      <c r="AC118" s="26"/>
-      <c r="AD118" s="26"/>
-      <c r="AE118" s="26"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8"/>
+      <c r="V118" s="8"/>
+      <c r="W118" s="27"/>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="27"/>
+      <c r="AC118" s="27"/>
+      <c r="AD118" s="27"/>
+      <c r="AE118" s="32"/>
     </row>
     <row r="119" spans="1:31">
-      <c r="A119" s="5">
+      <c r="A119" s="6">
         <v>44643</v>
       </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="7"/>
-      <c r="V119" s="7"/>
-      <c r="W119" s="26"/>
-      <c r="X119" s="26"/>
-      <c r="Y119" s="26"/>
-      <c r="Z119" s="26"/>
-      <c r="AA119" s="26"/>
-      <c r="AB119" s="26"/>
-      <c r="AC119" s="26"/>
-      <c r="AD119" s="26"/>
-      <c r="AE119" s="26"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
+      <c r="U119" s="8"/>
+      <c r="V119" s="8"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="27"/>
+      <c r="AC119" s="27"/>
+      <c r="AD119" s="27"/>
+      <c r="AE119" s="32"/>
     </row>
     <row r="120" spans="1:31">
-      <c r="A120" s="5">
+      <c r="A120" s="6">
         <v>44644</v>
       </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7"/>
-      <c r="T120" s="7"/>
-      <c r="U120" s="7"/>
-      <c r="V120" s="7"/>
-      <c r="W120" s="26"/>
-      <c r="X120" s="26"/>
-      <c r="Y120" s="26"/>
-      <c r="Z120" s="26"/>
-      <c r="AA120" s="26"/>
-      <c r="AB120" s="26"/>
-      <c r="AC120" s="26"/>
-      <c r="AD120" s="26"/>
-      <c r="AE120" s="26"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
+      <c r="U120" s="8"/>
+      <c r="V120" s="8"/>
+      <c r="W120" s="27"/>
+      <c r="X120" s="27"/>
+      <c r="Y120" s="27"/>
+      <c r="Z120" s="27"/>
+      <c r="AA120" s="27"/>
+      <c r="AB120" s="27"/>
+      <c r="AC120" s="27"/>
+      <c r="AD120" s="27"/>
+      <c r="AE120" s="32"/>
     </row>
     <row r="121" spans="1:31">
-      <c r="A121" s="5">
+      <c r="A121" s="6">
         <v>44645</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="26"/>
-      <c r="X121" s="26"/>
-      <c r="Y121" s="26"/>
-      <c r="Z121" s="26"/>
-      <c r="AA121" s="26"/>
-      <c r="AB121" s="26"/>
-      <c r="AC121" s="26"/>
-      <c r="AD121" s="26"/>
-      <c r="AE121" s="26"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="27"/>
+      <c r="X121" s="27"/>
+      <c r="Y121" s="27"/>
+      <c r="Z121" s="27"/>
+      <c r="AA121" s="27"/>
+      <c r="AB121" s="27"/>
+      <c r="AC121" s="27"/>
+      <c r="AD121" s="27"/>
+      <c r="AE121" s="32"/>
     </row>
     <row r="122" spans="1:31">
-      <c r="A122" s="5">
+      <c r="A122" s="6">
         <v>44646</v>
       </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="7"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="7"/>
-      <c r="V122" s="7"/>
-      <c r="W122" s="26"/>
-      <c r="X122" s="26"/>
-      <c r="Y122" s="26"/>
-      <c r="Z122" s="26"/>
-      <c r="AA122" s="26"/>
-      <c r="AB122" s="26"/>
-      <c r="AC122" s="26"/>
-      <c r="AD122" s="26"/>
-      <c r="AE122" s="26"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="8"/>
+      <c r="V122" s="8"/>
+      <c r="W122" s="27"/>
+      <c r="X122" s="27"/>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="27"/>
+      <c r="AA122" s="27"/>
+      <c r="AB122" s="27"/>
+      <c r="AC122" s="27"/>
+      <c r="AD122" s="27"/>
+      <c r="AE122" s="32"/>
     </row>
     <row r="123" spans="1:31">
-      <c r="A123" s="5">
+      <c r="A123" s="6">
         <v>44647</v>
       </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="7"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="7"/>
-      <c r="W123" s="26"/>
-      <c r="X123" s="26"/>
-      <c r="Y123" s="26"/>
-      <c r="Z123" s="26"/>
-      <c r="AA123" s="26"/>
-      <c r="AB123" s="26"/>
-      <c r="AC123" s="26"/>
-      <c r="AD123" s="26"/>
-      <c r="AE123" s="26"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="8"/>
+      <c r="W123" s="27"/>
+      <c r="X123" s="27"/>
+      <c r="Y123" s="27"/>
+      <c r="Z123" s="27"/>
+      <c r="AA123" s="27"/>
+      <c r="AB123" s="27"/>
+      <c r="AC123" s="27"/>
+      <c r="AD123" s="27"/>
+      <c r="AE123" s="32"/>
     </row>
     <row r="124" spans="1:31">
-      <c r="A124" s="5">
+      <c r="A124" s="6">
         <v>44648</v>
       </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="7"/>
-      <c r="R124" s="7"/>
-      <c r="S124" s="7"/>
-      <c r="T124" s="7"/>
-      <c r="U124" s="7"/>
-      <c r="V124" s="7"/>
-      <c r="W124" s="26"/>
-      <c r="X124" s="26"/>
-      <c r="Y124" s="26"/>
-      <c r="Z124" s="26"/>
-      <c r="AA124" s="26"/>
-      <c r="AB124" s="26"/>
-      <c r="AC124" s="26"/>
-      <c r="AD124" s="26"/>
-      <c r="AE124" s="26"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="8"/>
+      <c r="T124" s="8"/>
+      <c r="U124" s="8"/>
+      <c r="V124" s="8"/>
+      <c r="W124" s="27"/>
+      <c r="X124" s="27"/>
+      <c r="Y124" s="27"/>
+      <c r="Z124" s="27"/>
+      <c r="AA124" s="27"/>
+      <c r="AB124" s="27"/>
+      <c r="AC124" s="27"/>
+      <c r="AD124" s="27"/>
+      <c r="AE124" s="32"/>
     </row>
     <row r="125" spans="1:31">
-      <c r="A125" s="5">
+      <c r="A125" s="6">
         <v>44649</v>
       </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="7"/>
-      <c r="R125" s="7"/>
-      <c r="S125" s="7"/>
-      <c r="T125" s="7"/>
-      <c r="U125" s="7"/>
-      <c r="V125" s="7"/>
-      <c r="W125" s="26"/>
-      <c r="X125" s="26"/>
-      <c r="Y125" s="26"/>
-      <c r="Z125" s="26"/>
-      <c r="AA125" s="26"/>
-      <c r="AB125" s="26"/>
-      <c r="AC125" s="26"/>
-      <c r="AD125" s="26"/>
-      <c r="AE125" s="26"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="8"/>
+      <c r="U125" s="8"/>
+      <c r="V125" s="8"/>
+      <c r="W125" s="27"/>
+      <c r="X125" s="27"/>
+      <c r="Y125" s="27"/>
+      <c r="Z125" s="27"/>
+      <c r="AA125" s="27"/>
+      <c r="AB125" s="27"/>
+      <c r="AC125" s="27"/>
+      <c r="AD125" s="27"/>
+      <c r="AE125" s="32"/>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -2918,7 +2918,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE7" sqref="AE7:AE8"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>日期</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>是否出现连续几天的放量上涨</t>
+  </si>
+  <si>
+    <t>是否出现网球行为</t>
   </si>
   <si>
     <t>是否上涨天数大于下跌天数</t>
@@ -440,7 +443,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,13 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,76 +842,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -911,7 +920,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,7 +929,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,25 +941,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,23 +971,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,43 +1045,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2911,14 +2923,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AE496"/>
+  <dimension ref="A1:AF496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2936,22 +2948,22 @@
     <col min="15" max="15" width="25.4464285714286" customWidth="1"/>
     <col min="16" max="16" width="30.0625" customWidth="1"/>
     <col min="17" max="17" width="40.4732142857143" customWidth="1"/>
-    <col min="18" max="18" width="28.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="37.1964285714286" customWidth="1"/>
-    <col min="20" max="21" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.4464285714286" customWidth="1"/>
-    <col min="23" max="23" width="23.3571428571429" customWidth="1"/>
-    <col min="24" max="24" width="29.1607142857143" customWidth="1"/>
-    <col min="25" max="25" width="17.5535714285714" customWidth="1"/>
-    <col min="26" max="26" width="22.0178571428571" customWidth="1"/>
-    <col min="27" max="27" width="26.4821428571429" customWidth="1"/>
-    <col min="28" max="28" width="22.0267857142857" customWidth="1"/>
-    <col min="29" max="29" width="24.5446428571429" customWidth="1"/>
-    <col min="30" max="30" width="18.75" customWidth="1"/>
-    <col min="31" max="31" width="9.07142857142857" style="2"/>
+    <col min="18" max="19" width="28.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="37.1964285714286" customWidth="1"/>
+    <col min="21" max="22" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
+    <col min="24" max="24" width="23.3571428571429" customWidth="1"/>
+    <col min="25" max="25" width="29.1607142857143" customWidth="1"/>
+    <col min="26" max="26" width="17.5535714285714" customWidth="1"/>
+    <col min="27" max="27" width="22.0178571428571" customWidth="1"/>
+    <col min="28" max="28" width="26.4821428571429" customWidth="1"/>
+    <col min="29" max="29" width="22.0267857142857" customWidth="1"/>
+    <col min="30" max="30" width="24.5446428571429" customWidth="1"/>
+    <col min="31" max="31" width="18.75" customWidth="1"/>
+    <col min="32" max="32" width="9.07142857142857" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2977,13 +2989,13 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="23"/>
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
       <c r="Y1" s="23"/>
@@ -2992,11 +3004,12 @@
       <c r="AB1" s="23"/>
       <c r="AC1" s="23"/>
       <c r="AD1" s="23"/>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3016,24 +3029,25 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="24" t="s">
+      <c r="T2" s="15"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="30" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="29"/>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="30"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3052,25 +3066,26 @@
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="20"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="29"/>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="30"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -3117,47 +3132,50 @@
       <c r="P4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="25" t="s">
+      <c r="T4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="U4" s="24"/>
+      <c r="V4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="28" t="s">
+      <c r="X4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="24" t="s">
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="28" t="s">
+      <c r="AB4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="30" t="s">
+      <c r="AC4" s="29" t="s">
         <v>35</v>
       </c>
       <c r="AD4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="29"/>
-    </row>
-    <row r="5" ht="56" customHeight="1" spans="1:31">
+      <c r="AE4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" s="30"/>
+    </row>
+    <row r="5" ht="56" customHeight="1" spans="1:32">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3174,27 +3192,28 @@
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="20"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="26" t="s">
+      <c r="U5" s="24"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="29"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="Y5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="30"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="6">
         <v>44530</v>
       </c>
@@ -3242,38 +3261,41 @@
         <v>否</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="18" t="s">
         <v>40</v>
       </c>
+      <c r="R6" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="S6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="32">
+        <v>41</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="33">
         <v>27.72</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" s="6">
         <v>44531</v>
       </c>
@@ -3322,39 +3344,42 @@
         <v>否</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="R7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="32">
-        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7,AE6)</f>
+      <c r="S7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="33">
+        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7,AF6)</f>
         <v>27.72</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" s="6">
         <v>44532</v>
       </c>
@@ -3403,39 +3428,42 @@
         <v>否</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="32">
-        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8,AE7)</f>
+      <c r="U8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="33">
+        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8,AF7)</f>
         <v>27.72</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" s="6">
         <v>44533</v>
       </c>
@@ -3459,18 +3487,19 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="32"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="V9" s="8"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="33"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="6">
         <v>44534</v>
       </c>
@@ -3494,18 +3523,19 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="32"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="V10" s="8"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="6">
         <v>44535</v>
       </c>
@@ -3529,18 +3559,19 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="32"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="V11" s="8"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="33"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="6">
         <v>44536</v>
       </c>
@@ -3564,18 +3595,19 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="32"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="V12" s="8"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="33"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="6">
         <v>44537</v>
       </c>
@@ -3599,18 +3631,19 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="32"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="V13" s="8"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="33"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="6">
         <v>44538</v>
       </c>
@@ -3634,18 +3667,19 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="32"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="V14" s="8"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="33"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="6">
         <v>44539</v>
       </c>
@@ -3669,18 +3703,19 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="32"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="V15" s="8"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="33"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="6">
         <v>44540</v>
       </c>
@@ -3704,18 +3739,19 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="32"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="V16" s="8"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="33"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="6">
         <v>44541</v>
       </c>
@@ -3739,18 +3775,19 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="32"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="V17" s="8"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="33"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="6">
         <v>44542</v>
       </c>
@@ -3774,18 +3811,19 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="32"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="V18" s="8"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="33"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="6">
         <v>44543</v>
       </c>
@@ -3809,18 +3847,19 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="32"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="V19" s="8"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="33"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="6">
         <v>44544</v>
       </c>
@@ -3844,18 +3883,19 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="32"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="V20" s="8"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="33"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="6">
         <v>44545</v>
       </c>
@@ -3880,17 +3920,18 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="32"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="W21" s="8"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="33"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="6">
         <v>44546</v>
       </c>
@@ -3915,17 +3956,18 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="32"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="W22" s="8"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="33"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="6">
         <v>44547</v>
       </c>
@@ -3950,17 +3992,18 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="32"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="W23" s="8"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="33"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="6">
         <v>44548</v>
       </c>
@@ -3985,17 +4028,18 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="32"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="W24" s="8"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="33"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="6">
         <v>44549</v>
       </c>
@@ -4020,17 +4064,18 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="32"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="W25" s="8"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="33"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="6">
         <v>44550</v>
       </c>
@@ -4055,17 +4100,18 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="32"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="W26" s="8"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="33"/>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="6">
         <v>44551</v>
       </c>
@@ -4090,17 +4136,18 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="32"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="W27" s="8"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="33"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="6">
         <v>44552</v>
       </c>
@@ -4125,17 +4172,18 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="32"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="W28" s="8"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="33"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="6">
         <v>44553</v>
       </c>
@@ -4160,17 +4208,18 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="32"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="W29" s="8"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="33"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="6">
         <v>44554</v>
       </c>
@@ -4195,17 +4244,18 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="32"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="W30" s="8"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="33"/>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" s="6">
         <v>44555</v>
       </c>
@@ -4230,17 +4280,18 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="32"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="W31" s="8"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="33"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="6">
         <v>44556</v>
       </c>
@@ -4265,17 +4316,18 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="32"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="W32" s="8"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="33"/>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="6">
         <v>44557</v>
       </c>
@@ -4300,17 +4352,18 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="32"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="W33" s="8"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="33"/>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="6">
         <v>44558</v>
       </c>
@@ -4335,17 +4388,18 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="32"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="W34" s="8"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="33"/>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="6">
         <v>44559</v>
       </c>
@@ -4370,17 +4424,18 @@
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="32"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="W35" s="8"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="33"/>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="6">
         <v>44560</v>
       </c>
@@ -4405,17 +4460,18 @@
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="32"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="W36" s="8"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="33"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="6">
         <v>44561</v>
       </c>
@@ -4440,17 +4496,18 @@
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="32"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="W37" s="8"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="33"/>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="6">
         <v>44562</v>
       </c>
@@ -4475,17 +4532,18 @@
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="32"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="W38" s="8"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="33"/>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" s="6">
         <v>44563</v>
       </c>
@@ -4510,17 +4568,18 @@
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="32"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="W39" s="8"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="33"/>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="6">
         <v>44564</v>
       </c>
@@ -4545,17 +4604,18 @@
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="32"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="W40" s="8"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="33"/>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" s="6">
         <v>44565</v>
       </c>
@@ -4580,17 +4640,18 @@
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="32"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="W41" s="8"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="33"/>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="6">
         <v>44566</v>
       </c>
@@ -4615,17 +4676,18 @@
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="32"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="W42" s="8"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="33"/>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" s="6">
         <v>44567</v>
       </c>
@@ -4650,17 +4712,18 @@
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="32"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="W43" s="8"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="33"/>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" s="6">
         <v>44568</v>
       </c>
@@ -4685,17 +4748,18 @@
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="32"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="W44" s="8"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="33"/>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="6">
         <v>44569</v>
       </c>
@@ -4720,17 +4784,18 @@
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="32"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="W45" s="8"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="33"/>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" s="6">
         <v>44570</v>
       </c>
@@ -4755,17 +4820,18 @@
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="32"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="W46" s="8"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="33"/>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="6">
         <v>44571</v>
       </c>
@@ -4790,17 +4856,18 @@
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="32"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="W47" s="8"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="33"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="6">
         <v>44572</v>
       </c>
@@ -4825,17 +4892,18 @@
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="32"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="W48" s="8"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="33"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="6">
         <v>44573</v>
       </c>
@@ -4860,17 +4928,18 @@
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
       <c r="V49" s="8"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="32"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="W49" s="8"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="33"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="6">
         <v>44574</v>
       </c>
@@ -4895,17 +4964,18 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="32"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="W50" s="8"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="33"/>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="6">
         <v>44575</v>
       </c>
@@ -4930,17 +5000,18 @@
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="32"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="W51" s="8"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="33"/>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="6">
         <v>44576</v>
       </c>
@@ -4965,17 +5036,18 @@
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="32"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="W52" s="8"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="33"/>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="6">
         <v>44577</v>
       </c>
@@ -5000,17 +5072,18 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="32"/>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="W53" s="8"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="33"/>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" s="6">
         <v>44578</v>
       </c>
@@ -5035,17 +5108,18 @@
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="32"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="W54" s="8"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="33"/>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="6">
         <v>44579</v>
       </c>
@@ -5070,17 +5144,18 @@
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="32"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="W55" s="8"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="33"/>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" s="6">
         <v>44580</v>
       </c>
@@ -5105,17 +5180,18 @@
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="32"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="W56" s="8"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="33"/>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" s="6">
         <v>44581</v>
       </c>
@@ -5140,17 +5216,18 @@
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="27"/>
-      <c r="AE57" s="32"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="W57" s="8"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
+      <c r="AD57" s="28"/>
+      <c r="AE57" s="28"/>
+      <c r="AF57" s="33"/>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="6">
         <v>44582</v>
       </c>
@@ -5175,17 +5252,18 @@
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="32"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="W58" s="8"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
+      <c r="AF58" s="33"/>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="6">
         <v>44583</v>
       </c>
@@ -5210,17 +5288,18 @@
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27"/>
-      <c r="AE59" s="32"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="W59" s="8"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="28"/>
+      <c r="AF59" s="33"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="6">
         <v>44584</v>
       </c>
@@ -5245,17 +5324,18 @@
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="32"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="W60" s="8"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="33"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="6">
         <v>44585</v>
       </c>
@@ -5280,17 +5360,18 @@
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="27"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="27"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="27"/>
-      <c r="AE61" s="32"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="W61" s="8"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+      <c r="AC61" s="28"/>
+      <c r="AD61" s="28"/>
+      <c r="AE61" s="28"/>
+      <c r="AF61" s="33"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="6">
         <v>44586</v>
       </c>
@@ -5315,17 +5396,18 @@
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27"/>
-      <c r="AE62" s="32"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="W62" s="8"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
+      <c r="AD62" s="28"/>
+      <c r="AE62" s="28"/>
+      <c r="AF62" s="33"/>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="6">
         <v>44587</v>
       </c>
@@ -5350,17 +5432,18 @@
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="27"/>
-      <c r="AE63" s="32"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="W63" s="8"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
+      <c r="AD63" s="28"/>
+      <c r="AE63" s="28"/>
+      <c r="AF63" s="33"/>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="6">
         <v>44588</v>
       </c>
@@ -5385,17 +5468,18 @@
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="27"/>
-      <c r="AE64" s="32"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="W64" s="8"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+      <c r="AC64" s="28"/>
+      <c r="AD64" s="28"/>
+      <c r="AE64" s="28"/>
+      <c r="AF64" s="33"/>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" s="6">
         <v>44589</v>
       </c>
@@ -5420,17 +5504,18 @@
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="32"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="W65" s="8"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
+      <c r="AD65" s="28"/>
+      <c r="AE65" s="28"/>
+      <c r="AF65" s="33"/>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="6">
         <v>44590</v>
       </c>
@@ -5455,17 +5540,18 @@
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="27"/>
-      <c r="AE66" s="32"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="W66" s="8"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
+      <c r="AD66" s="28"/>
+      <c r="AE66" s="28"/>
+      <c r="AF66" s="33"/>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="6">
         <v>44591</v>
       </c>
@@ -5490,17 +5576,18 @@
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="27"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="27"/>
-      <c r="AE67" s="32"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="W67" s="8"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
+      <c r="AD67" s="28"/>
+      <c r="AE67" s="28"/>
+      <c r="AF67" s="33"/>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="6">
         <v>44592</v>
       </c>
@@ -5525,17 +5612,18 @@
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="27"/>
-      <c r="AC68" s="27"/>
-      <c r="AD68" s="27"/>
-      <c r="AE68" s="32"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="W68" s="8"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="28"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="28"/>
+      <c r="AD68" s="28"/>
+      <c r="AE68" s="28"/>
+      <c r="AF68" s="33"/>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" s="6">
         <v>44593</v>
       </c>
@@ -5560,17 +5648,18 @@
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
       <c r="V69" s="8"/>
-      <c r="W69" s="27"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="27"/>
-      <c r="AE69" s="32"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="W69" s="8"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="28"/>
+      <c r="AD69" s="28"/>
+      <c r="AE69" s="28"/>
+      <c r="AF69" s="33"/>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" s="6">
         <v>44594</v>
       </c>
@@ -5595,17 +5684,18 @@
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
-      <c r="W70" s="27"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="27"/>
-      <c r="AB70" s="27"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="27"/>
-      <c r="AE70" s="32"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="W70" s="8"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="28"/>
+      <c r="AB70" s="28"/>
+      <c r="AC70" s="28"/>
+      <c r="AD70" s="28"/>
+      <c r="AE70" s="28"/>
+      <c r="AF70" s="33"/>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" s="6">
         <v>44595</v>
       </c>
@@ -5630,17 +5720,18 @@
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
       <c r="V71" s="8"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="27"/>
-      <c r="AB71" s="27"/>
-      <c r="AC71" s="27"/>
-      <c r="AD71" s="27"/>
-      <c r="AE71" s="32"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="W71" s="8"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="28"/>
+      <c r="AA71" s="28"/>
+      <c r="AB71" s="28"/>
+      <c r="AC71" s="28"/>
+      <c r="AD71" s="28"/>
+      <c r="AE71" s="28"/>
+      <c r="AF71" s="33"/>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="6">
         <v>44596</v>
       </c>
@@ -5665,17 +5756,18 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="27"/>
-      <c r="AE72" s="32"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="W72" s="8"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
+      <c r="AD72" s="28"/>
+      <c r="AE72" s="28"/>
+      <c r="AF72" s="33"/>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" s="6">
         <v>44597</v>
       </c>
@@ -5700,17 +5792,18 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
-      <c r="W73" s="27"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="27"/>
-      <c r="AA73" s="27"/>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="27"/>
-      <c r="AE73" s="32"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="W73" s="8"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
+      <c r="AD73" s="28"/>
+      <c r="AE73" s="28"/>
+      <c r="AF73" s="33"/>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" s="6">
         <v>44598</v>
       </c>
@@ -5735,17 +5828,18 @@
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
-      <c r="W74" s="27"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="27"/>
-      <c r="Z74" s="27"/>
-      <c r="AA74" s="27"/>
-      <c r="AB74" s="27"/>
-      <c r="AC74" s="27"/>
-      <c r="AD74" s="27"/>
-      <c r="AE74" s="32"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="W74" s="8"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="28"/>
+      <c r="AC74" s="28"/>
+      <c r="AD74" s="28"/>
+      <c r="AE74" s="28"/>
+      <c r="AF74" s="33"/>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" s="6">
         <v>44599</v>
       </c>
@@ -5770,17 +5864,18 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
-      <c r="W75" s="27"/>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="27"/>
-      <c r="Z75" s="27"/>
-      <c r="AA75" s="27"/>
-      <c r="AB75" s="27"/>
-      <c r="AC75" s="27"/>
-      <c r="AD75" s="27"/>
-      <c r="AE75" s="32"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="W75" s="8"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
+      <c r="AD75" s="28"/>
+      <c r="AE75" s="28"/>
+      <c r="AF75" s="33"/>
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" s="6">
         <v>44600</v>
       </c>
@@ -5805,17 +5900,18 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
-      <c r="W76" s="27"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="27"/>
-      <c r="Z76" s="27"/>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="27"/>
-      <c r="AC76" s="27"/>
-      <c r="AD76" s="27"/>
-      <c r="AE76" s="32"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="W76" s="8"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="28"/>
+      <c r="AD76" s="28"/>
+      <c r="AE76" s="28"/>
+      <c r="AF76" s="33"/>
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" s="6">
         <v>44601</v>
       </c>
@@ -5840,17 +5936,18 @@
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
-      <c r="W77" s="27"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="27"/>
-      <c r="AC77" s="27"/>
-      <c r="AD77" s="27"/>
-      <c r="AE77" s="32"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="W77" s="8"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="28"/>
+      <c r="AC77" s="28"/>
+      <c r="AD77" s="28"/>
+      <c r="AE77" s="28"/>
+      <c r="AF77" s="33"/>
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" s="6">
         <v>44602</v>
       </c>
@@ -5875,17 +5972,18 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
-      <c r="W78" s="27"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="27"/>
-      <c r="AC78" s="27"/>
-      <c r="AD78" s="27"/>
-      <c r="AE78" s="32"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="W78" s="8"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="28"/>
+      <c r="AC78" s="28"/>
+      <c r="AD78" s="28"/>
+      <c r="AE78" s="28"/>
+      <c r="AF78" s="33"/>
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" s="6">
         <v>44603</v>
       </c>
@@ -5910,17 +6008,18 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="27"/>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="27"/>
-      <c r="AD79" s="27"/>
-      <c r="AE79" s="32"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="W79" s="8"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="28"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="28"/>
+      <c r="AC79" s="28"/>
+      <c r="AD79" s="28"/>
+      <c r="AE79" s="28"/>
+      <c r="AF79" s="33"/>
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" s="6">
         <v>44604</v>
       </c>
@@ -5945,17 +6044,18 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
-      <c r="W80" s="27"/>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="27"/>
-      <c r="Z80" s="27"/>
-      <c r="AA80" s="27"/>
-      <c r="AB80" s="27"/>
-      <c r="AC80" s="27"/>
-      <c r="AD80" s="27"/>
-      <c r="AE80" s="32"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="W80" s="8"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="28"/>
+      <c r="AD80" s="28"/>
+      <c r="AE80" s="28"/>
+      <c r="AF80" s="33"/>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" s="6">
         <v>44605</v>
       </c>
@@ -5980,17 +6080,18 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="27"/>
-      <c r="AC81" s="27"/>
-      <c r="AD81" s="27"/>
-      <c r="AE81" s="32"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="W81" s="8"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="28"/>
+      <c r="AD81" s="28"/>
+      <c r="AE81" s="28"/>
+      <c r="AF81" s="33"/>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" s="6">
         <v>44606</v>
       </c>
@@ -6015,17 +6116,18 @@
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="27"/>
-      <c r="AD82" s="27"/>
-      <c r="AE82" s="32"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="W82" s="8"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="28"/>
+      <c r="AC82" s="28"/>
+      <c r="AD82" s="28"/>
+      <c r="AE82" s="28"/>
+      <c r="AF82" s="33"/>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" s="6">
         <v>44607</v>
       </c>
@@ -6050,17 +6152,18 @@
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
       <c r="V83" s="8"/>
-      <c r="W83" s="27"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="27"/>
-      <c r="AD83" s="27"/>
-      <c r="AE83" s="32"/>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="W83" s="8"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="28"/>
+      <c r="AA83" s="28"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
+      <c r="AD83" s="28"/>
+      <c r="AE83" s="28"/>
+      <c r="AF83" s="33"/>
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" s="6">
         <v>44608</v>
       </c>
@@ -6085,17 +6188,18 @@
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="32"/>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="W84" s="8"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="28"/>
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="33"/>
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" s="6">
         <v>44609</v>
       </c>
@@ -6120,17 +6224,18 @@
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
-      <c r="W85" s="27"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="27"/>
-      <c r="Z85" s="27"/>
-      <c r="AA85" s="27"/>
-      <c r="AB85" s="27"/>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="27"/>
-      <c r="AE85" s="32"/>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="W85" s="8"/>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="28"/>
+      <c r="Z85" s="28"/>
+      <c r="AA85" s="28"/>
+      <c r="AB85" s="28"/>
+      <c r="AC85" s="28"/>
+      <c r="AD85" s="28"/>
+      <c r="AE85" s="28"/>
+      <c r="AF85" s="33"/>
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" s="6">
         <v>44610</v>
       </c>
@@ -6155,17 +6260,18 @@
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="27"/>
-      <c r="AE86" s="32"/>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="W86" s="8"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="28"/>
+      <c r="AC86" s="28"/>
+      <c r="AD86" s="28"/>
+      <c r="AE86" s="28"/>
+      <c r="AF86" s="33"/>
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" s="6">
         <v>44611</v>
       </c>
@@ -6190,17 +6296,18 @@
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="32"/>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="W87" s="8"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="28"/>
+      <c r="AB87" s="28"/>
+      <c r="AC87" s="28"/>
+      <c r="AD87" s="28"/>
+      <c r="AE87" s="28"/>
+      <c r="AF87" s="33"/>
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" s="6">
         <v>44612</v>
       </c>
@@ -6225,17 +6332,18 @@
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="32"/>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="W88" s="8"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="28"/>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="28"/>
+      <c r="AF88" s="33"/>
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" s="6">
         <v>44613</v>
       </c>
@@ -6260,17 +6368,18 @@
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="32"/>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="W89" s="8"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="28"/>
+      <c r="AA89" s="28"/>
+      <c r="AB89" s="28"/>
+      <c r="AC89" s="28"/>
+      <c r="AD89" s="28"/>
+      <c r="AE89" s="28"/>
+      <c r="AF89" s="33"/>
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" s="6">
         <v>44614</v>
       </c>
@@ -6295,17 +6404,18 @@
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
-      <c r="W90" s="27"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="27"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="27"/>
-      <c r="AE90" s="32"/>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="W90" s="8"/>
+      <c r="X90" s="28"/>
+      <c r="Y90" s="28"/>
+      <c r="Z90" s="28"/>
+      <c r="AA90" s="28"/>
+      <c r="AB90" s="28"/>
+      <c r="AC90" s="28"/>
+      <c r="AD90" s="28"/>
+      <c r="AE90" s="28"/>
+      <c r="AF90" s="33"/>
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" s="6">
         <v>44615</v>
       </c>
@@ -6330,17 +6440,18 @@
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="27"/>
-      <c r="AE91" s="32"/>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="W91" s="8"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="28"/>
+      <c r="AA91" s="28"/>
+      <c r="AB91" s="28"/>
+      <c r="AC91" s="28"/>
+      <c r="AD91" s="28"/>
+      <c r="AE91" s="28"/>
+      <c r="AF91" s="33"/>
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" s="6">
         <v>44616</v>
       </c>
@@ -6365,17 +6476,18 @@
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
-      <c r="W92" s="27"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="27"/>
-      <c r="AE92" s="32"/>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="W92" s="8"/>
+      <c r="X92" s="28"/>
+      <c r="Y92" s="28"/>
+      <c r="Z92" s="28"/>
+      <c r="AA92" s="28"/>
+      <c r="AB92" s="28"/>
+      <c r="AC92" s="28"/>
+      <c r="AD92" s="28"/>
+      <c r="AE92" s="28"/>
+      <c r="AF92" s="33"/>
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" s="6">
         <v>44617</v>
       </c>
@@ -6400,17 +6512,18 @@
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
-      <c r="W93" s="27"/>
-      <c r="X93" s="27"/>
-      <c r="Y93" s="27"/>
-      <c r="Z93" s="27"/>
-      <c r="AA93" s="27"/>
-      <c r="AB93" s="27"/>
-      <c r="AC93" s="27"/>
-      <c r="AD93" s="27"/>
-      <c r="AE93" s="32"/>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="W93" s="8"/>
+      <c r="X93" s="28"/>
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="28"/>
+      <c r="AA93" s="28"/>
+      <c r="AB93" s="28"/>
+      <c r="AC93" s="28"/>
+      <c r="AD93" s="28"/>
+      <c r="AE93" s="28"/>
+      <c r="AF93" s="33"/>
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" s="6">
         <v>44618</v>
       </c>
@@ -6435,17 +6548,18 @@
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
-      <c r="W94" s="27"/>
-      <c r="X94" s="27"/>
-      <c r="Y94" s="27"/>
-      <c r="Z94" s="27"/>
-      <c r="AA94" s="27"/>
-      <c r="AB94" s="27"/>
-      <c r="AC94" s="27"/>
-      <c r="AD94" s="27"/>
-      <c r="AE94" s="32"/>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="W94" s="8"/>
+      <c r="X94" s="28"/>
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="28"/>
+      <c r="AA94" s="28"/>
+      <c r="AB94" s="28"/>
+      <c r="AC94" s="28"/>
+      <c r="AD94" s="28"/>
+      <c r="AE94" s="28"/>
+      <c r="AF94" s="33"/>
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" s="6">
         <v>44619</v>
       </c>
@@ -6470,17 +6584,18 @@
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
-      <c r="W95" s="27"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="27"/>
-      <c r="AA95" s="27"/>
-      <c r="AB95" s="27"/>
-      <c r="AC95" s="27"/>
-      <c r="AD95" s="27"/>
-      <c r="AE95" s="32"/>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="W95" s="8"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="28"/>
+      <c r="AA95" s="28"/>
+      <c r="AB95" s="28"/>
+      <c r="AC95" s="28"/>
+      <c r="AD95" s="28"/>
+      <c r="AE95" s="28"/>
+      <c r="AF95" s="33"/>
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" s="6">
         <v>44620</v>
       </c>
@@ -6505,17 +6620,18 @@
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
-      <c r="W96" s="27"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="27"/>
-      <c r="AE96" s="32"/>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="W96" s="8"/>
+      <c r="X96" s="28"/>
+      <c r="Y96" s="28"/>
+      <c r="Z96" s="28"/>
+      <c r="AA96" s="28"/>
+      <c r="AB96" s="28"/>
+      <c r="AC96" s="28"/>
+      <c r="AD96" s="28"/>
+      <c r="AE96" s="28"/>
+      <c r="AF96" s="33"/>
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" s="6">
         <v>44621</v>
       </c>
@@ -6540,17 +6656,18 @@
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
       <c r="V97" s="8"/>
-      <c r="W97" s="27"/>
-      <c r="X97" s="27"/>
-      <c r="Y97" s="27"/>
-      <c r="Z97" s="27"/>
-      <c r="AA97" s="27"/>
-      <c r="AB97" s="27"/>
-      <c r="AC97" s="27"/>
-      <c r="AD97" s="27"/>
-      <c r="AE97" s="32"/>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="W97" s="8"/>
+      <c r="X97" s="28"/>
+      <c r="Y97" s="28"/>
+      <c r="Z97" s="28"/>
+      <c r="AA97" s="28"/>
+      <c r="AB97" s="28"/>
+      <c r="AC97" s="28"/>
+      <c r="AD97" s="28"/>
+      <c r="AE97" s="28"/>
+      <c r="AF97" s="33"/>
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" s="6">
         <v>44622</v>
       </c>
@@ -6575,17 +6692,18 @@
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
-      <c r="W98" s="27"/>
-      <c r="X98" s="27"/>
-      <c r="Y98" s="27"/>
-      <c r="Z98" s="27"/>
-      <c r="AA98" s="27"/>
-      <c r="AB98" s="27"/>
-      <c r="AC98" s="27"/>
-      <c r="AD98" s="27"/>
-      <c r="AE98" s="32"/>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="W98" s="8"/>
+      <c r="X98" s="28"/>
+      <c r="Y98" s="28"/>
+      <c r="Z98" s="28"/>
+      <c r="AA98" s="28"/>
+      <c r="AB98" s="28"/>
+      <c r="AC98" s="28"/>
+      <c r="AD98" s="28"/>
+      <c r="AE98" s="28"/>
+      <c r="AF98" s="33"/>
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" s="6">
         <v>44623</v>
       </c>
@@ -6610,17 +6728,18 @@
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
-      <c r="W99" s="27"/>
-      <c r="X99" s="27"/>
-      <c r="Y99" s="27"/>
-      <c r="Z99" s="27"/>
-      <c r="AA99" s="27"/>
-      <c r="AB99" s="27"/>
-      <c r="AC99" s="27"/>
-      <c r="AD99" s="27"/>
-      <c r="AE99" s="32"/>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="W99" s="8"/>
+      <c r="X99" s="28"/>
+      <c r="Y99" s="28"/>
+      <c r="Z99" s="28"/>
+      <c r="AA99" s="28"/>
+      <c r="AB99" s="28"/>
+      <c r="AC99" s="28"/>
+      <c r="AD99" s="28"/>
+      <c r="AE99" s="28"/>
+      <c r="AF99" s="33"/>
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" s="6">
         <v>44624</v>
       </c>
@@ -6645,17 +6764,18 @@
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
       <c r="V100" s="8"/>
-      <c r="W100" s="27"/>
-      <c r="X100" s="27"/>
-      <c r="Y100" s="27"/>
-      <c r="Z100" s="27"/>
-      <c r="AA100" s="27"/>
-      <c r="AB100" s="27"/>
-      <c r="AC100" s="27"/>
-      <c r="AD100" s="27"/>
-      <c r="AE100" s="32"/>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="W100" s="8"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+      <c r="Z100" s="28"/>
+      <c r="AA100" s="28"/>
+      <c r="AB100" s="28"/>
+      <c r="AC100" s="28"/>
+      <c r="AD100" s="28"/>
+      <c r="AE100" s="28"/>
+      <c r="AF100" s="33"/>
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" s="6">
         <v>44625</v>
       </c>
@@ -6680,17 +6800,18 @@
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
       <c r="V101" s="8"/>
-      <c r="W101" s="27"/>
-      <c r="X101" s="27"/>
-      <c r="Y101" s="27"/>
-      <c r="Z101" s="27"/>
-      <c r="AA101" s="27"/>
-      <c r="AB101" s="27"/>
-      <c r="AC101" s="27"/>
-      <c r="AD101" s="27"/>
-      <c r="AE101" s="32"/>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="W101" s="8"/>
+      <c r="X101" s="28"/>
+      <c r="Y101" s="28"/>
+      <c r="Z101" s="28"/>
+      <c r="AA101" s="28"/>
+      <c r="AB101" s="28"/>
+      <c r="AC101" s="28"/>
+      <c r="AD101" s="28"/>
+      <c r="AE101" s="28"/>
+      <c r="AF101" s="33"/>
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" s="6">
         <v>44626</v>
       </c>
@@ -6715,17 +6836,18 @@
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
       <c r="V102" s="8"/>
-      <c r="W102" s="27"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="27"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="27"/>
-      <c r="AB102" s="27"/>
-      <c r="AC102" s="27"/>
-      <c r="AD102" s="27"/>
-      <c r="AE102" s="32"/>
-    </row>
-    <row r="103" spans="1:31">
+      <c r="W102" s="8"/>
+      <c r="X102" s="28"/>
+      <c r="Y102" s="28"/>
+      <c r="Z102" s="28"/>
+      <c r="AA102" s="28"/>
+      <c r="AB102" s="28"/>
+      <c r="AC102" s="28"/>
+      <c r="AD102" s="28"/>
+      <c r="AE102" s="28"/>
+      <c r="AF102" s="33"/>
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" s="6">
         <v>44627</v>
       </c>
@@ -6750,17 +6872,18 @@
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
-      <c r="W103" s="27"/>
-      <c r="X103" s="27"/>
-      <c r="Y103" s="27"/>
-      <c r="Z103" s="27"/>
-      <c r="AA103" s="27"/>
-      <c r="AB103" s="27"/>
-      <c r="AC103" s="27"/>
-      <c r="AD103" s="27"/>
-      <c r="AE103" s="32"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="W103" s="8"/>
+      <c r="X103" s="28"/>
+      <c r="Y103" s="28"/>
+      <c r="Z103" s="28"/>
+      <c r="AA103" s="28"/>
+      <c r="AB103" s="28"/>
+      <c r="AC103" s="28"/>
+      <c r="AD103" s="28"/>
+      <c r="AE103" s="28"/>
+      <c r="AF103" s="33"/>
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" s="6">
         <v>44628</v>
       </c>
@@ -6785,17 +6908,18 @@
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
       <c r="V104" s="8"/>
-      <c r="W104" s="27"/>
-      <c r="X104" s="27"/>
-      <c r="Y104" s="27"/>
-      <c r="Z104" s="27"/>
-      <c r="AA104" s="27"/>
-      <c r="AB104" s="27"/>
-      <c r="AC104" s="27"/>
-      <c r="AD104" s="27"/>
-      <c r="AE104" s="32"/>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="W104" s="8"/>
+      <c r="X104" s="28"/>
+      <c r="Y104" s="28"/>
+      <c r="Z104" s="28"/>
+      <c r="AA104" s="28"/>
+      <c r="AB104" s="28"/>
+      <c r="AC104" s="28"/>
+      <c r="AD104" s="28"/>
+      <c r="AE104" s="28"/>
+      <c r="AF104" s="33"/>
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" s="6">
         <v>44629</v>
       </c>
@@ -6820,17 +6944,18 @@
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
       <c r="V105" s="8"/>
-      <c r="W105" s="27"/>
-      <c r="X105" s="27"/>
-      <c r="Y105" s="27"/>
-      <c r="Z105" s="27"/>
-      <c r="AA105" s="27"/>
-      <c r="AB105" s="27"/>
-      <c r="AC105" s="27"/>
-      <c r="AD105" s="27"/>
-      <c r="AE105" s="32"/>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="W105" s="8"/>
+      <c r="X105" s="28"/>
+      <c r="Y105" s="28"/>
+      <c r="Z105" s="28"/>
+      <c r="AA105" s="28"/>
+      <c r="AB105" s="28"/>
+      <c r="AC105" s="28"/>
+      <c r="AD105" s="28"/>
+      <c r="AE105" s="28"/>
+      <c r="AF105" s="33"/>
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" s="6">
         <v>44630</v>
       </c>
@@ -6855,17 +6980,18 @@
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
-      <c r="W106" s="27"/>
-      <c r="X106" s="27"/>
-      <c r="Y106" s="27"/>
-      <c r="Z106" s="27"/>
-      <c r="AA106" s="27"/>
-      <c r="AB106" s="27"/>
-      <c r="AC106" s="27"/>
-      <c r="AD106" s="27"/>
-      <c r="AE106" s="32"/>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="W106" s="8"/>
+      <c r="X106" s="28"/>
+      <c r="Y106" s="28"/>
+      <c r="Z106" s="28"/>
+      <c r="AA106" s="28"/>
+      <c r="AB106" s="28"/>
+      <c r="AC106" s="28"/>
+      <c r="AD106" s="28"/>
+      <c r="AE106" s="28"/>
+      <c r="AF106" s="33"/>
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" s="6">
         <v>44631</v>
       </c>
@@ -6890,17 +7016,18 @@
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
       <c r="V107" s="8"/>
-      <c r="W107" s="27"/>
-      <c r="X107" s="27"/>
-      <c r="Y107" s="27"/>
-      <c r="Z107" s="27"/>
-      <c r="AA107" s="27"/>
-      <c r="AB107" s="27"/>
-      <c r="AC107" s="27"/>
-      <c r="AD107" s="27"/>
-      <c r="AE107" s="32"/>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="W107" s="8"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="28"/>
+      <c r="AB107" s="28"/>
+      <c r="AC107" s="28"/>
+      <c r="AD107" s="28"/>
+      <c r="AE107" s="28"/>
+      <c r="AF107" s="33"/>
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" s="6">
         <v>44632</v>
       </c>
@@ -6925,17 +7052,18 @@
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
       <c r="V108" s="8"/>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27"/>
-      <c r="AA108" s="27"/>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="27"/>
-      <c r="AE108" s="32"/>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="W108" s="8"/>
+      <c r="X108" s="28"/>
+      <c r="Y108" s="28"/>
+      <c r="Z108" s="28"/>
+      <c r="AA108" s="28"/>
+      <c r="AB108" s="28"/>
+      <c r="AC108" s="28"/>
+      <c r="AD108" s="28"/>
+      <c r="AE108" s="28"/>
+      <c r="AF108" s="33"/>
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" s="6">
         <v>44633</v>
       </c>
@@ -6960,17 +7088,18 @@
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
       <c r="V109" s="8"/>
-      <c r="W109" s="27"/>
-      <c r="X109" s="27"/>
-      <c r="Y109" s="27"/>
-      <c r="Z109" s="27"/>
-      <c r="AA109" s="27"/>
-      <c r="AB109" s="27"/>
-      <c r="AC109" s="27"/>
-      <c r="AD109" s="27"/>
-      <c r="AE109" s="32"/>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="W109" s="8"/>
+      <c r="X109" s="28"/>
+      <c r="Y109" s="28"/>
+      <c r="Z109" s="28"/>
+      <c r="AA109" s="28"/>
+      <c r="AB109" s="28"/>
+      <c r="AC109" s="28"/>
+      <c r="AD109" s="28"/>
+      <c r="AE109" s="28"/>
+      <c r="AF109" s="33"/>
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" s="6">
         <v>44634</v>
       </c>
@@ -6995,17 +7124,18 @@
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
       <c r="V110" s="8"/>
-      <c r="W110" s="27"/>
-      <c r="X110" s="27"/>
-      <c r="Y110" s="27"/>
-      <c r="Z110" s="27"/>
-      <c r="AA110" s="27"/>
-      <c r="AB110" s="27"/>
-      <c r="AC110" s="27"/>
-      <c r="AD110" s="27"/>
-      <c r="AE110" s="32"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="W110" s="8"/>
+      <c r="X110" s="28"/>
+      <c r="Y110" s="28"/>
+      <c r="Z110" s="28"/>
+      <c r="AA110" s="28"/>
+      <c r="AB110" s="28"/>
+      <c r="AC110" s="28"/>
+      <c r="AD110" s="28"/>
+      <c r="AE110" s="28"/>
+      <c r="AF110" s="33"/>
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" s="6">
         <v>44635</v>
       </c>
@@ -7030,17 +7160,18 @@
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
       <c r="V111" s="8"/>
-      <c r="W111" s="27"/>
-      <c r="X111" s="27"/>
-      <c r="Y111" s="27"/>
-      <c r="Z111" s="27"/>
-      <c r="AA111" s="27"/>
-      <c r="AB111" s="27"/>
-      <c r="AC111" s="27"/>
-      <c r="AD111" s="27"/>
-      <c r="AE111" s="32"/>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="W111" s="8"/>
+      <c r="X111" s="28"/>
+      <c r="Y111" s="28"/>
+      <c r="Z111" s="28"/>
+      <c r="AA111" s="28"/>
+      <c r="AB111" s="28"/>
+      <c r="AC111" s="28"/>
+      <c r="AD111" s="28"/>
+      <c r="AE111" s="28"/>
+      <c r="AF111" s="33"/>
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" s="6">
         <v>44636</v>
       </c>
@@ -7065,17 +7196,18 @@
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
       <c r="V112" s="8"/>
-      <c r="W112" s="27"/>
-      <c r="X112" s="27"/>
-      <c r="Y112" s="27"/>
-      <c r="Z112" s="27"/>
-      <c r="AA112" s="27"/>
-      <c r="AB112" s="27"/>
-      <c r="AC112" s="27"/>
-      <c r="AD112" s="27"/>
-      <c r="AE112" s="32"/>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="W112" s="8"/>
+      <c r="X112" s="28"/>
+      <c r="Y112" s="28"/>
+      <c r="Z112" s="28"/>
+      <c r="AA112" s="28"/>
+      <c r="AB112" s="28"/>
+      <c r="AC112" s="28"/>
+      <c r="AD112" s="28"/>
+      <c r="AE112" s="28"/>
+      <c r="AF112" s="33"/>
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" s="6">
         <v>44637</v>
       </c>
@@ -7100,17 +7232,18 @@
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
       <c r="V113" s="8"/>
-      <c r="W113" s="27"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="27"/>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="27"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="27"/>
-      <c r="AE113" s="32"/>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="W113" s="8"/>
+      <c r="X113" s="28"/>
+      <c r="Y113" s="28"/>
+      <c r="Z113" s="28"/>
+      <c r="AA113" s="28"/>
+      <c r="AB113" s="28"/>
+      <c r="AC113" s="28"/>
+      <c r="AD113" s="28"/>
+      <c r="AE113" s="28"/>
+      <c r="AF113" s="33"/>
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" s="6">
         <v>44638</v>
       </c>
@@ -7135,17 +7268,18 @@
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
       <c r="V114" s="8"/>
-      <c r="W114" s="27"/>
-      <c r="X114" s="27"/>
-      <c r="Y114" s="27"/>
-      <c r="Z114" s="27"/>
-      <c r="AA114" s="27"/>
-      <c r="AB114" s="27"/>
-      <c r="AC114" s="27"/>
-      <c r="AD114" s="27"/>
-      <c r="AE114" s="32"/>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="W114" s="8"/>
+      <c r="X114" s="28"/>
+      <c r="Y114" s="28"/>
+      <c r="Z114" s="28"/>
+      <c r="AA114" s="28"/>
+      <c r="AB114" s="28"/>
+      <c r="AC114" s="28"/>
+      <c r="AD114" s="28"/>
+      <c r="AE114" s="28"/>
+      <c r="AF114" s="33"/>
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" s="6">
         <v>44639</v>
       </c>
@@ -7170,17 +7304,18 @@
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
       <c r="V115" s="8"/>
-      <c r="W115" s="27"/>
-      <c r="X115" s="27"/>
-      <c r="Y115" s="27"/>
-      <c r="Z115" s="27"/>
-      <c r="AA115" s="27"/>
-      <c r="AB115" s="27"/>
-      <c r="AC115" s="27"/>
-      <c r="AD115" s="27"/>
-      <c r="AE115" s="32"/>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="W115" s="8"/>
+      <c r="X115" s="28"/>
+      <c r="Y115" s="28"/>
+      <c r="Z115" s="28"/>
+      <c r="AA115" s="28"/>
+      <c r="AB115" s="28"/>
+      <c r="AC115" s="28"/>
+      <c r="AD115" s="28"/>
+      <c r="AE115" s="28"/>
+      <c r="AF115" s="33"/>
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" s="6">
         <v>44640</v>
       </c>
@@ -7205,17 +7340,18 @@
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
       <c r="V116" s="8"/>
-      <c r="W116" s="27"/>
-      <c r="X116" s="27"/>
-      <c r="Y116" s="27"/>
-      <c r="Z116" s="27"/>
-      <c r="AA116" s="27"/>
-      <c r="AB116" s="27"/>
-      <c r="AC116" s="27"/>
-      <c r="AD116" s="27"/>
-      <c r="AE116" s="32"/>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="W116" s="8"/>
+      <c r="X116" s="28"/>
+      <c r="Y116" s="28"/>
+      <c r="Z116" s="28"/>
+      <c r="AA116" s="28"/>
+      <c r="AB116" s="28"/>
+      <c r="AC116" s="28"/>
+      <c r="AD116" s="28"/>
+      <c r="AE116" s="28"/>
+      <c r="AF116" s="33"/>
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" s="6">
         <v>44641</v>
       </c>
@@ -7240,17 +7376,18 @@
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
       <c r="V117" s="8"/>
-      <c r="W117" s="27"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-      <c r="AA117" s="27"/>
-      <c r="AB117" s="27"/>
-      <c r="AC117" s="27"/>
-      <c r="AD117" s="27"/>
-      <c r="AE117" s="32"/>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="W117" s="8"/>
+      <c r="X117" s="28"/>
+      <c r="Y117" s="28"/>
+      <c r="Z117" s="28"/>
+      <c r="AA117" s="28"/>
+      <c r="AB117" s="28"/>
+      <c r="AC117" s="28"/>
+      <c r="AD117" s="28"/>
+      <c r="AE117" s="28"/>
+      <c r="AF117" s="33"/>
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" s="6">
         <v>44642</v>
       </c>
@@ -7275,17 +7412,18 @@
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
       <c r="V118" s="8"/>
-      <c r="W118" s="27"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="27"/>
-      <c r="AA118" s="27"/>
-      <c r="AB118" s="27"/>
-      <c r="AC118" s="27"/>
-      <c r="AD118" s="27"/>
-      <c r="AE118" s="32"/>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="W118" s="8"/>
+      <c r="X118" s="28"/>
+      <c r="Y118" s="28"/>
+      <c r="Z118" s="28"/>
+      <c r="AA118" s="28"/>
+      <c r="AB118" s="28"/>
+      <c r="AC118" s="28"/>
+      <c r="AD118" s="28"/>
+      <c r="AE118" s="28"/>
+      <c r="AF118" s="33"/>
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" s="6">
         <v>44643</v>
       </c>
@@ -7310,17 +7448,18 @@
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
       <c r="V119" s="8"/>
-      <c r="W119" s="27"/>
-      <c r="X119" s="27"/>
-      <c r="Y119" s="27"/>
-      <c r="Z119" s="27"/>
-      <c r="AA119" s="27"/>
-      <c r="AB119" s="27"/>
-      <c r="AC119" s="27"/>
-      <c r="AD119" s="27"/>
-      <c r="AE119" s="32"/>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="W119" s="8"/>
+      <c r="X119" s="28"/>
+      <c r="Y119" s="28"/>
+      <c r="Z119" s="28"/>
+      <c r="AA119" s="28"/>
+      <c r="AB119" s="28"/>
+      <c r="AC119" s="28"/>
+      <c r="AD119" s="28"/>
+      <c r="AE119" s="28"/>
+      <c r="AF119" s="33"/>
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" s="6">
         <v>44644</v>
       </c>
@@ -7345,17 +7484,18 @@
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
       <c r="V120" s="8"/>
-      <c r="W120" s="27"/>
-      <c r="X120" s="27"/>
-      <c r="Y120" s="27"/>
-      <c r="Z120" s="27"/>
-      <c r="AA120" s="27"/>
-      <c r="AB120" s="27"/>
-      <c r="AC120" s="27"/>
-      <c r="AD120" s="27"/>
-      <c r="AE120" s="32"/>
-    </row>
-    <row r="121" spans="1:31">
+      <c r="W120" s="8"/>
+      <c r="X120" s="28"/>
+      <c r="Y120" s="28"/>
+      <c r="Z120" s="28"/>
+      <c r="AA120" s="28"/>
+      <c r="AB120" s="28"/>
+      <c r="AC120" s="28"/>
+      <c r="AD120" s="28"/>
+      <c r="AE120" s="28"/>
+      <c r="AF120" s="33"/>
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" s="6">
         <v>44645</v>
       </c>
@@ -7380,17 +7520,18 @@
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
       <c r="V121" s="8"/>
-      <c r="W121" s="27"/>
-      <c r="X121" s="27"/>
-      <c r="Y121" s="27"/>
-      <c r="Z121" s="27"/>
-      <c r="AA121" s="27"/>
-      <c r="AB121" s="27"/>
-      <c r="AC121" s="27"/>
-      <c r="AD121" s="27"/>
-      <c r="AE121" s="32"/>
-    </row>
-    <row r="122" spans="1:31">
+      <c r="W121" s="8"/>
+      <c r="X121" s="28"/>
+      <c r="Y121" s="28"/>
+      <c r="Z121" s="28"/>
+      <c r="AA121" s="28"/>
+      <c r="AB121" s="28"/>
+      <c r="AC121" s="28"/>
+      <c r="AD121" s="28"/>
+      <c r="AE121" s="28"/>
+      <c r="AF121" s="33"/>
+    </row>
+    <row r="122" spans="1:32">
       <c r="A122" s="6">
         <v>44646</v>
       </c>
@@ -7415,17 +7556,18 @@
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
       <c r="V122" s="8"/>
-      <c r="W122" s="27"/>
-      <c r="X122" s="27"/>
-      <c r="Y122" s="27"/>
-      <c r="Z122" s="27"/>
-      <c r="AA122" s="27"/>
-      <c r="AB122" s="27"/>
-      <c r="AC122" s="27"/>
-      <c r="AD122" s="27"/>
-      <c r="AE122" s="32"/>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="W122" s="8"/>
+      <c r="X122" s="28"/>
+      <c r="Y122" s="28"/>
+      <c r="Z122" s="28"/>
+      <c r="AA122" s="28"/>
+      <c r="AB122" s="28"/>
+      <c r="AC122" s="28"/>
+      <c r="AD122" s="28"/>
+      <c r="AE122" s="28"/>
+      <c r="AF122" s="33"/>
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123" s="6">
         <v>44647</v>
       </c>
@@ -7450,17 +7592,18 @@
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
       <c r="V123" s="8"/>
-      <c r="W123" s="27"/>
-      <c r="X123" s="27"/>
-      <c r="Y123" s="27"/>
-      <c r="Z123" s="27"/>
-      <c r="AA123" s="27"/>
-      <c r="AB123" s="27"/>
-      <c r="AC123" s="27"/>
-      <c r="AD123" s="27"/>
-      <c r="AE123" s="32"/>
-    </row>
-    <row r="124" spans="1:31">
+      <c r="W123" s="8"/>
+      <c r="X123" s="28"/>
+      <c r="Y123" s="28"/>
+      <c r="Z123" s="28"/>
+      <c r="AA123" s="28"/>
+      <c r="AB123" s="28"/>
+      <c r="AC123" s="28"/>
+      <c r="AD123" s="28"/>
+      <c r="AE123" s="28"/>
+      <c r="AF123" s="33"/>
+    </row>
+    <row r="124" spans="1:32">
       <c r="A124" s="6">
         <v>44648</v>
       </c>
@@ -7485,17 +7628,18 @@
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
       <c r="V124" s="8"/>
-      <c r="W124" s="27"/>
-      <c r="X124" s="27"/>
-      <c r="Y124" s="27"/>
-      <c r="Z124" s="27"/>
-      <c r="AA124" s="27"/>
-      <c r="AB124" s="27"/>
-      <c r="AC124" s="27"/>
-      <c r="AD124" s="27"/>
-      <c r="AE124" s="32"/>
-    </row>
-    <row r="125" spans="1:31">
+      <c r="W124" s="8"/>
+      <c r="X124" s="28"/>
+      <c r="Y124" s="28"/>
+      <c r="Z124" s="28"/>
+      <c r="AA124" s="28"/>
+      <c r="AB124" s="28"/>
+      <c r="AC124" s="28"/>
+      <c r="AD124" s="28"/>
+      <c r="AE124" s="28"/>
+      <c r="AF124" s="33"/>
+    </row>
+    <row r="125" spans="1:32">
       <c r="A125" s="6">
         <v>44649</v>
       </c>
@@ -7520,17 +7664,18 @@
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
       <c r="V125" s="8"/>
-      <c r="W125" s="27"/>
-      <c r="X125" s="27"/>
-      <c r="Y125" s="27"/>
-      <c r="Z125" s="27"/>
-      <c r="AA125" s="27"/>
-      <c r="AB125" s="27"/>
-      <c r="AC125" s="27"/>
-      <c r="AD125" s="27"/>
-      <c r="AE125" s="32"/>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="W125" s="8"/>
+      <c r="X125" s="28"/>
+      <c r="Y125" s="28"/>
+      <c r="Z125" s="28"/>
+      <c r="AA125" s="28"/>
+      <c r="AB125" s="28"/>
+      <c r="AC125" s="28"/>
+      <c r="AD125" s="28"/>
+      <c r="AE125" s="28"/>
+      <c r="AF125" s="33"/>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7549,9 +7694,10 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
-      <c r="V126" s="1"/>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="T126" s="1"/>
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7570,9 +7716,10 @@
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
-      <c r="V127" s="1"/>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="T127" s="1"/>
+      <c r="W127" s="1"/>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7591,9 +7738,10 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
-      <c r="V128" s="1"/>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="T128" s="1"/>
+      <c r="W128" s="1"/>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7612,9 +7760,10 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
-      <c r="V129" s="1"/>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="T129" s="1"/>
+      <c r="W129" s="1"/>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7633,9 +7782,10 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
-      <c r="V130" s="1"/>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="T130" s="1"/>
+      <c r="W130" s="1"/>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7654,9 +7804,10 @@
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
-      <c r="V131" s="1"/>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="T131" s="1"/>
+      <c r="W131" s="1"/>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7675,9 +7826,10 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
-      <c r="V132" s="1"/>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="T132" s="1"/>
+      <c r="W132" s="1"/>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7696,9 +7848,10 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
-      <c r="V133" s="1"/>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="T133" s="1"/>
+      <c r="W133" s="1"/>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7717,9 +7870,10 @@
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
-      <c r="V134" s="1"/>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="T134" s="1"/>
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7738,9 +7892,10 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
-      <c r="V135" s="1"/>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="T135" s="1"/>
+      <c r="W135" s="1"/>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7759,9 +7914,10 @@
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
-      <c r="V136" s="1"/>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="T136" s="1"/>
+      <c r="W136" s="1"/>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7780,9 +7936,10 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
-      <c r="V137" s="1"/>
-    </row>
-    <row r="138" spans="1:22">
+      <c r="T137" s="1"/>
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7801,9 +7958,10 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
-      <c r="V138" s="1"/>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="T138" s="1"/>
+      <c r="W138" s="1"/>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7822,9 +7980,10 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
-      <c r="V139" s="1"/>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="T139" s="1"/>
+      <c r="W139" s="1"/>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7843,9 +8002,10 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
-      <c r="V140" s="1"/>
-    </row>
-    <row r="141" spans="1:22">
+      <c r="T140" s="1"/>
+      <c r="W140" s="1"/>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7864,9 +8024,10 @@
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
-      <c r="V141" s="1"/>
-    </row>
-    <row r="142" spans="1:22">
+      <c r="T141" s="1"/>
+      <c r="W141" s="1"/>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7885,9 +8046,10 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
-      <c r="V142" s="1"/>
-    </row>
-    <row r="143" spans="1:22">
+      <c r="T142" s="1"/>
+      <c r="W142" s="1"/>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7906,9 +8068,10 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
-      <c r="V143" s="1"/>
-    </row>
-    <row r="144" spans="1:22">
+      <c r="T143" s="1"/>
+      <c r="W143" s="1"/>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7927,9 +8090,10 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
-      <c r="V144" s="1"/>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="T144" s="1"/>
+      <c r="W144" s="1"/>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7948,9 +8112,10 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
-      <c r="V145" s="1"/>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="T145" s="1"/>
+      <c r="W145" s="1"/>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7969,9 +8134,10 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
-      <c r="V146" s="1"/>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="T146" s="1"/>
+      <c r="W146" s="1"/>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7990,9 +8156,10 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
-      <c r="V147" s="1"/>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="T147" s="1"/>
+      <c r="W147" s="1"/>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8011,9 +8178,10 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
-      <c r="V148" s="1"/>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="T148" s="1"/>
+      <c r="W148" s="1"/>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8032,9 +8200,10 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
-      <c r="V149" s="1"/>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="T149" s="1"/>
+      <c r="W149" s="1"/>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8053,9 +8222,10 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
-      <c r="V150" s="1"/>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="T150" s="1"/>
+      <c r="W150" s="1"/>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8074,9 +8244,10 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
-      <c r="V151" s="1"/>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="T151" s="1"/>
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8095,9 +8266,10 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
-      <c r="V152" s="1"/>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="T152" s="1"/>
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8116,9 +8288,10 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
-      <c r="V153" s="1"/>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="T153" s="1"/>
+      <c r="W153" s="1"/>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8137,9 +8310,10 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
-      <c r="V154" s="1"/>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="T154" s="1"/>
+      <c r="W154" s="1"/>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8158,9 +8332,10 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
-      <c r="V155" s="1"/>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="T155" s="1"/>
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8179,9 +8354,10 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
-      <c r="V156" s="1"/>
-    </row>
-    <row r="157" spans="1:22">
+      <c r="T156" s="1"/>
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -8200,9 +8376,10 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
-      <c r="V157" s="1"/>
-    </row>
-    <row r="158" spans="1:22">
+      <c r="T157" s="1"/>
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8221,9 +8398,10 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
-      <c r="V158" s="1"/>
-    </row>
-    <row r="159" spans="1:22">
+      <c r="T158" s="1"/>
+      <c r="W158" s="1"/>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8242,9 +8420,10 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
-      <c r="V159" s="1"/>
-    </row>
-    <row r="160" spans="1:22">
+      <c r="T159" s="1"/>
+      <c r="W159" s="1"/>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8263,9 +8442,10 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
-      <c r="V160" s="1"/>
-    </row>
-    <row r="161" spans="1:22">
+      <c r="T160" s="1"/>
+      <c r="W160" s="1"/>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8284,9 +8464,10 @@
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
-      <c r="V161" s="1"/>
-    </row>
-    <row r="162" spans="1:22">
+      <c r="T161" s="1"/>
+      <c r="W161" s="1"/>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8305,9 +8486,10 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
-      <c r="V162" s="1"/>
-    </row>
-    <row r="163" spans="1:22">
+      <c r="T162" s="1"/>
+      <c r="W162" s="1"/>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8326,9 +8508,10 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
-      <c r="V163" s="1"/>
-    </row>
-    <row r="164" spans="1:22">
+      <c r="T163" s="1"/>
+      <c r="W163" s="1"/>
+    </row>
+    <row r="164" spans="1:23">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8347,9 +8530,10 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
-      <c r="V164" s="1"/>
-    </row>
-    <row r="165" spans="1:22">
+      <c r="T164" s="1"/>
+      <c r="W164" s="1"/>
+    </row>
+    <row r="165" spans="1:23">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8368,9 +8552,10 @@
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
-      <c r="V165" s="1"/>
-    </row>
-    <row r="166" spans="1:22">
+      <c r="T165" s="1"/>
+      <c r="W165" s="1"/>
+    </row>
+    <row r="166" spans="1:23">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8389,9 +8574,10 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
-      <c r="V166" s="1"/>
-    </row>
-    <row r="167" spans="1:22">
+      <c r="T166" s="1"/>
+      <c r="W166" s="1"/>
+    </row>
+    <row r="167" spans="1:23">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8410,9 +8596,10 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
-      <c r="V167" s="1"/>
-    </row>
-    <row r="168" spans="1:22">
+      <c r="T167" s="1"/>
+      <c r="W167" s="1"/>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8431,9 +8618,10 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
-      <c r="V168" s="1"/>
-    </row>
-    <row r="169" spans="1:22">
+      <c r="T168" s="1"/>
+      <c r="W168" s="1"/>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8452,9 +8640,10 @@
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
-      <c r="V169" s="1"/>
-    </row>
-    <row r="170" spans="1:22">
+      <c r="T169" s="1"/>
+      <c r="W169" s="1"/>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8473,9 +8662,10 @@
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
-      <c r="V170" s="1"/>
-    </row>
-    <row r="171" spans="1:22">
+      <c r="T170" s="1"/>
+      <c r="W170" s="1"/>
+    </row>
+    <row r="171" spans="1:23">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8494,9 +8684,10 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
-      <c r="V171" s="1"/>
-    </row>
-    <row r="172" spans="1:22">
+      <c r="T171" s="1"/>
+      <c r="W171" s="1"/>
+    </row>
+    <row r="172" spans="1:23">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8515,9 +8706,10 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
-      <c r="V172" s="1"/>
-    </row>
-    <row r="173" spans="1:22">
+      <c r="T172" s="1"/>
+      <c r="W172" s="1"/>
+    </row>
+    <row r="173" spans="1:23">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8536,9 +8728,10 @@
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
-      <c r="V173" s="1"/>
-    </row>
-    <row r="174" spans="1:22">
+      <c r="T173" s="1"/>
+      <c r="W173" s="1"/>
+    </row>
+    <row r="174" spans="1:23">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8557,9 +8750,10 @@
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
-      <c r="V174" s="1"/>
-    </row>
-    <row r="175" spans="1:22">
+      <c r="T174" s="1"/>
+      <c r="W174" s="1"/>
+    </row>
+    <row r="175" spans="1:23">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8578,9 +8772,10 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
-      <c r="V175" s="1"/>
-    </row>
-    <row r="176" spans="1:22">
+      <c r="T175" s="1"/>
+      <c r="W175" s="1"/>
+    </row>
+    <row r="176" spans="1:23">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -8599,9 +8794,10 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
-      <c r="V176" s="1"/>
-    </row>
-    <row r="177" spans="1:22">
+      <c r="T176" s="1"/>
+      <c r="W176" s="1"/>
+    </row>
+    <row r="177" spans="1:23">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -8620,9 +8816,10 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
-      <c r="V177" s="1"/>
-    </row>
-    <row r="178" spans="1:22">
+      <c r="T177" s="1"/>
+      <c r="W177" s="1"/>
+    </row>
+    <row r="178" spans="1:23">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -8641,9 +8838,10 @@
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
-      <c r="V178" s="1"/>
-    </row>
-    <row r="179" spans="1:22">
+      <c r="T178" s="1"/>
+      <c r="W178" s="1"/>
+    </row>
+    <row r="179" spans="1:23">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -8662,9 +8860,10 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
-      <c r="V179" s="1"/>
-    </row>
-    <row r="180" spans="1:22">
+      <c r="T179" s="1"/>
+      <c r="W179" s="1"/>
+    </row>
+    <row r="180" spans="1:23">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -8683,9 +8882,10 @@
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
-      <c r="V180" s="1"/>
-    </row>
-    <row r="181" spans="1:22">
+      <c r="T180" s="1"/>
+      <c r="W180" s="1"/>
+    </row>
+    <row r="181" spans="1:23">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -8704,9 +8904,10 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
-      <c r="V181" s="1"/>
-    </row>
-    <row r="182" spans="1:22">
+      <c r="T181" s="1"/>
+      <c r="W181" s="1"/>
+    </row>
+    <row r="182" spans="1:23">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -8725,9 +8926,10 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
-      <c r="V182" s="1"/>
-    </row>
-    <row r="183" spans="1:22">
+      <c r="T182" s="1"/>
+      <c r="W182" s="1"/>
+    </row>
+    <row r="183" spans="1:23">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -8746,9 +8948,10 @@
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
-      <c r="V183" s="1"/>
-    </row>
-    <row r="184" spans="1:22">
+      <c r="T183" s="1"/>
+      <c r="W183" s="1"/>
+    </row>
+    <row r="184" spans="1:23">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -8767,9 +8970,10 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
-      <c r="V184" s="1"/>
-    </row>
-    <row r="185" spans="1:22">
+      <c r="T184" s="1"/>
+      <c r="W184" s="1"/>
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -8788,9 +8992,10 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
-      <c r="V185" s="1"/>
-    </row>
-    <row r="186" spans="1:22">
+      <c r="T185" s="1"/>
+      <c r="W185" s="1"/>
+    </row>
+    <row r="186" spans="1:23">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -8809,9 +9014,10 @@
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
-      <c r="V186" s="1"/>
-    </row>
-    <row r="187" spans="1:22">
+      <c r="T186" s="1"/>
+      <c r="W186" s="1"/>
+    </row>
+    <row r="187" spans="1:23">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -8830,9 +9036,10 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
-      <c r="V187" s="1"/>
-    </row>
-    <row r="188" spans="1:22">
+      <c r="T187" s="1"/>
+      <c r="W187" s="1"/>
+    </row>
+    <row r="188" spans="1:23">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -8851,9 +9058,10 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
-      <c r="V188" s="1"/>
-    </row>
-    <row r="189" spans="1:22">
+      <c r="T188" s="1"/>
+      <c r="W188" s="1"/>
+    </row>
+    <row r="189" spans="1:23">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8872,9 +9080,10 @@
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
-      <c r="V189" s="1"/>
-    </row>
-    <row r="190" spans="1:22">
+      <c r="T189" s="1"/>
+      <c r="W189" s="1"/>
+    </row>
+    <row r="190" spans="1:23">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8893,9 +9102,10 @@
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
-      <c r="V190" s="1"/>
-    </row>
-    <row r="191" spans="1:22">
+      <c r="T190" s="1"/>
+      <c r="W190" s="1"/>
+    </row>
+    <row r="191" spans="1:23">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -8914,9 +9124,10 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
-      <c r="V191" s="1"/>
-    </row>
-    <row r="192" spans="1:22">
+      <c r="T191" s="1"/>
+      <c r="W191" s="1"/>
+    </row>
+    <row r="192" spans="1:23">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -8935,9 +9146,10 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
-      <c r="V192" s="1"/>
-    </row>
-    <row r="193" spans="1:22">
+      <c r="T192" s="1"/>
+      <c r="W192" s="1"/>
+    </row>
+    <row r="193" spans="1:23">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -8956,9 +9168,10 @@
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
-      <c r="V193" s="1"/>
-    </row>
-    <row r="194" spans="1:22">
+      <c r="T193" s="1"/>
+      <c r="W193" s="1"/>
+    </row>
+    <row r="194" spans="1:23">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -8977,9 +9190,10 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
-      <c r="V194" s="1"/>
-    </row>
-    <row r="195" spans="1:22">
+      <c r="T194" s="1"/>
+      <c r="W194" s="1"/>
+    </row>
+    <row r="195" spans="1:23">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -8998,9 +9212,10 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
-      <c r="V195" s="1"/>
-    </row>
-    <row r="196" spans="1:22">
+      <c r="T195" s="1"/>
+      <c r="W195" s="1"/>
+    </row>
+    <row r="196" spans="1:23">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -9019,9 +9234,10 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
-      <c r="V196" s="1"/>
-    </row>
-    <row r="197" spans="1:22">
+      <c r="T196" s="1"/>
+      <c r="W196" s="1"/>
+    </row>
+    <row r="197" spans="1:23">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -9040,9 +9256,10 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
-      <c r="V197" s="1"/>
-    </row>
-    <row r="198" spans="1:22">
+      <c r="T197" s="1"/>
+      <c r="W197" s="1"/>
+    </row>
+    <row r="198" spans="1:23">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -9061,9 +9278,10 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
-      <c r="V198" s="1"/>
-    </row>
-    <row r="199" spans="1:22">
+      <c r="T198" s="1"/>
+      <c r="W198" s="1"/>
+    </row>
+    <row r="199" spans="1:23">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -9082,9 +9300,10 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
-      <c r="V199" s="1"/>
-    </row>
-    <row r="200" spans="1:22">
+      <c r="T199" s="1"/>
+      <c r="W199" s="1"/>
+    </row>
+    <row r="200" spans="1:23">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -9103,9 +9322,10 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
-      <c r="V200" s="1"/>
-    </row>
-    <row r="201" spans="1:22">
+      <c r="T200" s="1"/>
+      <c r="W200" s="1"/>
+    </row>
+    <row r="201" spans="1:23">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -9124,9 +9344,10 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
-      <c r="V201" s="1"/>
-    </row>
-    <row r="202" spans="1:22">
+      <c r="T201" s="1"/>
+      <c r="W201" s="1"/>
+    </row>
+    <row r="202" spans="1:23">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -9145,9 +9366,10 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
-      <c r="V202" s="1"/>
-    </row>
-    <row r="203" spans="1:22">
+      <c r="T202" s="1"/>
+      <c r="W202" s="1"/>
+    </row>
+    <row r="203" spans="1:23">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -9166,9 +9388,10 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
-      <c r="V203" s="1"/>
-    </row>
-    <row r="204" spans="1:22">
+      <c r="T203" s="1"/>
+      <c r="W203" s="1"/>
+    </row>
+    <row r="204" spans="1:23">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -9187,9 +9410,10 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
-      <c r="V204" s="1"/>
-    </row>
-    <row r="205" spans="1:22">
+      <c r="T204" s="1"/>
+      <c r="W204" s="1"/>
+    </row>
+    <row r="205" spans="1:23">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -9208,9 +9432,10 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
-      <c r="V205" s="1"/>
-    </row>
-    <row r="206" spans="1:22">
+      <c r="T205" s="1"/>
+      <c r="W205" s="1"/>
+    </row>
+    <row r="206" spans="1:23">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -9229,9 +9454,10 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
-      <c r="V206" s="1"/>
-    </row>
-    <row r="207" spans="1:22">
+      <c r="T206" s="1"/>
+      <c r="W206" s="1"/>
+    </row>
+    <row r="207" spans="1:23">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -9250,9 +9476,10 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
-      <c r="V207" s="1"/>
-    </row>
-    <row r="208" spans="1:22">
+      <c r="T207" s="1"/>
+      <c r="W207" s="1"/>
+    </row>
+    <row r="208" spans="1:23">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -9271,9 +9498,10 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
-      <c r="V208" s="1"/>
-    </row>
-    <row r="209" spans="1:22">
+      <c r="T208" s="1"/>
+      <c r="W208" s="1"/>
+    </row>
+    <row r="209" spans="1:23">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -9292,9 +9520,10 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
-      <c r="V209" s="1"/>
-    </row>
-    <row r="210" spans="1:22">
+      <c r="T209" s="1"/>
+      <c r="W209" s="1"/>
+    </row>
+    <row r="210" spans="1:23">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -9313,9 +9542,10 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
-      <c r="V210" s="1"/>
-    </row>
-    <row r="211" spans="1:22">
+      <c r="T210" s="1"/>
+      <c r="W210" s="1"/>
+    </row>
+    <row r="211" spans="1:23">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -9334,9 +9564,10 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
-      <c r="V211" s="1"/>
-    </row>
-    <row r="212" spans="1:22">
+      <c r="T211" s="1"/>
+      <c r="W211" s="1"/>
+    </row>
+    <row r="212" spans="1:23">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -9355,9 +9586,10 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
-      <c r="V212" s="1"/>
-    </row>
-    <row r="213" spans="1:22">
+      <c r="T212" s="1"/>
+      <c r="W212" s="1"/>
+    </row>
+    <row r="213" spans="1:23">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -9376,9 +9608,10 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
-      <c r="V213" s="1"/>
-    </row>
-    <row r="214" spans="1:22">
+      <c r="T213" s="1"/>
+      <c r="W213" s="1"/>
+    </row>
+    <row r="214" spans="1:23">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -9397,9 +9630,10 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
-      <c r="V214" s="1"/>
-    </row>
-    <row r="215" spans="1:22">
+      <c r="T214" s="1"/>
+      <c r="W214" s="1"/>
+    </row>
+    <row r="215" spans="1:23">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -9418,9 +9652,10 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
-      <c r="V215" s="1"/>
-    </row>
-    <row r="216" spans="1:22">
+      <c r="T215" s="1"/>
+      <c r="W215" s="1"/>
+    </row>
+    <row r="216" spans="1:23">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -9439,9 +9674,10 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
-      <c r="V216" s="1"/>
-    </row>
-    <row r="217" spans="1:22">
+      <c r="T216" s="1"/>
+      <c r="W216" s="1"/>
+    </row>
+    <row r="217" spans="1:23">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -9460,9 +9696,10 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
-      <c r="V217" s="1"/>
-    </row>
-    <row r="218" spans="1:22">
+      <c r="T217" s="1"/>
+      <c r="W217" s="1"/>
+    </row>
+    <row r="218" spans="1:23">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -9481,9 +9718,10 @@
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
-      <c r="V218" s="1"/>
-    </row>
-    <row r="219" spans="1:22">
+      <c r="T218" s="1"/>
+      <c r="W218" s="1"/>
+    </row>
+    <row r="219" spans="1:23">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -9502,9 +9740,10 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
-      <c r="V219" s="1"/>
-    </row>
-    <row r="220" spans="1:22">
+      <c r="T219" s="1"/>
+      <c r="W219" s="1"/>
+    </row>
+    <row r="220" spans="1:23">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -9523,9 +9762,10 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
-      <c r="V220" s="1"/>
-    </row>
-    <row r="221" spans="1:22">
+      <c r="T220" s="1"/>
+      <c r="W220" s="1"/>
+    </row>
+    <row r="221" spans="1:23">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -9544,9 +9784,10 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
-      <c r="V221" s="1"/>
-    </row>
-    <row r="222" spans="1:22">
+      <c r="T221" s="1"/>
+      <c r="W221" s="1"/>
+    </row>
+    <row r="222" spans="1:23">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -9565,9 +9806,10 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
-      <c r="V222" s="1"/>
-    </row>
-    <row r="223" spans="1:22">
+      <c r="T222" s="1"/>
+      <c r="W222" s="1"/>
+    </row>
+    <row r="223" spans="1:23">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -9586,9 +9828,10 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
-      <c r="V223" s="1"/>
-    </row>
-    <row r="224" spans="1:22">
+      <c r="T223" s="1"/>
+      <c r="W223" s="1"/>
+    </row>
+    <row r="224" spans="1:23">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -9607,9 +9850,10 @@
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
-      <c r="V224" s="1"/>
-    </row>
-    <row r="225" spans="1:22">
+      <c r="T224" s="1"/>
+      <c r="W224" s="1"/>
+    </row>
+    <row r="225" spans="1:23">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -9628,9 +9872,10 @@
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
-      <c r="V225" s="1"/>
-    </row>
-    <row r="226" spans="1:22">
+      <c r="T225" s="1"/>
+      <c r="W225" s="1"/>
+    </row>
+    <row r="226" spans="1:23">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -9649,9 +9894,10 @@
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
-      <c r="V226" s="1"/>
-    </row>
-    <row r="227" spans="1:22">
+      <c r="T226" s="1"/>
+      <c r="W226" s="1"/>
+    </row>
+    <row r="227" spans="1:23">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -9670,9 +9916,10 @@
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
-      <c r="V227" s="1"/>
-    </row>
-    <row r="228" spans="1:22">
+      <c r="T227" s="1"/>
+      <c r="W227" s="1"/>
+    </row>
+    <row r="228" spans="1:23">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -9691,9 +9938,10 @@
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
-      <c r="V228" s="1"/>
-    </row>
-    <row r="229" spans="1:22">
+      <c r="T228" s="1"/>
+      <c r="W228" s="1"/>
+    </row>
+    <row r="229" spans="1:23">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -9712,9 +9960,10 @@
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
-      <c r="V229" s="1"/>
-    </row>
-    <row r="230" spans="1:22">
+      <c r="T229" s="1"/>
+      <c r="W229" s="1"/>
+    </row>
+    <row r="230" spans="1:23">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -9733,9 +9982,10 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
-      <c r="V230" s="1"/>
-    </row>
-    <row r="231" spans="1:22">
+      <c r="T230" s="1"/>
+      <c r="W230" s="1"/>
+    </row>
+    <row r="231" spans="1:23">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -9754,9 +10004,10 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
-      <c r="V231" s="1"/>
-    </row>
-    <row r="232" spans="1:22">
+      <c r="T231" s="1"/>
+      <c r="W231" s="1"/>
+    </row>
+    <row r="232" spans="1:23">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -9775,9 +10026,10 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
-      <c r="V232" s="1"/>
-    </row>
-    <row r="233" spans="1:22">
+      <c r="T232" s="1"/>
+      <c r="W232" s="1"/>
+    </row>
+    <row r="233" spans="1:23">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -9796,9 +10048,10 @@
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
-      <c r="V233" s="1"/>
-    </row>
-    <row r="234" spans="1:22">
+      <c r="T233" s="1"/>
+      <c r="W233" s="1"/>
+    </row>
+    <row r="234" spans="1:23">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -9817,9 +10070,10 @@
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
-      <c r="V234" s="1"/>
-    </row>
-    <row r="235" spans="1:22">
+      <c r="T234" s="1"/>
+      <c r="W234" s="1"/>
+    </row>
+    <row r="235" spans="1:23">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -9838,9 +10092,10 @@
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
-      <c r="V235" s="1"/>
-    </row>
-    <row r="236" spans="1:22">
+      <c r="T235" s="1"/>
+      <c r="W235" s="1"/>
+    </row>
+    <row r="236" spans="1:23">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -9859,9 +10114,10 @@
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
-      <c r="V236" s="1"/>
-    </row>
-    <row r="237" spans="1:22">
+      <c r="T236" s="1"/>
+      <c r="W236" s="1"/>
+    </row>
+    <row r="237" spans="1:23">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9880,9 +10136,10 @@
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
-      <c r="V237" s="1"/>
-    </row>
-    <row r="238" spans="1:22">
+      <c r="T237" s="1"/>
+      <c r="W237" s="1"/>
+    </row>
+    <row r="238" spans="1:23">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9901,9 +10158,10 @@
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
-      <c r="V238" s="1"/>
-    </row>
-    <row r="239" spans="1:22">
+      <c r="T238" s="1"/>
+      <c r="W238" s="1"/>
+    </row>
+    <row r="239" spans="1:23">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9922,9 +10180,10 @@
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
-      <c r="V239" s="1"/>
-    </row>
-    <row r="240" spans="1:22">
+      <c r="T239" s="1"/>
+      <c r="W239" s="1"/>
+    </row>
+    <row r="240" spans="1:23">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9943,9 +10202,10 @@
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
-      <c r="V240" s="1"/>
-    </row>
-    <row r="241" spans="1:22">
+      <c r="T240" s="1"/>
+      <c r="W240" s="1"/>
+    </row>
+    <row r="241" spans="1:23">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9964,9 +10224,10 @@
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
-      <c r="V241" s="1"/>
-    </row>
-    <row r="242" spans="1:22">
+      <c r="T241" s="1"/>
+      <c r="W241" s="1"/>
+    </row>
+    <row r="242" spans="1:23">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9985,9 +10246,10 @@
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
-      <c r="V242" s="1"/>
-    </row>
-    <row r="243" spans="1:22">
+      <c r="T242" s="1"/>
+      <c r="W242" s="1"/>
+    </row>
+    <row r="243" spans="1:23">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -10006,9 +10268,10 @@
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
-      <c r="V243" s="1"/>
-    </row>
-    <row r="244" spans="1:22">
+      <c r="T243" s="1"/>
+      <c r="W243" s="1"/>
+    </row>
+    <row r="244" spans="1:23">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -10027,9 +10290,10 @@
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
-      <c r="V244" s="1"/>
-    </row>
-    <row r="245" spans="1:22">
+      <c r="T244" s="1"/>
+      <c r="W244" s="1"/>
+    </row>
+    <row r="245" spans="1:23">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -10048,9 +10312,10 @@
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
-      <c r="V245" s="1"/>
-    </row>
-    <row r="246" spans="1:22">
+      <c r="T245" s="1"/>
+      <c r="W245" s="1"/>
+    </row>
+    <row r="246" spans="1:23">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -10069,9 +10334,10 @@
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
-      <c r="V246" s="1"/>
-    </row>
-    <row r="247" spans="1:22">
+      <c r="T246" s="1"/>
+      <c r="W246" s="1"/>
+    </row>
+    <row r="247" spans="1:23">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -10090,9 +10356,10 @@
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
-      <c r="V247" s="1"/>
-    </row>
-    <row r="248" spans="1:22">
+      <c r="T247" s="1"/>
+      <c r="W247" s="1"/>
+    </row>
+    <row r="248" spans="1:23">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -10111,9 +10378,10 @@
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
-      <c r="V248" s="1"/>
-    </row>
-    <row r="249" spans="1:22">
+      <c r="T248" s="1"/>
+      <c r="W248" s="1"/>
+    </row>
+    <row r="249" spans="1:23">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -10132,9 +10400,10 @@
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
-      <c r="V249" s="1"/>
-    </row>
-    <row r="250" spans="1:22">
+      <c r="T249" s="1"/>
+      <c r="W249" s="1"/>
+    </row>
+    <row r="250" spans="1:23">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -10153,9 +10422,10 @@
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
-      <c r="V250" s="1"/>
-    </row>
-    <row r="251" spans="1:22">
+      <c r="T250" s="1"/>
+      <c r="W250" s="1"/>
+    </row>
+    <row r="251" spans="1:23">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -10174,9 +10444,10 @@
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
-      <c r="V251" s="1"/>
-    </row>
-    <row r="252" spans="1:22">
+      <c r="T251" s="1"/>
+      <c r="W251" s="1"/>
+    </row>
+    <row r="252" spans="1:23">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -10195,9 +10466,10 @@
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
-      <c r="V252" s="1"/>
-    </row>
-    <row r="253" spans="1:22">
+      <c r="T252" s="1"/>
+      <c r="W252" s="1"/>
+    </row>
+    <row r="253" spans="1:23">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -10216,9 +10488,10 @@
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
-      <c r="V253" s="1"/>
-    </row>
-    <row r="254" spans="1:22">
+      <c r="T253" s="1"/>
+      <c r="W253" s="1"/>
+    </row>
+    <row r="254" spans="1:23">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -10237,9 +10510,10 @@
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
-      <c r="V254" s="1"/>
-    </row>
-    <row r="255" spans="1:22">
+      <c r="T254" s="1"/>
+      <c r="W254" s="1"/>
+    </row>
+    <row r="255" spans="1:23">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -10258,9 +10532,10 @@
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
-      <c r="V255" s="1"/>
-    </row>
-    <row r="256" spans="1:22">
+      <c r="T255" s="1"/>
+      <c r="W255" s="1"/>
+    </row>
+    <row r="256" spans="1:23">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -10279,9 +10554,10 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
-      <c r="V256" s="1"/>
-    </row>
-    <row r="257" spans="1:22">
+      <c r="T256" s="1"/>
+      <c r="W256" s="1"/>
+    </row>
+    <row r="257" spans="1:23">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -10300,9 +10576,10 @@
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
-      <c r="V257" s="1"/>
-    </row>
-    <row r="258" spans="1:22">
+      <c r="T257" s="1"/>
+      <c r="W257" s="1"/>
+    </row>
+    <row r="258" spans="1:23">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -10321,9 +10598,10 @@
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
-      <c r="V258" s="1"/>
-    </row>
-    <row r="259" spans="1:22">
+      <c r="T258" s="1"/>
+      <c r="W258" s="1"/>
+    </row>
+    <row r="259" spans="1:23">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -10342,9 +10620,10 @@
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
-      <c r="V259" s="1"/>
-    </row>
-    <row r="260" spans="1:22">
+      <c r="T259" s="1"/>
+      <c r="W259" s="1"/>
+    </row>
+    <row r="260" spans="1:23">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -10363,9 +10642,10 @@
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
-      <c r="V260" s="1"/>
-    </row>
-    <row r="261" spans="1:22">
+      <c r="T260" s="1"/>
+      <c r="W260" s="1"/>
+    </row>
+    <row r="261" spans="1:23">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -10384,9 +10664,10 @@
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
-      <c r="V261" s="1"/>
-    </row>
-    <row r="262" spans="1:22">
+      <c r="T261" s="1"/>
+      <c r="W261" s="1"/>
+    </row>
+    <row r="262" spans="1:23">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -10405,9 +10686,10 @@
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
-      <c r="V262" s="1"/>
-    </row>
-    <row r="263" spans="1:22">
+      <c r="T262" s="1"/>
+      <c r="W262" s="1"/>
+    </row>
+    <row r="263" spans="1:23">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -10426,9 +10708,10 @@
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
-      <c r="V263" s="1"/>
-    </row>
-    <row r="264" spans="1:22">
+      <c r="T263" s="1"/>
+      <c r="W263" s="1"/>
+    </row>
+    <row r="264" spans="1:23">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -10447,9 +10730,10 @@
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
-      <c r="V264" s="1"/>
-    </row>
-    <row r="265" spans="1:22">
+      <c r="T264" s="1"/>
+      <c r="W264" s="1"/>
+    </row>
+    <row r="265" spans="1:23">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -10468,9 +10752,10 @@
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
-      <c r="V265" s="1"/>
-    </row>
-    <row r="266" spans="1:22">
+      <c r="T265" s="1"/>
+      <c r="W265" s="1"/>
+    </row>
+    <row r="266" spans="1:23">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -10489,9 +10774,10 @@
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
-      <c r="V266" s="1"/>
-    </row>
-    <row r="267" spans="1:22">
+      <c r="T266" s="1"/>
+      <c r="W266" s="1"/>
+    </row>
+    <row r="267" spans="1:23">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -10510,9 +10796,10 @@
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
-      <c r="V267" s="1"/>
-    </row>
-    <row r="268" spans="1:22">
+      <c r="T267" s="1"/>
+      <c r="W267" s="1"/>
+    </row>
+    <row r="268" spans="1:23">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -10531,9 +10818,10 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
-      <c r="V268" s="1"/>
-    </row>
-    <row r="269" spans="1:22">
+      <c r="T268" s="1"/>
+      <c r="W268" s="1"/>
+    </row>
+    <row r="269" spans="1:23">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -10552,9 +10840,10 @@
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
-      <c r="V269" s="1"/>
-    </row>
-    <row r="270" spans="1:22">
+      <c r="T269" s="1"/>
+      <c r="W269" s="1"/>
+    </row>
+    <row r="270" spans="1:23">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10573,9 +10862,10 @@
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
-      <c r="V270" s="1"/>
-    </row>
-    <row r="271" spans="1:22">
+      <c r="T270" s="1"/>
+      <c r="W270" s="1"/>
+    </row>
+    <row r="271" spans="1:23">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10594,9 +10884,10 @@
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
-      <c r="V271" s="1"/>
-    </row>
-    <row r="272" spans="1:22">
+      <c r="T271" s="1"/>
+      <c r="W271" s="1"/>
+    </row>
+    <row r="272" spans="1:23">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -10615,9 +10906,10 @@
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
-      <c r="V272" s="1"/>
-    </row>
-    <row r="273" spans="1:22">
+      <c r="T272" s="1"/>
+      <c r="W272" s="1"/>
+    </row>
+    <row r="273" spans="1:23">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -10636,9 +10928,10 @@
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
-      <c r="V273" s="1"/>
-    </row>
-    <row r="274" spans="1:22">
+      <c r="T273" s="1"/>
+      <c r="W273" s="1"/>
+    </row>
+    <row r="274" spans="1:23">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -10657,9 +10950,10 @@
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
-      <c r="V274" s="1"/>
-    </row>
-    <row r="275" spans="1:22">
+      <c r="T274" s="1"/>
+      <c r="W274" s="1"/>
+    </row>
+    <row r="275" spans="1:23">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -10678,9 +10972,10 @@
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
-      <c r="V275" s="1"/>
-    </row>
-    <row r="276" spans="1:22">
+      <c r="T275" s="1"/>
+      <c r="W275" s="1"/>
+    </row>
+    <row r="276" spans="1:23">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -10699,9 +10994,10 @@
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
-      <c r="V276" s="1"/>
-    </row>
-    <row r="277" spans="1:22">
+      <c r="T276" s="1"/>
+      <c r="W276" s="1"/>
+    </row>
+    <row r="277" spans="1:23">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -10720,9 +11016,10 @@
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
-      <c r="V277" s="1"/>
-    </row>
-    <row r="278" spans="1:22">
+      <c r="T277" s="1"/>
+      <c r="W277" s="1"/>
+    </row>
+    <row r="278" spans="1:23">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -10741,9 +11038,10 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
-      <c r="V278" s="1"/>
-    </row>
-    <row r="279" spans="1:22">
+      <c r="T278" s="1"/>
+      <c r="W278" s="1"/>
+    </row>
+    <row r="279" spans="1:23">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -10762,9 +11060,10 @@
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
-      <c r="V279" s="1"/>
-    </row>
-    <row r="280" spans="1:22">
+      <c r="T279" s="1"/>
+      <c r="W279" s="1"/>
+    </row>
+    <row r="280" spans="1:23">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -10783,9 +11082,10 @@
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
-      <c r="V280" s="1"/>
-    </row>
-    <row r="281" spans="1:22">
+      <c r="T280" s="1"/>
+      <c r="W280" s="1"/>
+    </row>
+    <row r="281" spans="1:23">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -10804,9 +11104,10 @@
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
-      <c r="V281" s="1"/>
-    </row>
-    <row r="282" spans="1:22">
+      <c r="T281" s="1"/>
+      <c r="W281" s="1"/>
+    </row>
+    <row r="282" spans="1:23">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -10825,9 +11126,10 @@
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
-      <c r="V282" s="1"/>
-    </row>
-    <row r="283" spans="1:22">
+      <c r="T282" s="1"/>
+      <c r="W282" s="1"/>
+    </row>
+    <row r="283" spans="1:23">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -10846,9 +11148,10 @@
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
-      <c r="V283" s="1"/>
-    </row>
-    <row r="284" spans="1:22">
+      <c r="T283" s="1"/>
+      <c r="W283" s="1"/>
+    </row>
+    <row r="284" spans="1:23">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -10867,9 +11170,10 @@
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
-      <c r="V284" s="1"/>
-    </row>
-    <row r="285" spans="1:22">
+      <c r="T284" s="1"/>
+      <c r="W284" s="1"/>
+    </row>
+    <row r="285" spans="1:23">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -10888,9 +11192,10 @@
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
-      <c r="V285" s="1"/>
-    </row>
-    <row r="286" spans="1:22">
+      <c r="T285" s="1"/>
+      <c r="W285" s="1"/>
+    </row>
+    <row r="286" spans="1:23">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -10909,9 +11214,10 @@
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
-      <c r="V286" s="1"/>
-    </row>
-    <row r="287" spans="1:22">
+      <c r="T286" s="1"/>
+      <c r="W286" s="1"/>
+    </row>
+    <row r="287" spans="1:23">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -10930,9 +11236,10 @@
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
-      <c r="V287" s="1"/>
-    </row>
-    <row r="288" spans="1:22">
+      <c r="T287" s="1"/>
+      <c r="W287" s="1"/>
+    </row>
+    <row r="288" spans="1:23">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -10951,9 +11258,10 @@
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
-      <c r="V288" s="1"/>
-    </row>
-    <row r="289" spans="1:22">
+      <c r="T288" s="1"/>
+      <c r="W288" s="1"/>
+    </row>
+    <row r="289" spans="1:23">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -10972,9 +11280,10 @@
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
-      <c r="V289" s="1"/>
-    </row>
-    <row r="290" spans="1:22">
+      <c r="T289" s="1"/>
+      <c r="W289" s="1"/>
+    </row>
+    <row r="290" spans="1:23">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -10993,9 +11302,10 @@
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
-      <c r="V290" s="1"/>
-    </row>
-    <row r="291" spans="1:22">
+      <c r="T290" s="1"/>
+      <c r="W290" s="1"/>
+    </row>
+    <row r="291" spans="1:23">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -11014,9 +11324,10 @@
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
-      <c r="V291" s="1"/>
-    </row>
-    <row r="292" spans="1:22">
+      <c r="T291" s="1"/>
+      <c r="W291" s="1"/>
+    </row>
+    <row r="292" spans="1:23">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -11035,9 +11346,10 @@
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
-      <c r="V292" s="1"/>
-    </row>
-    <row r="293" spans="1:22">
+      <c r="T292" s="1"/>
+      <c r="W292" s="1"/>
+    </row>
+    <row r="293" spans="1:23">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -11056,9 +11368,10 @@
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
-      <c r="V293" s="1"/>
-    </row>
-    <row r="294" spans="1:22">
+      <c r="T293" s="1"/>
+      <c r="W293" s="1"/>
+    </row>
+    <row r="294" spans="1:23">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -11077,9 +11390,10 @@
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
-      <c r="V294" s="1"/>
-    </row>
-    <row r="295" spans="1:22">
+      <c r="T294" s="1"/>
+      <c r="W294" s="1"/>
+    </row>
+    <row r="295" spans="1:23">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -11098,9 +11412,10 @@
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
-      <c r="V295" s="1"/>
-    </row>
-    <row r="296" spans="1:22">
+      <c r="T295" s="1"/>
+      <c r="W295" s="1"/>
+    </row>
+    <row r="296" spans="1:23">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -11119,9 +11434,10 @@
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
-      <c r="V296" s="1"/>
-    </row>
-    <row r="297" spans="1:22">
+      <c r="T296" s="1"/>
+      <c r="W296" s="1"/>
+    </row>
+    <row r="297" spans="1:23">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -11140,9 +11456,10 @@
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
-      <c r="V297" s="1"/>
-    </row>
-    <row r="298" spans="1:22">
+      <c r="T297" s="1"/>
+      <c r="W297" s="1"/>
+    </row>
+    <row r="298" spans="1:23">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11161,9 +11478,10 @@
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
-      <c r="V298" s="1"/>
-    </row>
-    <row r="299" spans="1:22">
+      <c r="T298" s="1"/>
+      <c r="W298" s="1"/>
+    </row>
+    <row r="299" spans="1:23">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -11182,9 +11500,10 @@
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
-      <c r="V299" s="1"/>
-    </row>
-    <row r="300" spans="1:22">
+      <c r="T299" s="1"/>
+      <c r="W299" s="1"/>
+    </row>
+    <row r="300" spans="1:23">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -11203,9 +11522,10 @@
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
-      <c r="V300" s="1"/>
-    </row>
-    <row r="301" spans="1:22">
+      <c r="T300" s="1"/>
+      <c r="W300" s="1"/>
+    </row>
+    <row r="301" spans="1:23">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -11224,9 +11544,10 @@
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
-      <c r="V301" s="1"/>
-    </row>
-    <row r="302" spans="1:22">
+      <c r="T301" s="1"/>
+      <c r="W301" s="1"/>
+    </row>
+    <row r="302" spans="1:23">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -11245,9 +11566,10 @@
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
-      <c r="V302" s="1"/>
-    </row>
-    <row r="303" spans="1:22">
+      <c r="T302" s="1"/>
+      <c r="W302" s="1"/>
+    </row>
+    <row r="303" spans="1:23">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -11266,9 +11588,10 @@
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
-      <c r="V303" s="1"/>
-    </row>
-    <row r="304" spans="1:22">
+      <c r="T303" s="1"/>
+      <c r="W303" s="1"/>
+    </row>
+    <row r="304" spans="1:23">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -11287,9 +11610,10 @@
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
-      <c r="V304" s="1"/>
-    </row>
-    <row r="305" spans="1:22">
+      <c r="T304" s="1"/>
+      <c r="W304" s="1"/>
+    </row>
+    <row r="305" spans="1:23">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -11308,9 +11632,10 @@
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
-      <c r="V305" s="1"/>
-    </row>
-    <row r="306" spans="1:22">
+      <c r="T305" s="1"/>
+      <c r="W305" s="1"/>
+    </row>
+    <row r="306" spans="1:23">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -11329,9 +11654,10 @@
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
-      <c r="V306" s="1"/>
-    </row>
-    <row r="307" spans="1:22">
+      <c r="T306" s="1"/>
+      <c r="W306" s="1"/>
+    </row>
+    <row r="307" spans="1:23">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -11350,9 +11676,10 @@
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
-      <c r="V307" s="1"/>
-    </row>
-    <row r="308" spans="1:22">
+      <c r="T307" s="1"/>
+      <c r="W307" s="1"/>
+    </row>
+    <row r="308" spans="1:23">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -11371,9 +11698,10 @@
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
-      <c r="V308" s="1"/>
-    </row>
-    <row r="309" spans="1:22">
+      <c r="T308" s="1"/>
+      <c r="W308" s="1"/>
+    </row>
+    <row r="309" spans="1:23">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -11392,9 +11720,10 @@
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
-      <c r="V309" s="1"/>
-    </row>
-    <row r="310" spans="1:22">
+      <c r="T309" s="1"/>
+      <c r="W309" s="1"/>
+    </row>
+    <row r="310" spans="1:23">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -11413,9 +11742,10 @@
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
-      <c r="V310" s="1"/>
-    </row>
-    <row r="311" spans="1:22">
+      <c r="T310" s="1"/>
+      <c r="W310" s="1"/>
+    </row>
+    <row r="311" spans="1:23">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -11434,9 +11764,10 @@
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
-      <c r="V311" s="1"/>
-    </row>
-    <row r="312" spans="1:22">
+      <c r="T311" s="1"/>
+      <c r="W311" s="1"/>
+    </row>
+    <row r="312" spans="1:23">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -11455,9 +11786,10 @@
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
-      <c r="V312" s="1"/>
-    </row>
-    <row r="313" spans="1:22">
+      <c r="T312" s="1"/>
+      <c r="W312" s="1"/>
+    </row>
+    <row r="313" spans="1:23">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -11476,9 +11808,10 @@
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
-      <c r="V313" s="1"/>
-    </row>
-    <row r="314" spans="1:22">
+      <c r="T313" s="1"/>
+      <c r="W313" s="1"/>
+    </row>
+    <row r="314" spans="1:23">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -11497,9 +11830,10 @@
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
-      <c r="V314" s="1"/>
-    </row>
-    <row r="315" spans="1:22">
+      <c r="T314" s="1"/>
+      <c r="W314" s="1"/>
+    </row>
+    <row r="315" spans="1:23">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -11518,9 +11852,10 @@
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
-      <c r="V315" s="1"/>
-    </row>
-    <row r="316" spans="1:22">
+      <c r="T315" s="1"/>
+      <c r="W315" s="1"/>
+    </row>
+    <row r="316" spans="1:23">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -11539,9 +11874,10 @@
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
-      <c r="V316" s="1"/>
-    </row>
-    <row r="317" spans="1:22">
+      <c r="T316" s="1"/>
+      <c r="W316" s="1"/>
+    </row>
+    <row r="317" spans="1:23">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -11560,9 +11896,10 @@
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
-      <c r="V317" s="1"/>
-    </row>
-    <row r="318" spans="1:22">
+      <c r="T317" s="1"/>
+      <c r="W317" s="1"/>
+    </row>
+    <row r="318" spans="1:23">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -11581,9 +11918,10 @@
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
-      <c r="V318" s="1"/>
-    </row>
-    <row r="319" spans="1:22">
+      <c r="T318" s="1"/>
+      <c r="W318" s="1"/>
+    </row>
+    <row r="319" spans="1:23">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -11602,9 +11940,10 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
-      <c r="V319" s="1"/>
-    </row>
-    <row r="320" spans="1:22">
+      <c r="T319" s="1"/>
+      <c r="W319" s="1"/>
+    </row>
+    <row r="320" spans="1:23">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -11623,9 +11962,10 @@
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
-      <c r="V320" s="1"/>
-    </row>
-    <row r="321" spans="1:22">
+      <c r="T320" s="1"/>
+      <c r="W320" s="1"/>
+    </row>
+    <row r="321" spans="1:23">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -11644,9 +11984,10 @@
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
-      <c r="V321" s="1"/>
-    </row>
-    <row r="322" spans="1:22">
+      <c r="T321" s="1"/>
+      <c r="W321" s="1"/>
+    </row>
+    <row r="322" spans="1:23">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -11665,9 +12006,10 @@
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
-      <c r="V322" s="1"/>
-    </row>
-    <row r="323" spans="1:22">
+      <c r="T322" s="1"/>
+      <c r="W322" s="1"/>
+    </row>
+    <row r="323" spans="1:23">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -11686,9 +12028,10 @@
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
-      <c r="V323" s="1"/>
-    </row>
-    <row r="324" spans="1:22">
+      <c r="T323" s="1"/>
+      <c r="W323" s="1"/>
+    </row>
+    <row r="324" spans="1:23">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -11707,9 +12050,10 @@
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
-      <c r="V324" s="1"/>
-    </row>
-    <row r="325" spans="1:22">
+      <c r="T324" s="1"/>
+      <c r="W324" s="1"/>
+    </row>
+    <row r="325" spans="1:23">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11728,9 +12072,10 @@
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
-      <c r="V325" s="1"/>
-    </row>
-    <row r="326" spans="1:22">
+      <c r="T325" s="1"/>
+      <c r="W325" s="1"/>
+    </row>
+    <row r="326" spans="1:23">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -11749,9 +12094,10 @@
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
-      <c r="V326" s="1"/>
-    </row>
-    <row r="327" spans="1:22">
+      <c r="T326" s="1"/>
+      <c r="W326" s="1"/>
+    </row>
+    <row r="327" spans="1:23">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -11770,9 +12116,10 @@
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
-      <c r="V327" s="1"/>
-    </row>
-    <row r="328" spans="1:22">
+      <c r="T327" s="1"/>
+      <c r="W327" s="1"/>
+    </row>
+    <row r="328" spans="1:23">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -11791,9 +12138,10 @@
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
-      <c r="V328" s="1"/>
-    </row>
-    <row r="329" spans="1:22">
+      <c r="T328" s="1"/>
+      <c r="W328" s="1"/>
+    </row>
+    <row r="329" spans="1:23">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -11812,9 +12160,10 @@
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
-      <c r="V329" s="1"/>
-    </row>
-    <row r="330" spans="1:22">
+      <c r="T329" s="1"/>
+      <c r="W329" s="1"/>
+    </row>
+    <row r="330" spans="1:23">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -11833,9 +12182,10 @@
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
-      <c r="V330" s="1"/>
-    </row>
-    <row r="331" spans="1:22">
+      <c r="T330" s="1"/>
+      <c r="W330" s="1"/>
+    </row>
+    <row r="331" spans="1:23">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -11854,9 +12204,10 @@
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
-      <c r="V331" s="1"/>
-    </row>
-    <row r="332" spans="1:22">
+      <c r="T331" s="1"/>
+      <c r="W331" s="1"/>
+    </row>
+    <row r="332" spans="1:23">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -11875,9 +12226,10 @@
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
-      <c r="V332" s="1"/>
-    </row>
-    <row r="333" spans="1:22">
+      <c r="T332" s="1"/>
+      <c r="W332" s="1"/>
+    </row>
+    <row r="333" spans="1:23">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -11896,9 +12248,10 @@
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
-      <c r="V333" s="1"/>
-    </row>
-    <row r="334" spans="1:22">
+      <c r="T333" s="1"/>
+      <c r="W333" s="1"/>
+    </row>
+    <row r="334" spans="1:23">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -11917,9 +12270,10 @@
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
-      <c r="V334" s="1"/>
-    </row>
-    <row r="335" spans="1:22">
+      <c r="T334" s="1"/>
+      <c r="W334" s="1"/>
+    </row>
+    <row r="335" spans="1:23">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -11938,9 +12292,10 @@
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
-      <c r="V335" s="1"/>
-    </row>
-    <row r="336" spans="1:22">
+      <c r="T335" s="1"/>
+      <c r="W335" s="1"/>
+    </row>
+    <row r="336" spans="1:23">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -11959,9 +12314,10 @@
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
-      <c r="V336" s="1"/>
-    </row>
-    <row r="337" spans="1:22">
+      <c r="T336" s="1"/>
+      <c r="W336" s="1"/>
+    </row>
+    <row r="337" spans="1:23">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -11980,9 +12336,10 @@
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
-      <c r="V337" s="1"/>
-    </row>
-    <row r="338" spans="1:22">
+      <c r="T337" s="1"/>
+      <c r="W337" s="1"/>
+    </row>
+    <row r="338" spans="1:23">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -12001,9 +12358,10 @@
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
-      <c r="V338" s="1"/>
-    </row>
-    <row r="339" spans="1:22">
+      <c r="T338" s="1"/>
+      <c r="W338" s="1"/>
+    </row>
+    <row r="339" spans="1:23">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -12022,9 +12380,10 @@
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
-      <c r="V339" s="1"/>
-    </row>
-    <row r="340" spans="1:22">
+      <c r="T339" s="1"/>
+      <c r="W339" s="1"/>
+    </row>
+    <row r="340" spans="1:23">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -12043,9 +12402,10 @@
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
-      <c r="V340" s="1"/>
-    </row>
-    <row r="341" spans="1:22">
+      <c r="T340" s="1"/>
+      <c r="W340" s="1"/>
+    </row>
+    <row r="341" spans="1:23">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -12064,9 +12424,10 @@
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
-      <c r="V341" s="1"/>
-    </row>
-    <row r="342" spans="1:22">
+      <c r="T341" s="1"/>
+      <c r="W341" s="1"/>
+    </row>
+    <row r="342" spans="1:23">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -12085,9 +12446,10 @@
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
-      <c r="V342" s="1"/>
-    </row>
-    <row r="343" spans="1:22">
+      <c r="T342" s="1"/>
+      <c r="W342" s="1"/>
+    </row>
+    <row r="343" spans="1:23">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -12106,9 +12468,10 @@
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
-      <c r="V343" s="1"/>
-    </row>
-    <row r="344" spans="1:22">
+      <c r="T343" s="1"/>
+      <c r="W343" s="1"/>
+    </row>
+    <row r="344" spans="1:23">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -12127,9 +12490,10 @@
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
-      <c r="V344" s="1"/>
-    </row>
-    <row r="345" spans="1:22">
+      <c r="T344" s="1"/>
+      <c r="W344" s="1"/>
+    </row>
+    <row r="345" spans="1:23">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -12148,9 +12512,10 @@
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
-      <c r="V345" s="1"/>
-    </row>
-    <row r="346" spans="1:22">
+      <c r="T345" s="1"/>
+      <c r="W345" s="1"/>
+    </row>
+    <row r="346" spans="1:23">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -12169,9 +12534,10 @@
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
-      <c r="V346" s="1"/>
-    </row>
-    <row r="347" spans="1:22">
+      <c r="T346" s="1"/>
+      <c r="W346" s="1"/>
+    </row>
+    <row r="347" spans="1:23">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -12190,9 +12556,10 @@
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
-      <c r="V347" s="1"/>
-    </row>
-    <row r="348" spans="1:22">
+      <c r="T347" s="1"/>
+      <c r="W347" s="1"/>
+    </row>
+    <row r="348" spans="1:23">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -12211,9 +12578,10 @@
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
-      <c r="V348" s="1"/>
-    </row>
-    <row r="349" spans="1:22">
+      <c r="T348" s="1"/>
+      <c r="W348" s="1"/>
+    </row>
+    <row r="349" spans="1:23">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -12232,9 +12600,10 @@
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
-      <c r="V349" s="1"/>
-    </row>
-    <row r="350" spans="1:22">
+      <c r="T349" s="1"/>
+      <c r="W349" s="1"/>
+    </row>
+    <row r="350" spans="1:23">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -12253,9 +12622,10 @@
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
-      <c r="V350" s="1"/>
-    </row>
-    <row r="351" spans="1:22">
+      <c r="T350" s="1"/>
+      <c r="W350" s="1"/>
+    </row>
+    <row r="351" spans="1:23">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -12274,9 +12644,10 @@
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
-      <c r="V351" s="1"/>
-    </row>
-    <row r="352" spans="1:22">
+      <c r="T351" s="1"/>
+      <c r="W351" s="1"/>
+    </row>
+    <row r="352" spans="1:23">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -12295,9 +12666,10 @@
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
-      <c r="V352" s="1"/>
-    </row>
-    <row r="353" spans="1:22">
+      <c r="T352" s="1"/>
+      <c r="W352" s="1"/>
+    </row>
+    <row r="353" spans="1:23">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -12316,9 +12688,10 @@
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
-      <c r="V353" s="1"/>
-    </row>
-    <row r="354" spans="1:22">
+      <c r="T353" s="1"/>
+      <c r="W353" s="1"/>
+    </row>
+    <row r="354" spans="1:23">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -12337,9 +12710,10 @@
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
-      <c r="V354" s="1"/>
-    </row>
-    <row r="355" spans="1:22">
+      <c r="T354" s="1"/>
+      <c r="W354" s="1"/>
+    </row>
+    <row r="355" spans="1:23">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -12358,9 +12732,10 @@
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
-      <c r="V355" s="1"/>
-    </row>
-    <row r="356" spans="1:22">
+      <c r="T355" s="1"/>
+      <c r="W355" s="1"/>
+    </row>
+    <row r="356" spans="1:23">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -12379,9 +12754,10 @@
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
-      <c r="V356" s="1"/>
-    </row>
-    <row r="357" spans="1:22">
+      <c r="T356" s="1"/>
+      <c r="W356" s="1"/>
+    </row>
+    <row r="357" spans="1:23">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -12400,9 +12776,10 @@
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
-      <c r="V357" s="1"/>
-    </row>
-    <row r="358" spans="1:22">
+      <c r="T357" s="1"/>
+      <c r="W357" s="1"/>
+    </row>
+    <row r="358" spans="1:23">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -12421,9 +12798,10 @@
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
-      <c r="V358" s="1"/>
-    </row>
-    <row r="359" spans="1:22">
+      <c r="T358" s="1"/>
+      <c r="W358" s="1"/>
+    </row>
+    <row r="359" spans="1:23">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -12442,9 +12820,10 @@
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
-      <c r="V359" s="1"/>
-    </row>
-    <row r="360" spans="1:22">
+      <c r="T359" s="1"/>
+      <c r="W359" s="1"/>
+    </row>
+    <row r="360" spans="1:23">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -12463,9 +12842,10 @@
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
-      <c r="V360" s="1"/>
-    </row>
-    <row r="361" spans="1:22">
+      <c r="T360" s="1"/>
+      <c r="W360" s="1"/>
+    </row>
+    <row r="361" spans="1:23">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -12484,9 +12864,10 @@
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
-      <c r="V361" s="1"/>
-    </row>
-    <row r="362" spans="1:22">
+      <c r="T361" s="1"/>
+      <c r="W361" s="1"/>
+    </row>
+    <row r="362" spans="1:23">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -12505,9 +12886,10 @@
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
-      <c r="V362" s="1"/>
-    </row>
-    <row r="363" spans="1:22">
+      <c r="T362" s="1"/>
+      <c r="W362" s="1"/>
+    </row>
+    <row r="363" spans="1:23">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -12526,9 +12908,10 @@
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
-      <c r="V363" s="1"/>
-    </row>
-    <row r="364" spans="1:22">
+      <c r="T363" s="1"/>
+      <c r="W363" s="1"/>
+    </row>
+    <row r="364" spans="1:23">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -12547,9 +12930,10 @@
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
-      <c r="V364" s="1"/>
-    </row>
-    <row r="365" spans="1:22">
+      <c r="T364" s="1"/>
+      <c r="W364" s="1"/>
+    </row>
+    <row r="365" spans="1:23">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -12568,9 +12952,10 @@
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
-      <c r="V365" s="1"/>
-    </row>
-    <row r="366" spans="1:22">
+      <c r="T365" s="1"/>
+      <c r="W365" s="1"/>
+    </row>
+    <row r="366" spans="1:23">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -12589,9 +12974,10 @@
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
-      <c r="V366" s="1"/>
-    </row>
-    <row r="367" spans="1:22">
+      <c r="T366" s="1"/>
+      <c r="W366" s="1"/>
+    </row>
+    <row r="367" spans="1:23">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -12610,9 +12996,10 @@
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
-      <c r="V367" s="1"/>
-    </row>
-    <row r="368" spans="1:22">
+      <c r="T367" s="1"/>
+      <c r="W367" s="1"/>
+    </row>
+    <row r="368" spans="1:23">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -12631,9 +13018,10 @@
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
-      <c r="V368" s="1"/>
-    </row>
-    <row r="369" spans="1:22">
+      <c r="T368" s="1"/>
+      <c r="W368" s="1"/>
+    </row>
+    <row r="369" spans="1:23">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -12652,9 +13040,10 @@
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
-      <c r="V369" s="1"/>
-    </row>
-    <row r="370" spans="1:22">
+      <c r="T369" s="1"/>
+      <c r="W369" s="1"/>
+    </row>
+    <row r="370" spans="1:23">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -12673,9 +13062,10 @@
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
-      <c r="V370" s="1"/>
-    </row>
-    <row r="371" spans="1:22">
+      <c r="T370" s="1"/>
+      <c r="W370" s="1"/>
+    </row>
+    <row r="371" spans="1:23">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -12694,9 +13084,10 @@
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
-      <c r="V371" s="1"/>
-    </row>
-    <row r="372" spans="1:22">
+      <c r="T371" s="1"/>
+      <c r="W371" s="1"/>
+    </row>
+    <row r="372" spans="1:23">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -12715,9 +13106,10 @@
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
-      <c r="V372" s="1"/>
-    </row>
-    <row r="373" spans="1:22">
+      <c r="T372" s="1"/>
+      <c r="W372" s="1"/>
+    </row>
+    <row r="373" spans="1:23">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -12736,9 +13128,10 @@
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
-      <c r="V373" s="1"/>
-    </row>
-    <row r="374" spans="1:22">
+      <c r="T373" s="1"/>
+      <c r="W373" s="1"/>
+    </row>
+    <row r="374" spans="1:23">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -12757,9 +13150,10 @@
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
-      <c r="V374" s="1"/>
-    </row>
-    <row r="375" spans="1:22">
+      <c r="T374" s="1"/>
+      <c r="W374" s="1"/>
+    </row>
+    <row r="375" spans="1:23">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -12778,9 +13172,10 @@
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
-      <c r="V375" s="1"/>
-    </row>
-    <row r="376" spans="1:22">
+      <c r="T375" s="1"/>
+      <c r="W375" s="1"/>
+    </row>
+    <row r="376" spans="1:23">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -12799,9 +13194,10 @@
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
-      <c r="V376" s="1"/>
-    </row>
-    <row r="377" spans="1:22">
+      <c r="T376" s="1"/>
+      <c r="W376" s="1"/>
+    </row>
+    <row r="377" spans="1:23">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -12820,9 +13216,10 @@
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
-      <c r="V377" s="1"/>
-    </row>
-    <row r="378" spans="1:22">
+      <c r="T377" s="1"/>
+      <c r="W377" s="1"/>
+    </row>
+    <row r="378" spans="1:23">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -12841,9 +13238,10 @@
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
-      <c r="V378" s="1"/>
-    </row>
-    <row r="379" spans="1:22">
+      <c r="T378" s="1"/>
+      <c r="W378" s="1"/>
+    </row>
+    <row r="379" spans="1:23">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -12862,9 +13260,10 @@
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
-      <c r="V379" s="1"/>
-    </row>
-    <row r="380" spans="1:22">
+      <c r="T379" s="1"/>
+      <c r="W379" s="1"/>
+    </row>
+    <row r="380" spans="1:23">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -12883,9 +13282,10 @@
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
-      <c r="V380" s="1"/>
-    </row>
-    <row r="381" spans="1:22">
+      <c r="T380" s="1"/>
+      <c r="W380" s="1"/>
+    </row>
+    <row r="381" spans="1:23">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -12904,9 +13304,10 @@
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
-      <c r="V381" s="1"/>
-    </row>
-    <row r="382" spans="1:22">
+      <c r="T381" s="1"/>
+      <c r="W381" s="1"/>
+    </row>
+    <row r="382" spans="1:23">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -12925,9 +13326,10 @@
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
-      <c r="V382" s="1"/>
-    </row>
-    <row r="383" spans="1:22">
+      <c r="T382" s="1"/>
+      <c r="W382" s="1"/>
+    </row>
+    <row r="383" spans="1:23">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -12946,9 +13348,10 @@
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
-      <c r="V383" s="1"/>
-    </row>
-    <row r="384" spans="1:22">
+      <c r="T383" s="1"/>
+      <c r="W383" s="1"/>
+    </row>
+    <row r="384" spans="1:23">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -12967,9 +13370,10 @@
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
-      <c r="V384" s="1"/>
-    </row>
-    <row r="385" spans="1:22">
+      <c r="T384" s="1"/>
+      <c r="W384" s="1"/>
+    </row>
+    <row r="385" spans="1:23">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -12988,9 +13392,10 @@
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
-      <c r="V385" s="1"/>
-    </row>
-    <row r="386" spans="1:22">
+      <c r="T385" s="1"/>
+      <c r="W385" s="1"/>
+    </row>
+    <row r="386" spans="1:23">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -13009,9 +13414,10 @@
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
-      <c r="V386" s="1"/>
-    </row>
-    <row r="387" spans="1:22">
+      <c r="T386" s="1"/>
+      <c r="W386" s="1"/>
+    </row>
+    <row r="387" spans="1:23">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -13030,9 +13436,10 @@
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
-      <c r="V387" s="1"/>
-    </row>
-    <row r="388" spans="1:22">
+      <c r="T387" s="1"/>
+      <c r="W387" s="1"/>
+    </row>
+    <row r="388" spans="1:23">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -13051,9 +13458,10 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
-      <c r="V388" s="1"/>
-    </row>
-    <row r="389" spans="1:22">
+      <c r="T388" s="1"/>
+      <c r="W388" s="1"/>
+    </row>
+    <row r="389" spans="1:23">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -13072,9 +13480,10 @@
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
-      <c r="V389" s="1"/>
-    </row>
-    <row r="390" spans="1:22">
+      <c r="T389" s="1"/>
+      <c r="W389" s="1"/>
+    </row>
+    <row r="390" spans="1:23">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -13093,9 +13502,10 @@
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
-      <c r="V390" s="1"/>
-    </row>
-    <row r="391" spans="1:22">
+      <c r="T390" s="1"/>
+      <c r="W390" s="1"/>
+    </row>
+    <row r="391" spans="1:23">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -13114,9 +13524,10 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
-      <c r="V391" s="1"/>
-    </row>
-    <row r="392" spans="1:22">
+      <c r="T391" s="1"/>
+      <c r="W391" s="1"/>
+    </row>
+    <row r="392" spans="1:23">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -13135,9 +13546,10 @@
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
-      <c r="V392" s="1"/>
-    </row>
-    <row r="393" spans="1:22">
+      <c r="T392" s="1"/>
+      <c r="W392" s="1"/>
+    </row>
+    <row r="393" spans="1:23">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -13156,9 +13568,10 @@
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
-      <c r="V393" s="1"/>
-    </row>
-    <row r="394" spans="1:22">
+      <c r="T393" s="1"/>
+      <c r="W393" s="1"/>
+    </row>
+    <row r="394" spans="1:23">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -13177,9 +13590,10 @@
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
-      <c r="V394" s="1"/>
-    </row>
-    <row r="395" spans="1:22">
+      <c r="T394" s="1"/>
+      <c r="W394" s="1"/>
+    </row>
+    <row r="395" spans="1:23">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -13198,9 +13612,10 @@
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
-      <c r="V395" s="1"/>
-    </row>
-    <row r="396" spans="1:22">
+      <c r="T395" s="1"/>
+      <c r="W395" s="1"/>
+    </row>
+    <row r="396" spans="1:23">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -13219,9 +13634,10 @@
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
-      <c r="V396" s="1"/>
-    </row>
-    <row r="397" spans="1:22">
+      <c r="T396" s="1"/>
+      <c r="W396" s="1"/>
+    </row>
+    <row r="397" spans="1:23">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -13240,9 +13656,10 @@
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
-      <c r="V397" s="1"/>
-    </row>
-    <row r="398" spans="1:22">
+      <c r="T397" s="1"/>
+      <c r="W397" s="1"/>
+    </row>
+    <row r="398" spans="1:23">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -13261,9 +13678,10 @@
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
-      <c r="V398" s="1"/>
-    </row>
-    <row r="399" spans="1:22">
+      <c r="T398" s="1"/>
+      <c r="W398" s="1"/>
+    </row>
+    <row r="399" spans="1:23">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -13282,9 +13700,10 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
-      <c r="V399" s="1"/>
-    </row>
-    <row r="400" spans="1:22">
+      <c r="T399" s="1"/>
+      <c r="W399" s="1"/>
+    </row>
+    <row r="400" spans="1:23">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -13303,9 +13722,10 @@
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
-      <c r="V400" s="1"/>
-    </row>
-    <row r="401" spans="1:22">
+      <c r="T400" s="1"/>
+      <c r="W400" s="1"/>
+    </row>
+    <row r="401" spans="1:23">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -13324,9 +13744,10 @@
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
-      <c r="V401" s="1"/>
-    </row>
-    <row r="402" spans="1:22">
+      <c r="T401" s="1"/>
+      <c r="W401" s="1"/>
+    </row>
+    <row r="402" spans="1:23">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -13345,9 +13766,10 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
-      <c r="V402" s="1"/>
-    </row>
-    <row r="403" spans="1:22">
+      <c r="T402" s="1"/>
+      <c r="W402" s="1"/>
+    </row>
+    <row r="403" spans="1:23">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -13366,9 +13788,10 @@
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
-      <c r="V403" s="1"/>
-    </row>
-    <row r="404" spans="1:22">
+      <c r="T403" s="1"/>
+      <c r="W403" s="1"/>
+    </row>
+    <row r="404" spans="1:23">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -13387,9 +13810,10 @@
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
-      <c r="V404" s="1"/>
-    </row>
-    <row r="405" spans="1:22">
+      <c r="T404" s="1"/>
+      <c r="W404" s="1"/>
+    </row>
+    <row r="405" spans="1:23">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -13408,9 +13832,10 @@
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
-      <c r="V405" s="1"/>
-    </row>
-    <row r="406" spans="1:22">
+      <c r="T405" s="1"/>
+      <c r="W405" s="1"/>
+    </row>
+    <row r="406" spans="1:23">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -13429,9 +13854,10 @@
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
-      <c r="V406" s="1"/>
-    </row>
-    <row r="407" spans="1:22">
+      <c r="T406" s="1"/>
+      <c r="W406" s="1"/>
+    </row>
+    <row r="407" spans="1:23">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -13450,9 +13876,10 @@
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
-      <c r="V407" s="1"/>
-    </row>
-    <row r="408" spans="1:22">
+      <c r="T407" s="1"/>
+      <c r="W407" s="1"/>
+    </row>
+    <row r="408" spans="1:23">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -13471,9 +13898,10 @@
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
-      <c r="V408" s="1"/>
-    </row>
-    <row r="409" spans="1:22">
+      <c r="T408" s="1"/>
+      <c r="W408" s="1"/>
+    </row>
+    <row r="409" spans="1:23">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -13492,9 +13920,10 @@
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
-      <c r="V409" s="1"/>
-    </row>
-    <row r="410" spans="1:22">
+      <c r="T409" s="1"/>
+      <c r="W409" s="1"/>
+    </row>
+    <row r="410" spans="1:23">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -13513,9 +13942,10 @@
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
-      <c r="V410" s="1"/>
-    </row>
-    <row r="411" spans="1:22">
+      <c r="T410" s="1"/>
+      <c r="W410" s="1"/>
+    </row>
+    <row r="411" spans="1:23">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -13534,9 +13964,10 @@
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
-      <c r="V411" s="1"/>
-    </row>
-    <row r="412" spans="1:22">
+      <c r="T411" s="1"/>
+      <c r="W411" s="1"/>
+    </row>
+    <row r="412" spans="1:23">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -13555,9 +13986,10 @@
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
-      <c r="V412" s="1"/>
-    </row>
-    <row r="413" spans="1:22">
+      <c r="T412" s="1"/>
+      <c r="W412" s="1"/>
+    </row>
+    <row r="413" spans="1:23">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -13576,9 +14008,10 @@
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
-      <c r="V413" s="1"/>
-    </row>
-    <row r="414" spans="1:22">
+      <c r="T413" s="1"/>
+      <c r="W413" s="1"/>
+    </row>
+    <row r="414" spans="1:23">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -13597,9 +14030,10 @@
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
-      <c r="V414" s="1"/>
-    </row>
-    <row r="415" spans="1:22">
+      <c r="T414" s="1"/>
+      <c r="W414" s="1"/>
+    </row>
+    <row r="415" spans="1:23">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -13618,9 +14052,10 @@
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
-      <c r="V415" s="1"/>
-    </row>
-    <row r="416" spans="1:22">
+      <c r="T415" s="1"/>
+      <c r="W415" s="1"/>
+    </row>
+    <row r="416" spans="1:23">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -13639,9 +14074,10 @@
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
-      <c r="V416" s="1"/>
-    </row>
-    <row r="417" spans="1:22">
+      <c r="T416" s="1"/>
+      <c r="W416" s="1"/>
+    </row>
+    <row r="417" spans="1:23">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -13660,9 +14096,10 @@
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
-      <c r="V417" s="1"/>
-    </row>
-    <row r="418" spans="1:22">
+      <c r="T417" s="1"/>
+      <c r="W417" s="1"/>
+    </row>
+    <row r="418" spans="1:23">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -13681,9 +14118,10 @@
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
-      <c r="V418" s="1"/>
-    </row>
-    <row r="419" spans="1:22">
+      <c r="T418" s="1"/>
+      <c r="W418" s="1"/>
+    </row>
+    <row r="419" spans="1:23">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -13702,9 +14140,10 @@
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
-      <c r="V419" s="1"/>
-    </row>
-    <row r="420" spans="1:22">
+      <c r="T419" s="1"/>
+      <c r="W419" s="1"/>
+    </row>
+    <row r="420" spans="1:23">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -13723,9 +14162,10 @@
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
-      <c r="V420" s="1"/>
-    </row>
-    <row r="421" spans="1:22">
+      <c r="T420" s="1"/>
+      <c r="W420" s="1"/>
+    </row>
+    <row r="421" spans="1:23">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -13744,9 +14184,10 @@
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
-      <c r="V421" s="1"/>
-    </row>
-    <row r="422" spans="1:22">
+      <c r="T421" s="1"/>
+      <c r="W421" s="1"/>
+    </row>
+    <row r="422" spans="1:23">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -13765,9 +14206,10 @@
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
-      <c r="V422" s="1"/>
-    </row>
-    <row r="423" spans="1:22">
+      <c r="T422" s="1"/>
+      <c r="W422" s="1"/>
+    </row>
+    <row r="423" spans="1:23">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -13786,9 +14228,10 @@
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
-      <c r="V423" s="1"/>
-    </row>
-    <row r="424" spans="1:22">
+      <c r="T423" s="1"/>
+      <c r="W423" s="1"/>
+    </row>
+    <row r="424" spans="1:23">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -13807,9 +14250,10 @@
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
-      <c r="V424" s="1"/>
-    </row>
-    <row r="425" spans="1:22">
+      <c r="T424" s="1"/>
+      <c r="W424" s="1"/>
+    </row>
+    <row r="425" spans="1:23">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -13828,9 +14272,10 @@
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
-      <c r="V425" s="1"/>
-    </row>
-    <row r="426" spans="1:22">
+      <c r="T425" s="1"/>
+      <c r="W425" s="1"/>
+    </row>
+    <row r="426" spans="1:23">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -13849,9 +14294,10 @@
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
-      <c r="V426" s="1"/>
-    </row>
-    <row r="427" spans="1:22">
+      <c r="T426" s="1"/>
+      <c r="W426" s="1"/>
+    </row>
+    <row r="427" spans="1:23">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -13870,9 +14316,10 @@
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
-      <c r="V427" s="1"/>
-    </row>
-    <row r="428" spans="1:22">
+      <c r="T427" s="1"/>
+      <c r="W427" s="1"/>
+    </row>
+    <row r="428" spans="1:23">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -13891,9 +14338,10 @@
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
-      <c r="V428" s="1"/>
-    </row>
-    <row r="429" spans="1:22">
+      <c r="T428" s="1"/>
+      <c r="W428" s="1"/>
+    </row>
+    <row r="429" spans="1:23">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -13912,9 +14360,10 @@
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
-      <c r="V429" s="1"/>
-    </row>
-    <row r="430" spans="1:22">
+      <c r="T429" s="1"/>
+      <c r="W429" s="1"/>
+    </row>
+    <row r="430" spans="1:23">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -13933,9 +14382,10 @@
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
-      <c r="V430" s="1"/>
-    </row>
-    <row r="431" spans="1:22">
+      <c r="T430" s="1"/>
+      <c r="W430" s="1"/>
+    </row>
+    <row r="431" spans="1:23">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -13954,9 +14404,10 @@
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
-      <c r="V431" s="1"/>
-    </row>
-    <row r="432" spans="1:22">
+      <c r="T431" s="1"/>
+      <c r="W431" s="1"/>
+    </row>
+    <row r="432" spans="1:23">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -13975,9 +14426,10 @@
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
-      <c r="V432" s="1"/>
-    </row>
-    <row r="433" spans="1:22">
+      <c r="T432" s="1"/>
+      <c r="W432" s="1"/>
+    </row>
+    <row r="433" spans="1:23">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -13996,9 +14448,10 @@
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
-      <c r="V433" s="1"/>
-    </row>
-    <row r="434" spans="1:22">
+      <c r="T433" s="1"/>
+      <c r="W433" s="1"/>
+    </row>
+    <row r="434" spans="1:23">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -14017,9 +14470,10 @@
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
-      <c r="V434" s="1"/>
-    </row>
-    <row r="435" spans="1:22">
+      <c r="T434" s="1"/>
+      <c r="W434" s="1"/>
+    </row>
+    <row r="435" spans="1:23">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -14038,9 +14492,10 @@
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
-      <c r="V435" s="1"/>
-    </row>
-    <row r="436" spans="1:22">
+      <c r="T435" s="1"/>
+      <c r="W435" s="1"/>
+    </row>
+    <row r="436" spans="1:23">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -14059,9 +14514,10 @@
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
-      <c r="V436" s="1"/>
-    </row>
-    <row r="437" spans="1:22">
+      <c r="T436" s="1"/>
+      <c r="W436" s="1"/>
+    </row>
+    <row r="437" spans="1:23">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -14080,9 +14536,10 @@
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
-      <c r="V437" s="1"/>
-    </row>
-    <row r="438" spans="1:22">
+      <c r="T437" s="1"/>
+      <c r="W437" s="1"/>
+    </row>
+    <row r="438" spans="1:23">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -14101,9 +14558,10 @@
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
-      <c r="V438" s="1"/>
-    </row>
-    <row r="439" spans="1:22">
+      <c r="T438" s="1"/>
+      <c r="W438" s="1"/>
+    </row>
+    <row r="439" spans="1:23">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -14122,9 +14580,10 @@
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
-      <c r="V439" s="1"/>
-    </row>
-    <row r="440" spans="1:22">
+      <c r="T439" s="1"/>
+      <c r="W439" s="1"/>
+    </row>
+    <row r="440" spans="1:23">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -14143,9 +14602,10 @@
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
-      <c r="V440" s="1"/>
-    </row>
-    <row r="441" spans="1:22">
+      <c r="T440" s="1"/>
+      <c r="W440" s="1"/>
+    </row>
+    <row r="441" spans="1:23">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -14164,9 +14624,10 @@
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
-      <c r="V441" s="1"/>
-    </row>
-    <row r="442" spans="1:22">
+      <c r="T441" s="1"/>
+      <c r="W441" s="1"/>
+    </row>
+    <row r="442" spans="1:23">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -14185,9 +14646,10 @@
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
-      <c r="V442" s="1"/>
-    </row>
-    <row r="443" spans="1:22">
+      <c r="T442" s="1"/>
+      <c r="W442" s="1"/>
+    </row>
+    <row r="443" spans="1:23">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -14206,9 +14668,10 @@
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
-      <c r="V443" s="1"/>
-    </row>
-    <row r="444" spans="1:22">
+      <c r="T443" s="1"/>
+      <c r="W443" s="1"/>
+    </row>
+    <row r="444" spans="1:23">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -14227,9 +14690,10 @@
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
-      <c r="V444" s="1"/>
-    </row>
-    <row r="445" spans="1:22">
+      <c r="T444" s="1"/>
+      <c r="W444" s="1"/>
+    </row>
+    <row r="445" spans="1:23">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -14248,9 +14712,10 @@
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
-      <c r="V445" s="1"/>
-    </row>
-    <row r="446" spans="1:22">
+      <c r="T445" s="1"/>
+      <c r="W445" s="1"/>
+    </row>
+    <row r="446" spans="1:23">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -14269,9 +14734,10 @@
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
-      <c r="V446" s="1"/>
-    </row>
-    <row r="447" spans="1:22">
+      <c r="T446" s="1"/>
+      <c r="W446" s="1"/>
+    </row>
+    <row r="447" spans="1:23">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -14290,9 +14756,10 @@
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
-      <c r="V447" s="1"/>
-    </row>
-    <row r="448" spans="1:22">
+      <c r="T447" s="1"/>
+      <c r="W447" s="1"/>
+    </row>
+    <row r="448" spans="1:23">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -14311,9 +14778,10 @@
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
-      <c r="V448" s="1"/>
-    </row>
-    <row r="449" spans="1:22">
+      <c r="T448" s="1"/>
+      <c r="W448" s="1"/>
+    </row>
+    <row r="449" spans="1:23">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -14332,9 +14800,10 @@
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
-      <c r="V449" s="1"/>
-    </row>
-    <row r="450" spans="1:22">
+      <c r="T449" s="1"/>
+      <c r="W449" s="1"/>
+    </row>
+    <row r="450" spans="1:23">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -14353,9 +14822,10 @@
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
-      <c r="V450" s="1"/>
-    </row>
-    <row r="451" spans="1:22">
+      <c r="T450" s="1"/>
+      <c r="W450" s="1"/>
+    </row>
+    <row r="451" spans="1:23">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -14374,9 +14844,10 @@
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
-      <c r="V451" s="1"/>
-    </row>
-    <row r="452" spans="1:22">
+      <c r="T451" s="1"/>
+      <c r="W451" s="1"/>
+    </row>
+    <row r="452" spans="1:23">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -14395,9 +14866,10 @@
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
-      <c r="V452" s="1"/>
-    </row>
-    <row r="453" spans="1:22">
+      <c r="T452" s="1"/>
+      <c r="W452" s="1"/>
+    </row>
+    <row r="453" spans="1:23">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -14416,9 +14888,10 @@
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
-      <c r="V453" s="1"/>
-    </row>
-    <row r="454" spans="1:22">
+      <c r="T453" s="1"/>
+      <c r="W453" s="1"/>
+    </row>
+    <row r="454" spans="1:23">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -14437,9 +14910,10 @@
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
-      <c r="V454" s="1"/>
-    </row>
-    <row r="455" spans="1:22">
+      <c r="T454" s="1"/>
+      <c r="W454" s="1"/>
+    </row>
+    <row r="455" spans="1:23">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -14458,9 +14932,10 @@
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
-      <c r="V455" s="1"/>
-    </row>
-    <row r="456" spans="1:22">
+      <c r="T455" s="1"/>
+      <c r="W455" s="1"/>
+    </row>
+    <row r="456" spans="1:23">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -14479,9 +14954,10 @@
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
-      <c r="V456" s="1"/>
-    </row>
-    <row r="457" spans="1:22">
+      <c r="T456" s="1"/>
+      <c r="W456" s="1"/>
+    </row>
+    <row r="457" spans="1:23">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -14500,9 +14976,10 @@
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
-      <c r="V457" s="1"/>
-    </row>
-    <row r="458" spans="1:22">
+      <c r="T457" s="1"/>
+      <c r="W457" s="1"/>
+    </row>
+    <row r="458" spans="1:23">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -14521,9 +14998,10 @@
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
-      <c r="V458" s="1"/>
-    </row>
-    <row r="459" spans="1:22">
+      <c r="T458" s="1"/>
+      <c r="W458" s="1"/>
+    </row>
+    <row r="459" spans="1:23">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -14542,9 +15020,10 @@
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
-      <c r="V459" s="1"/>
-    </row>
-    <row r="460" spans="1:22">
+      <c r="T459" s="1"/>
+      <c r="W459" s="1"/>
+    </row>
+    <row r="460" spans="1:23">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -14563,9 +15042,10 @@
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
-      <c r="V460" s="1"/>
-    </row>
-    <row r="461" spans="1:22">
+      <c r="T460" s="1"/>
+      <c r="W460" s="1"/>
+    </row>
+    <row r="461" spans="1:23">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -14584,9 +15064,10 @@
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
-      <c r="V461" s="1"/>
-    </row>
-    <row r="462" spans="1:22">
+      <c r="T461" s="1"/>
+      <c r="W461" s="1"/>
+    </row>
+    <row r="462" spans="1:23">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -14605,9 +15086,10 @@
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
-      <c r="V462" s="1"/>
-    </row>
-    <row r="463" spans="1:22">
+      <c r="T462" s="1"/>
+      <c r="W462" s="1"/>
+    </row>
+    <row r="463" spans="1:23">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -14626,9 +15108,10 @@
       <c r="Q463" s="1"/>
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
-      <c r="V463" s="1"/>
-    </row>
-    <row r="464" spans="1:22">
+      <c r="T463" s="1"/>
+      <c r="W463" s="1"/>
+    </row>
+    <row r="464" spans="1:23">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -14647,9 +15130,10 @@
       <c r="Q464" s="1"/>
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
-      <c r="V464" s="1"/>
-    </row>
-    <row r="465" spans="1:22">
+      <c r="T464" s="1"/>
+      <c r="W464" s="1"/>
+    </row>
+    <row r="465" spans="1:23">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -14668,9 +15152,10 @@
       <c r="Q465" s="1"/>
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
-      <c r="V465" s="1"/>
-    </row>
-    <row r="466" spans="1:22">
+      <c r="T465" s="1"/>
+      <c r="W465" s="1"/>
+    </row>
+    <row r="466" spans="1:23">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -14689,9 +15174,10 @@
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
-      <c r="V466" s="1"/>
-    </row>
-    <row r="467" spans="1:22">
+      <c r="T466" s="1"/>
+      <c r="W466" s="1"/>
+    </row>
+    <row r="467" spans="1:23">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -14710,9 +15196,10 @@
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
-      <c r="V467" s="1"/>
-    </row>
-    <row r="468" spans="1:22">
+      <c r="T467" s="1"/>
+      <c r="W467" s="1"/>
+    </row>
+    <row r="468" spans="1:23">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -14731,9 +15218,10 @@
       <c r="Q468" s="1"/>
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
-      <c r="V468" s="1"/>
-    </row>
-    <row r="469" spans="1:22">
+      <c r="T468" s="1"/>
+      <c r="W468" s="1"/>
+    </row>
+    <row r="469" spans="1:23">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -14752,9 +15240,10 @@
       <c r="Q469" s="1"/>
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
-      <c r="V469" s="1"/>
-    </row>
-    <row r="470" spans="1:22">
+      <c r="T469" s="1"/>
+      <c r="W469" s="1"/>
+    </row>
+    <row r="470" spans="1:23">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -14773,9 +15262,10 @@
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
-      <c r="V470" s="1"/>
-    </row>
-    <row r="471" spans="1:22">
+      <c r="T470" s="1"/>
+      <c r="W470" s="1"/>
+    </row>
+    <row r="471" spans="1:23">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -14794,9 +15284,10 @@
       <c r="Q471" s="1"/>
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
-      <c r="V471" s="1"/>
-    </row>
-    <row r="472" spans="1:22">
+      <c r="T471" s="1"/>
+      <c r="W471" s="1"/>
+    </row>
+    <row r="472" spans="1:23">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -14815,9 +15306,10 @@
       <c r="Q472" s="1"/>
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
-      <c r="V472" s="1"/>
-    </row>
-    <row r="473" spans="1:22">
+      <c r="T472" s="1"/>
+      <c r="W472" s="1"/>
+    </row>
+    <row r="473" spans="1:23">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -14836,9 +15328,10 @@
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
-      <c r="V473" s="1"/>
-    </row>
-    <row r="474" spans="1:22">
+      <c r="T473" s="1"/>
+      <c r="W473" s="1"/>
+    </row>
+    <row r="474" spans="1:23">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -14857,9 +15350,10 @@
       <c r="Q474" s="1"/>
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
-      <c r="V474" s="1"/>
-    </row>
-    <row r="475" spans="1:22">
+      <c r="T474" s="1"/>
+      <c r="W474" s="1"/>
+    </row>
+    <row r="475" spans="1:23">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -14878,9 +15372,10 @@
       <c r="Q475" s="1"/>
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
-      <c r="V475" s="1"/>
-    </row>
-    <row r="476" spans="1:22">
+      <c r="T475" s="1"/>
+      <c r="W475" s="1"/>
+    </row>
+    <row r="476" spans="1:23">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -14899,9 +15394,10 @@
       <c r="Q476" s="1"/>
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
-      <c r="V476" s="1"/>
-    </row>
-    <row r="477" spans="1:22">
+      <c r="T476" s="1"/>
+      <c r="W476" s="1"/>
+    </row>
+    <row r="477" spans="1:23">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -14920,9 +15416,10 @@
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
-      <c r="V477" s="1"/>
-    </row>
-    <row r="478" spans="1:22">
+      <c r="T477" s="1"/>
+      <c r="W477" s="1"/>
+    </row>
+    <row r="478" spans="1:23">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -14941,9 +15438,10 @@
       <c r="Q478" s="1"/>
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
-      <c r="V478" s="1"/>
-    </row>
-    <row r="479" spans="1:22">
+      <c r="T478" s="1"/>
+      <c r="W478" s="1"/>
+    </row>
+    <row r="479" spans="1:23">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -14962,9 +15460,10 @@
       <c r="Q479" s="1"/>
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
-      <c r="V479" s="1"/>
-    </row>
-    <row r="480" spans="1:22">
+      <c r="T479" s="1"/>
+      <c r="W479" s="1"/>
+    </row>
+    <row r="480" spans="1:23">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -14983,9 +15482,10 @@
       <c r="Q480" s="1"/>
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
-      <c r="V480" s="1"/>
-    </row>
-    <row r="481" spans="1:22">
+      <c r="T480" s="1"/>
+      <c r="W480" s="1"/>
+    </row>
+    <row r="481" spans="1:23">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -15004,9 +15504,10 @@
       <c r="Q481" s="1"/>
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
-      <c r="V481" s="1"/>
-    </row>
-    <row r="482" spans="1:22">
+      <c r="T481" s="1"/>
+      <c r="W481" s="1"/>
+    </row>
+    <row r="482" spans="1:23">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -15025,9 +15526,10 @@
       <c r="Q482" s="1"/>
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
-      <c r="V482" s="1"/>
-    </row>
-    <row r="483" spans="1:22">
+      <c r="T482" s="1"/>
+      <c r="W482" s="1"/>
+    </row>
+    <row r="483" spans="1:23">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -15046,9 +15548,10 @@
       <c r="Q483" s="1"/>
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
-      <c r="V483" s="1"/>
-    </row>
-    <row r="484" spans="1:22">
+      <c r="T483" s="1"/>
+      <c r="W483" s="1"/>
+    </row>
+    <row r="484" spans="1:23">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -15067,9 +15570,10 @@
       <c r="Q484" s="1"/>
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
-      <c r="V484" s="1"/>
-    </row>
-    <row r="485" spans="1:22">
+      <c r="T484" s="1"/>
+      <c r="W484" s="1"/>
+    </row>
+    <row r="485" spans="1:23">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -15088,9 +15592,10 @@
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
-      <c r="V485" s="1"/>
-    </row>
-    <row r="486" spans="1:22">
+      <c r="T485" s="1"/>
+      <c r="W485" s="1"/>
+    </row>
+    <row r="486" spans="1:23">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -15109,9 +15614,10 @@
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
-      <c r="V486" s="1"/>
-    </row>
-    <row r="487" spans="1:22">
+      <c r="T486" s="1"/>
+      <c r="W486" s="1"/>
+    </row>
+    <row r="487" spans="1:23">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -15130,9 +15636,10 @@
       <c r="Q487" s="1"/>
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
-      <c r="V487" s="1"/>
-    </row>
-    <row r="488" spans="1:22">
+      <c r="T487" s="1"/>
+      <c r="W487" s="1"/>
+    </row>
+    <row r="488" spans="1:23">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -15151,9 +15658,10 @@
       <c r="Q488" s="1"/>
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
-      <c r="V488" s="1"/>
-    </row>
-    <row r="489" spans="1:22">
+      <c r="T488" s="1"/>
+      <c r="W488" s="1"/>
+    </row>
+    <row r="489" spans="1:23">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -15172,9 +15680,10 @@
       <c r="Q489" s="1"/>
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
-      <c r="V489" s="1"/>
-    </row>
-    <row r="490" spans="1:22">
+      <c r="T489" s="1"/>
+      <c r="W489" s="1"/>
+    </row>
+    <row r="490" spans="1:23">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -15193,9 +15702,10 @@
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
-      <c r="V490" s="1"/>
-    </row>
-    <row r="491" spans="1:22">
+      <c r="T490" s="1"/>
+      <c r="W490" s="1"/>
+    </row>
+    <row r="491" spans="1:23">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -15214,9 +15724,10 @@
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
-      <c r="V491" s="1"/>
-    </row>
-    <row r="492" spans="1:22">
+      <c r="T491" s="1"/>
+      <c r="W491" s="1"/>
+    </row>
+    <row r="492" spans="1:23">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -15235,9 +15746,10 @@
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
-      <c r="V492" s="1"/>
-    </row>
-    <row r="493" spans="1:22">
+      <c r="T492" s="1"/>
+      <c r="W492" s="1"/>
+    </row>
+    <row r="493" spans="1:23">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -15256,9 +15768,10 @@
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
-      <c r="V493" s="1"/>
-    </row>
-    <row r="494" spans="1:22">
+      <c r="T493" s="1"/>
+      <c r="W493" s="1"/>
+    </row>
+    <row r="494" spans="1:23">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -15277,9 +15790,10 @@
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
-      <c r="V494" s="1"/>
-    </row>
-    <row r="495" spans="1:22">
+      <c r="T494" s="1"/>
+      <c r="W494" s="1"/>
+    </row>
+    <row r="495" spans="1:23">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -15298,9 +15812,10 @@
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
-      <c r="V495" s="1"/>
-    </row>
-    <row r="496" spans="1:22">
+      <c r="T495" s="1"/>
+      <c r="W495" s="1"/>
+    </row>
+    <row r="496" spans="1:23">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -15319,16 +15834,17 @@
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
-      <c r="V496" s="1"/>
+      <c r="T496" s="1"/>
+      <c r="W496" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
+  <mergeCells count="38">
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="X4:Y4"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -15348,18 +15864,19 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T1:T5"/>
-    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U1:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE1:AE5"/>
-    <mergeCell ref="N1:S2"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF1:AF5"/>
     <mergeCell ref="B1:M3"/>
+    <mergeCell ref="N1:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -2926,11 +2926,11 @@
   <dimension ref="A1:AF496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -156,7 +156,7 @@
 (是的时候应该警惕)</t>
   </si>
   <si>
-    <t>是否出现连续三日新低
+    <t>是否出现连续三日新低，且第三日交易量放量
 (是的时候应该警惕)</t>
   </si>
   <si>
@@ -230,11 +230,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -268,27 +268,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -303,14 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -319,41 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,8 +312,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,15 +329,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +360,52 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,13 +530,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,85 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,19 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,25 +644,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +743,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -753,6 +762,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -773,30 +823,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -811,188 +837,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,9 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2926,11 +2920,11 @@
   <dimension ref="A1:AF496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2960,4720 +2954,4720 @@
     <col min="29" max="29" width="22.0267857142857" customWidth="1"/>
     <col min="30" max="30" width="24.5446428571429" customWidth="1"/>
     <col min="31" max="31" width="18.75" customWidth="1"/>
-    <col min="32" max="32" width="9.07142857142857" style="2"/>
+    <col min="32" max="32" width="9.07142857142857" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="15" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="22" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="30" t="s">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="25" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="31" t="s">
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="29"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="16" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="19" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="30"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="29"/>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="V4" s="26" t="s">
+      <c r="U4" s="23"/>
+      <c r="V4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="29" t="s">
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="29" t="s">
+      <c r="AC4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="31" t="s">
+      <c r="AD4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="32" t="s">
+      <c r="AE4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="30"/>
+      <c r="AF4" s="29"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:32">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="27" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="27" t="s">
+      <c r="Y5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="30"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="29"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>44530</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>29.71</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>28.9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>30.32</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>28.81</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>26.93</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>25.02</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>17.86</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>1</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>0.0248</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
         <v>-0.00335457900033539</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <f>I6/(ROW()-4)</f>
         <v>0.5</v>
       </c>
-      <c r="M6" s="8" t="str">
+      <c r="M6" s="7" t="str">
         <f>IF(B6&gt;=(D6-(D6-E6)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="N6" s="8" t="str">
+      <c r="N6" s="7" t="str">
         <f>IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="33">
+      <c r="V6" s="7"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="7">
         <v>27.72</v>
       </c>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>44531</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>29.15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>29.7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>29.7</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>28.31</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>27.15</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>25.18</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>18.3</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f>(B7-B6)/B6</f>
         <v>-0.0188488724335241</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
         <v>-0.022140221402214</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <f>I7/(ROW()-4)</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="M7" s="8" t="str">
+      <c r="M7" s="7" t="str">
         <f>IF(B7&gt;=(D7-(D7-E7)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="N7" s="8" t="str">
+      <c r="N7" s="7" t="str">
         <f>IF(B7&lt;F7,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="T7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="33">
+      <c r="V7" s="7"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="7">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7,AF6)</f>
         <v>27.72</v>
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44532</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>28.28</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>28.9</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>29.56</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>28.15</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>27.25</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>25.3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>17.96</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f>(B8-B7)/B7</f>
         <v>-0.0298456260720411</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
         <v>-0.0513250587051324</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <f>I8/(ROW()-4)</f>
         <v>0.25</v>
       </c>
-      <c r="M8" s="18" t="str">
+      <c r="M8" s="17" t="str">
         <f>IF(B8&gt;=(D8-(D8-E8)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
-      <c r="N8" s="8" t="str">
+      <c r="N8" s="7" t="str">
         <f>IF(B8&lt;F8,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="U8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="33">
+      <c r="V8" s="7"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="7">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8,AF7)</f>
         <v>27.72</v>
       </c>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>44533</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="33"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="7"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44534</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="33"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>44535</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="33"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>44536</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="33"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>44537</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="33"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="7"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>44538</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="33"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>44539</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="33"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="7"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44540</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="33"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>44541</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="33"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="7"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44542</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="33"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44543</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="33"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44544</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="33"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>44545</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="33"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>44546</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="33"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>44547</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="33"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>44548</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="33"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>44549</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="33"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>44550</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="33"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>44551</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="33"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>44552</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="33"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="7"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>44553</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="33"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="7"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>44554</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="33"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="7"/>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>44555</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="33"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>44556</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="33"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="7"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>44557</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="33"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="7"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>44558</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="33"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="7"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>44559</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="33"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="7"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>44560</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="33"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="7"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>44561</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="33"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="7"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>44562</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="33"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="7"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>44563</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="33"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="7"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>44564</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="33"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="7"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>44565</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="33"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="7"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>44566</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="33"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="7"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>44567</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="33"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="7"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>44568</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="33"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="27"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
+      <c r="AF44" s="7"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>44569</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="33"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="7"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>44570</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="33"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="7"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>44571</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="33"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="7"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>44572</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="33"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="27"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="7"/>
     </row>
     <row r="49" spans="1:32">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>44573</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="33"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="7"/>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>44574</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="33"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="7"/>
     </row>
     <row r="51" spans="1:32">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>44575</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="33"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="7"/>
     </row>
     <row r="52" spans="1:32">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>44576</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="33"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="27"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="27"/>
+      <c r="AF52" s="7"/>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>44577</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="33"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="7"/>
     </row>
     <row r="54" spans="1:32">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>44578</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
-      <c r="AE54" s="28"/>
-      <c r="AF54" s="33"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="7"/>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>44579</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="33"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="27"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AE55" s="27"/>
+      <c r="AF55" s="7"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>44580</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="33"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="27"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AE56" s="27"/>
+      <c r="AF56" s="7"/>
     </row>
     <row r="57" spans="1:32">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>44581</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="33"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="7"/>
     </row>
     <row r="58" spans="1:32">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>44582</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
-      <c r="AF58" s="33"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="7"/>
     </row>
     <row r="59" spans="1:32">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>44583</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
-      <c r="AF59" s="33"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="7"/>
     </row>
     <row r="60" spans="1:32">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>44584</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
-      <c r="AF60" s="33"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="7"/>
     </row>
     <row r="61" spans="1:32">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>44585</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="28"/>
-      <c r="AE61" s="28"/>
-      <c r="AF61" s="33"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="27"/>
+      <c r="AD61" s="27"/>
+      <c r="AE61" s="27"/>
+      <c r="AF61" s="7"/>
     </row>
     <row r="62" spans="1:32">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>44586</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="28"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="28"/>
-      <c r="AE62" s="28"/>
-      <c r="AF62" s="33"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="27"/>
+      <c r="AF62" s="7"/>
     </row>
     <row r="63" spans="1:32">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>44587</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="28"/>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="28"/>
-      <c r="AE63" s="28"/>
-      <c r="AF63" s="33"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="27"/>
+      <c r="AE63" s="27"/>
+      <c r="AF63" s="7"/>
     </row>
     <row r="64" spans="1:32">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>44588</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
-      <c r="AE64" s="28"/>
-      <c r="AF64" s="33"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="27"/>
+      <c r="AA64" s="27"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="27"/>
+      <c r="AD64" s="27"/>
+      <c r="AE64" s="27"/>
+      <c r="AF64" s="7"/>
     </row>
     <row r="65" spans="1:32">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>44589</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
-      <c r="AE65" s="28"/>
-      <c r="AF65" s="33"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AE65" s="27"/>
+      <c r="AF65" s="7"/>
     </row>
     <row r="66" spans="1:32">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>44590</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="28"/>
-      <c r="AE66" s="28"/>
-      <c r="AF66" s="33"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="27"/>
+      <c r="AF66" s="7"/>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>44591</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="28"/>
-      <c r="AC67" s="28"/>
-      <c r="AD67" s="28"/>
-      <c r="AE67" s="28"/>
-      <c r="AF67" s="33"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="27"/>
+      <c r="AE67" s="27"/>
+      <c r="AF67" s="7"/>
     </row>
     <row r="68" spans="1:32">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>44592</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="28"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="28"/>
-      <c r="AE68" s="28"/>
-      <c r="AF68" s="33"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AE68" s="27"/>
+      <c r="AF68" s="7"/>
     </row>
     <row r="69" spans="1:32">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>44593</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="28"/>
-      <c r="AC69" s="28"/>
-      <c r="AD69" s="28"/>
-      <c r="AE69" s="28"/>
-      <c r="AF69" s="33"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AE69" s="27"/>
+      <c r="AF69" s="7"/>
     </row>
     <row r="70" spans="1:32">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>44594</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="28"/>
-      <c r="AC70" s="28"/>
-      <c r="AD70" s="28"/>
-      <c r="AE70" s="28"/>
-      <c r="AF70" s="33"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AE70" s="27"/>
+      <c r="AF70" s="7"/>
     </row>
     <row r="71" spans="1:32">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>44595</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="28"/>
-      <c r="AB71" s="28"/>
-      <c r="AC71" s="28"/>
-      <c r="AD71" s="28"/>
-      <c r="AE71" s="28"/>
-      <c r="AF71" s="33"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="27"/>
+      <c r="AE71" s="27"/>
+      <c r="AF71" s="7"/>
     </row>
     <row r="72" spans="1:32">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>44596</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="33"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="27"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="27"/>
+      <c r="AC72" s="27"/>
+      <c r="AD72" s="27"/>
+      <c r="AE72" s="27"/>
+      <c r="AF72" s="7"/>
     </row>
     <row r="73" spans="1:32">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>44597</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="28"/>
-      <c r="AF73" s="33"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="27"/>
+      <c r="AF73" s="7"/>
     </row>
     <row r="74" spans="1:32">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>44598</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
-      <c r="AE74" s="28"/>
-      <c r="AF74" s="33"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
+      <c r="AF74" s="7"/>
     </row>
     <row r="75" spans="1:32">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>44599</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-      <c r="AC75" s="28"/>
-      <c r="AD75" s="28"/>
-      <c r="AE75" s="28"/>
-      <c r="AF75" s="33"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27"/>
+      <c r="AF75" s="7"/>
     </row>
     <row r="76" spans="1:32">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>44600</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
-      <c r="AE76" s="28"/>
-      <c r="AF76" s="33"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="7"/>
     </row>
     <row r="77" spans="1:32">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>44601</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
-      <c r="AE77" s="28"/>
-      <c r="AF77" s="33"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27"/>
+      <c r="AF77" s="7"/>
     </row>
     <row r="78" spans="1:32">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>44602</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
-      <c r="AE78" s="28"/>
-      <c r="AF78" s="33"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
+      <c r="AC78" s="27"/>
+      <c r="AD78" s="27"/>
+      <c r="AE78" s="27"/>
+      <c r="AF78" s="7"/>
     </row>
     <row r="79" spans="1:32">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>44603</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
-      <c r="AE79" s="28"/>
-      <c r="AF79" s="33"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="27"/>
+      <c r="AF79" s="7"/>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>44604</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-      <c r="AC80" s="28"/>
-      <c r="AD80" s="28"/>
-      <c r="AE80" s="28"/>
-      <c r="AF80" s="33"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="27"/>
+      <c r="AE80" s="27"/>
+      <c r="AF80" s="7"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>44605</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="28"/>
-      <c r="AE81" s="28"/>
-      <c r="AF81" s="33"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="27"/>
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="27"/>
+      <c r="AE81" s="27"/>
+      <c r="AF81" s="7"/>
     </row>
     <row r="82" spans="1:32">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>44606</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-      <c r="AC82" s="28"/>
-      <c r="AD82" s="28"/>
-      <c r="AE82" s="28"/>
-      <c r="AF82" s="33"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27"/>
+      <c r="AE82" s="27"/>
+      <c r="AF82" s="7"/>
     </row>
     <row r="83" spans="1:32">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>44607</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="28"/>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="28"/>
-      <c r="AC83" s="28"/>
-      <c r="AD83" s="28"/>
-      <c r="AE83" s="28"/>
-      <c r="AF83" s="33"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
+      <c r="AF83" s="7"/>
     </row>
     <row r="84" spans="1:32">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>44608</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="28"/>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="28"/>
-      <c r="AE84" s="28"/>
-      <c r="AF84" s="33"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="7"/>
     </row>
     <row r="85" spans="1:32">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>44609</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="28"/>
-      <c r="Z85" s="28"/>
-      <c r="AA85" s="28"/>
-      <c r="AB85" s="28"/>
-      <c r="AC85" s="28"/>
-      <c r="AD85" s="28"/>
-      <c r="AE85" s="28"/>
-      <c r="AF85" s="33"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="27"/>
+      <c r="AF85" s="7"/>
     </row>
     <row r="86" spans="1:32">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>44610</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="28"/>
-      <c r="AA86" s="28"/>
-      <c r="AB86" s="28"/>
-      <c r="AC86" s="28"/>
-      <c r="AD86" s="28"/>
-      <c r="AE86" s="28"/>
-      <c r="AF86" s="33"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="7"/>
     </row>
     <row r="87" spans="1:32">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>44611</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="28"/>
-      <c r="AA87" s="28"/>
-      <c r="AB87" s="28"/>
-      <c r="AC87" s="28"/>
-      <c r="AD87" s="28"/>
-      <c r="AE87" s="28"/>
-      <c r="AF87" s="33"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+      <c r="AF87" s="7"/>
     </row>
     <row r="88" spans="1:32">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>44612</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-      <c r="AC88" s="28"/>
-      <c r="AD88" s="28"/>
-      <c r="AE88" s="28"/>
-      <c r="AF88" s="33"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="7"/>
     </row>
     <row r="89" spans="1:32">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>44613</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="28"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-      <c r="AC89" s="28"/>
-      <c r="AD89" s="28"/>
-      <c r="AE89" s="28"/>
-      <c r="AF89" s="33"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+      <c r="AF89" s="7"/>
     </row>
     <row r="90" spans="1:32">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>44614</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="28"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="28"/>
-      <c r="AC90" s="28"/>
-      <c r="AD90" s="28"/>
-      <c r="AE90" s="28"/>
-      <c r="AF90" s="33"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="27"/>
+      <c r="AF90" s="7"/>
     </row>
     <row r="91" spans="1:32">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>44615</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="28"/>
-      <c r="AA91" s="28"/>
-      <c r="AB91" s="28"/>
-      <c r="AC91" s="28"/>
-      <c r="AD91" s="28"/>
-      <c r="AE91" s="28"/>
-      <c r="AF91" s="33"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
+      <c r="AF91" s="7"/>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>44616</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="28"/>
-      <c r="AA92" s="28"/>
-      <c r="AB92" s="28"/>
-      <c r="AC92" s="28"/>
-      <c r="AD92" s="28"/>
-      <c r="AE92" s="28"/>
-      <c r="AF92" s="33"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="27"/>
+      <c r="AE92" s="27"/>
+      <c r="AF92" s="7"/>
     </row>
     <row r="93" spans="1:32">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>44617</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="8"/>
-      <c r="W93" s="8"/>
-      <c r="X93" s="28"/>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="28"/>
-      <c r="AA93" s="28"/>
-      <c r="AB93" s="28"/>
-      <c r="AC93" s="28"/>
-      <c r="AD93" s="28"/>
-      <c r="AE93" s="28"/>
-      <c r="AF93" s="33"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="27"/>
+      <c r="AC93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AE93" s="27"/>
+      <c r="AF93" s="7"/>
     </row>
     <row r="94" spans="1:32">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>44618</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="28"/>
-      <c r="AA94" s="28"/>
-      <c r="AB94" s="28"/>
-      <c r="AC94" s="28"/>
-      <c r="AD94" s="28"/>
-      <c r="AE94" s="28"/>
-      <c r="AF94" s="33"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27"/>
+      <c r="AE94" s="27"/>
+      <c r="AF94" s="7"/>
     </row>
     <row r="95" spans="1:32">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>44619</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="8"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="28"/>
-      <c r="AB95" s="28"/>
-      <c r="AC95" s="28"/>
-      <c r="AD95" s="28"/>
-      <c r="AE95" s="28"/>
-      <c r="AF95" s="33"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="27"/>
+      <c r="Z95" s="27"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="27"/>
+      <c r="AC95" s="27"/>
+      <c r="AD95" s="27"/>
+      <c r="AE95" s="27"/>
+      <c r="AF95" s="7"/>
     </row>
     <row r="96" spans="1:32">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>44620</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="28"/>
-      <c r="AA96" s="28"/>
-      <c r="AB96" s="28"/>
-      <c r="AC96" s="28"/>
-      <c r="AD96" s="28"/>
-      <c r="AE96" s="28"/>
-      <c r="AF96" s="33"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
+      <c r="AF96" s="7"/>
     </row>
     <row r="97" spans="1:32">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>44621</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="8"/>
-      <c r="X97" s="28"/>
-      <c r="Y97" s="28"/>
-      <c r="Z97" s="28"/>
-      <c r="AA97" s="28"/>
-      <c r="AB97" s="28"/>
-      <c r="AC97" s="28"/>
-      <c r="AD97" s="28"/>
-      <c r="AE97" s="28"/>
-      <c r="AF97" s="33"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="27"/>
+      <c r="AC97" s="27"/>
+      <c r="AD97" s="27"/>
+      <c r="AE97" s="27"/>
+      <c r="AF97" s="7"/>
     </row>
     <row r="98" spans="1:32">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>44622</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
-      <c r="X98" s="28"/>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="28"/>
-      <c r="AA98" s="28"/>
-      <c r="AB98" s="28"/>
-      <c r="AC98" s="28"/>
-      <c r="AD98" s="28"/>
-      <c r="AE98" s="28"/>
-      <c r="AF98" s="33"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="27"/>
+      <c r="AC98" s="27"/>
+      <c r="AD98" s="27"/>
+      <c r="AE98" s="27"/>
+      <c r="AF98" s="7"/>
     </row>
     <row r="99" spans="1:32">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>44623</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="28"/>
-      <c r="Z99" s="28"/>
-      <c r="AA99" s="28"/>
-      <c r="AB99" s="28"/>
-      <c r="AC99" s="28"/>
-      <c r="AD99" s="28"/>
-      <c r="AE99" s="28"/>
-      <c r="AF99" s="33"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="27"/>
+      <c r="AC99" s="27"/>
+      <c r="AD99" s="27"/>
+      <c r="AE99" s="27"/>
+      <c r="AF99" s="7"/>
     </row>
     <row r="100" spans="1:32">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <v>44624</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="8"/>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="28"/>
-      <c r="Z100" s="28"/>
-      <c r="AA100" s="28"/>
-      <c r="AB100" s="28"/>
-      <c r="AC100" s="28"/>
-      <c r="AD100" s="28"/>
-      <c r="AE100" s="28"/>
-      <c r="AF100" s="33"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="27"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="27"/>
+      <c r="AC100" s="27"/>
+      <c r="AD100" s="27"/>
+      <c r="AE100" s="27"/>
+      <c r="AF100" s="7"/>
     </row>
     <row r="101" spans="1:32">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>44625</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="28"/>
-      <c r="Y101" s="28"/>
-      <c r="Z101" s="28"/>
-      <c r="AA101" s="28"/>
-      <c r="AB101" s="28"/>
-      <c r="AC101" s="28"/>
-      <c r="AD101" s="28"/>
-      <c r="AE101" s="28"/>
-      <c r="AF101" s="33"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="27"/>
+      <c r="Y101" s="27"/>
+      <c r="Z101" s="27"/>
+      <c r="AA101" s="27"/>
+      <c r="AB101" s="27"/>
+      <c r="AC101" s="27"/>
+      <c r="AD101" s="27"/>
+      <c r="AE101" s="27"/>
+      <c r="AF101" s="7"/>
     </row>
     <row r="102" spans="1:32">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <v>44626</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="8"/>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="28"/>
-      <c r="Z102" s="28"/>
-      <c r="AA102" s="28"/>
-      <c r="AB102" s="28"/>
-      <c r="AC102" s="28"/>
-      <c r="AD102" s="28"/>
-      <c r="AE102" s="28"/>
-      <c r="AF102" s="33"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="27"/>
+      <c r="Z102" s="27"/>
+      <c r="AA102" s="27"/>
+      <c r="AB102" s="27"/>
+      <c r="AC102" s="27"/>
+      <c r="AD102" s="27"/>
+      <c r="AE102" s="27"/>
+      <c r="AF102" s="7"/>
     </row>
     <row r="103" spans="1:32">
-      <c r="A103" s="6">
+      <c r="A103" s="5">
         <v>44627</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="28"/>
-      <c r="Z103" s="28"/>
-      <c r="AA103" s="28"/>
-      <c r="AB103" s="28"/>
-      <c r="AC103" s="28"/>
-      <c r="AD103" s="28"/>
-      <c r="AE103" s="28"/>
-      <c r="AF103" s="33"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="27"/>
+      <c r="Y103" s="27"/>
+      <c r="Z103" s="27"/>
+      <c r="AA103" s="27"/>
+      <c r="AB103" s="27"/>
+      <c r="AC103" s="27"/>
+      <c r="AD103" s="27"/>
+      <c r="AE103" s="27"/>
+      <c r="AF103" s="7"/>
     </row>
     <row r="104" spans="1:32">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <v>44628</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
-      <c r="V104" s="8"/>
-      <c r="W104" s="8"/>
-      <c r="X104" s="28"/>
-      <c r="Y104" s="28"/>
-      <c r="Z104" s="28"/>
-      <c r="AA104" s="28"/>
-      <c r="AB104" s="28"/>
-      <c r="AC104" s="28"/>
-      <c r="AD104" s="28"/>
-      <c r="AE104" s="28"/>
-      <c r="AF104" s="33"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="27"/>
+      <c r="Y104" s="27"/>
+      <c r="Z104" s="27"/>
+      <c r="AA104" s="27"/>
+      <c r="AB104" s="27"/>
+      <c r="AC104" s="27"/>
+      <c r="AD104" s="27"/>
+      <c r="AE104" s="27"/>
+      <c r="AF104" s="7"/>
     </row>
     <row r="105" spans="1:32">
-      <c r="A105" s="6">
+      <c r="A105" s="5">
         <v>44629</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="8"/>
-      <c r="W105" s="8"/>
-      <c r="X105" s="28"/>
-      <c r="Y105" s="28"/>
-      <c r="Z105" s="28"/>
-      <c r="AA105" s="28"/>
-      <c r="AB105" s="28"/>
-      <c r="AC105" s="28"/>
-      <c r="AD105" s="28"/>
-      <c r="AE105" s="28"/>
-      <c r="AF105" s="33"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="27"/>
+      <c r="Y105" s="27"/>
+      <c r="Z105" s="27"/>
+      <c r="AA105" s="27"/>
+      <c r="AB105" s="27"/>
+      <c r="AC105" s="27"/>
+      <c r="AD105" s="27"/>
+      <c r="AE105" s="27"/>
+      <c r="AF105" s="7"/>
     </row>
     <row r="106" spans="1:32">
-      <c r="A106" s="6">
+      <c r="A106" s="5">
         <v>44630</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="8"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="8"/>
-      <c r="X106" s="28"/>
-      <c r="Y106" s="28"/>
-      <c r="Z106" s="28"/>
-      <c r="AA106" s="28"/>
-      <c r="AB106" s="28"/>
-      <c r="AC106" s="28"/>
-      <c r="AD106" s="28"/>
-      <c r="AE106" s="28"/>
-      <c r="AF106" s="33"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="7"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
+      <c r="AD106" s="27"/>
+      <c r="AE106" s="27"/>
+      <c r="AF106" s="7"/>
     </row>
     <row r="107" spans="1:32">
-      <c r="A107" s="6">
+      <c r="A107" s="5">
         <v>44631</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="8"/>
-      <c r="T107" s="8"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="8"/>
-      <c r="W107" s="8"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
-      <c r="AA107" s="28"/>
-      <c r="AB107" s="28"/>
-      <c r="AC107" s="28"/>
-      <c r="AD107" s="28"/>
-      <c r="AE107" s="28"/>
-      <c r="AF107" s="33"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
+      <c r="AD107" s="27"/>
+      <c r="AE107" s="27"/>
+      <c r="AF107" s="7"/>
     </row>
     <row r="108" spans="1:32">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <v>44632</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="8"/>
-      <c r="W108" s="8"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="28"/>
-      <c r="Z108" s="28"/>
-      <c r="AA108" s="28"/>
-      <c r="AB108" s="28"/>
-      <c r="AC108" s="28"/>
-      <c r="AD108" s="28"/>
-      <c r="AE108" s="28"/>
-      <c r="AF108" s="33"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+      <c r="W108" s="7"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27"/>
+      <c r="AE108" s="27"/>
+      <c r="AF108" s="7"/>
     </row>
     <row r="109" spans="1:32">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <v>44633</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="8"/>
-      <c r="X109" s="28"/>
-      <c r="Y109" s="28"/>
-      <c r="Z109" s="28"/>
-      <c r="AA109" s="28"/>
-      <c r="AB109" s="28"/>
-      <c r="AC109" s="28"/>
-      <c r="AD109" s="28"/>
-      <c r="AE109" s="28"/>
-      <c r="AF109" s="33"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="27"/>
+      <c r="Y109" s="27"/>
+      <c r="Z109" s="27"/>
+      <c r="AA109" s="27"/>
+      <c r="AB109" s="27"/>
+      <c r="AC109" s="27"/>
+      <c r="AD109" s="27"/>
+      <c r="AE109" s="27"/>
+      <c r="AF109" s="7"/>
     </row>
     <row r="110" spans="1:32">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>44634</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="8"/>
-      <c r="X110" s="28"/>
-      <c r="Y110" s="28"/>
-      <c r="Z110" s="28"/>
-      <c r="AA110" s="28"/>
-      <c r="AB110" s="28"/>
-      <c r="AC110" s="28"/>
-      <c r="AD110" s="28"/>
-      <c r="AE110" s="28"/>
-      <c r="AF110" s="33"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+      <c r="W110" s="7"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="27"/>
+      <c r="AB110" s="27"/>
+      <c r="AC110" s="27"/>
+      <c r="AD110" s="27"/>
+      <c r="AE110" s="27"/>
+      <c r="AF110" s="7"/>
     </row>
     <row r="111" spans="1:32">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <v>44635</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="8"/>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="28"/>
-      <c r="Z111" s="28"/>
-      <c r="AA111" s="28"/>
-      <c r="AB111" s="28"/>
-      <c r="AC111" s="28"/>
-      <c r="AD111" s="28"/>
-      <c r="AE111" s="28"/>
-      <c r="AF111" s="33"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="27"/>
+      <c r="Y111" s="27"/>
+      <c r="Z111" s="27"/>
+      <c r="AA111" s="27"/>
+      <c r="AB111" s="27"/>
+      <c r="AC111" s="27"/>
+      <c r="AD111" s="27"/>
+      <c r="AE111" s="27"/>
+      <c r="AF111" s="7"/>
     </row>
     <row r="112" spans="1:32">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <v>44636</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="8"/>
-      <c r="X112" s="28"/>
-      <c r="Y112" s="28"/>
-      <c r="Z112" s="28"/>
-      <c r="AA112" s="28"/>
-      <c r="AB112" s="28"/>
-      <c r="AC112" s="28"/>
-      <c r="AD112" s="28"/>
-      <c r="AE112" s="28"/>
-      <c r="AF112" s="33"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="7"/>
+      <c r="X112" s="27"/>
+      <c r="Y112" s="27"/>
+      <c r="Z112" s="27"/>
+      <c r="AA112" s="27"/>
+      <c r="AB112" s="27"/>
+      <c r="AC112" s="27"/>
+      <c r="AD112" s="27"/>
+      <c r="AE112" s="27"/>
+      <c r="AF112" s="7"/>
     </row>
     <row r="113" spans="1:32">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <v>44637</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="8"/>
-      <c r="X113" s="28"/>
-      <c r="Y113" s="28"/>
-      <c r="Z113" s="28"/>
-      <c r="AA113" s="28"/>
-      <c r="AB113" s="28"/>
-      <c r="AC113" s="28"/>
-      <c r="AD113" s="28"/>
-      <c r="AE113" s="28"/>
-      <c r="AF113" s="33"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="27"/>
+      <c r="AA113" s="27"/>
+      <c r="AB113" s="27"/>
+      <c r="AC113" s="27"/>
+      <c r="AD113" s="27"/>
+      <c r="AE113" s="27"/>
+      <c r="AF113" s="7"/>
     </row>
     <row r="114" spans="1:32">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <v>44638</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="8"/>
-      <c r="X114" s="28"/>
-      <c r="Y114" s="28"/>
-      <c r="Z114" s="28"/>
-      <c r="AA114" s="28"/>
-      <c r="AB114" s="28"/>
-      <c r="AC114" s="28"/>
-      <c r="AD114" s="28"/>
-      <c r="AE114" s="28"/>
-      <c r="AF114" s="33"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="27"/>
+      <c r="AB114" s="27"/>
+      <c r="AC114" s="27"/>
+      <c r="AD114" s="27"/>
+      <c r="AE114" s="27"/>
+      <c r="AF114" s="7"/>
     </row>
     <row r="115" spans="1:32">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <v>44639</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="8"/>
-      <c r="X115" s="28"/>
-      <c r="Y115" s="28"/>
-      <c r="Z115" s="28"/>
-      <c r="AA115" s="28"/>
-      <c r="AB115" s="28"/>
-      <c r="AC115" s="28"/>
-      <c r="AD115" s="28"/>
-      <c r="AE115" s="28"/>
-      <c r="AF115" s="33"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="27"/>
+      <c r="Y115" s="27"/>
+      <c r="Z115" s="27"/>
+      <c r="AA115" s="27"/>
+      <c r="AB115" s="27"/>
+      <c r="AC115" s="27"/>
+      <c r="AD115" s="27"/>
+      <c r="AE115" s="27"/>
+      <c r="AF115" s="7"/>
     </row>
     <row r="116" spans="1:32">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <v>44640</v>
       </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8"/>
-      <c r="S116" s="8"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
-      <c r="V116" s="8"/>
-      <c r="W116" s="8"/>
-      <c r="X116" s="28"/>
-      <c r="Y116" s="28"/>
-      <c r="Z116" s="28"/>
-      <c r="AA116" s="28"/>
-      <c r="AB116" s="28"/>
-      <c r="AC116" s="28"/>
-      <c r="AD116" s="28"/>
-      <c r="AE116" s="28"/>
-      <c r="AF116" s="33"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="27"/>
+      <c r="Y116" s="27"/>
+      <c r="Z116" s="27"/>
+      <c r="AA116" s="27"/>
+      <c r="AB116" s="27"/>
+      <c r="AC116" s="27"/>
+      <c r="AD116" s="27"/>
+      <c r="AE116" s="27"/>
+      <c r="AF116" s="7"/>
     </row>
     <row r="117" spans="1:32">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <v>44641</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8"/>
-      <c r="W117" s="8"/>
-      <c r="X117" s="28"/>
-      <c r="Y117" s="28"/>
-      <c r="Z117" s="28"/>
-      <c r="AA117" s="28"/>
-      <c r="AB117" s="28"/>
-      <c r="AC117" s="28"/>
-      <c r="AD117" s="28"/>
-      <c r="AE117" s="28"/>
-      <c r="AF117" s="33"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+      <c r="AA117" s="27"/>
+      <c r="AB117" s="27"/>
+      <c r="AC117" s="27"/>
+      <c r="AD117" s="27"/>
+      <c r="AE117" s="27"/>
+      <c r="AF117" s="7"/>
     </row>
     <row r="118" spans="1:32">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>44642</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="8"/>
-      <c r="W118" s="8"/>
-      <c r="X118" s="28"/>
-      <c r="Y118" s="28"/>
-      <c r="Z118" s="28"/>
-      <c r="AA118" s="28"/>
-      <c r="AB118" s="28"/>
-      <c r="AC118" s="28"/>
-      <c r="AD118" s="28"/>
-      <c r="AE118" s="28"/>
-      <c r="AF118" s="33"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="27"/>
+      <c r="AC118" s="27"/>
+      <c r="AD118" s="27"/>
+      <c r="AE118" s="27"/>
+      <c r="AF118" s="7"/>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <v>44643</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="8"/>
-      <c r="W119" s="8"/>
-      <c r="X119" s="28"/>
-      <c r="Y119" s="28"/>
-      <c r="Z119" s="28"/>
-      <c r="AA119" s="28"/>
-      <c r="AB119" s="28"/>
-      <c r="AC119" s="28"/>
-      <c r="AD119" s="28"/>
-      <c r="AE119" s="28"/>
-      <c r="AF119" s="33"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+      <c r="AA119" s="27"/>
+      <c r="AB119" s="27"/>
+      <c r="AC119" s="27"/>
+      <c r="AD119" s="27"/>
+      <c r="AE119" s="27"/>
+      <c r="AF119" s="7"/>
     </row>
     <row r="120" spans="1:32">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <v>44644</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="8"/>
-      <c r="X120" s="28"/>
-      <c r="Y120" s="28"/>
-      <c r="Z120" s="28"/>
-      <c r="AA120" s="28"/>
-      <c r="AB120" s="28"/>
-      <c r="AC120" s="28"/>
-      <c r="AD120" s="28"/>
-      <c r="AE120" s="28"/>
-      <c r="AF120" s="33"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+      <c r="V120" s="7"/>
+      <c r="W120" s="7"/>
+      <c r="X120" s="27"/>
+      <c r="Y120" s="27"/>
+      <c r="Z120" s="27"/>
+      <c r="AA120" s="27"/>
+      <c r="AB120" s="27"/>
+      <c r="AC120" s="27"/>
+      <c r="AD120" s="27"/>
+      <c r="AE120" s="27"/>
+      <c r="AF120" s="7"/>
     </row>
     <row r="121" spans="1:32">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <v>44645</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="8"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
-      <c r="V121" s="8"/>
-      <c r="W121" s="8"/>
-      <c r="X121" s="28"/>
-      <c r="Y121" s="28"/>
-      <c r="Z121" s="28"/>
-      <c r="AA121" s="28"/>
-      <c r="AB121" s="28"/>
-      <c r="AC121" s="28"/>
-      <c r="AD121" s="28"/>
-      <c r="AE121" s="28"/>
-      <c r="AF121" s="33"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="27"/>
+      <c r="Y121" s="27"/>
+      <c r="Z121" s="27"/>
+      <c r="AA121" s="27"/>
+      <c r="AB121" s="27"/>
+      <c r="AC121" s="27"/>
+      <c r="AD121" s="27"/>
+      <c r="AE121" s="27"/>
+      <c r="AF121" s="7"/>
     </row>
     <row r="122" spans="1:32">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <v>44646</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-      <c r="V122" s="8"/>
-      <c r="W122" s="8"/>
-      <c r="X122" s="28"/>
-      <c r="Y122" s="28"/>
-      <c r="Z122" s="28"/>
-      <c r="AA122" s="28"/>
-      <c r="AB122" s="28"/>
-      <c r="AC122" s="28"/>
-      <c r="AD122" s="28"/>
-      <c r="AE122" s="28"/>
-      <c r="AF122" s="33"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+      <c r="W122" s="7"/>
+      <c r="X122" s="27"/>
+      <c r="Y122" s="27"/>
+      <c r="Z122" s="27"/>
+      <c r="AA122" s="27"/>
+      <c r="AB122" s="27"/>
+      <c r="AC122" s="27"/>
+      <c r="AD122" s="27"/>
+      <c r="AE122" s="27"/>
+      <c r="AF122" s="7"/>
     </row>
     <row r="123" spans="1:32">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <v>44647</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-      <c r="S123" s="8"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
-      <c r="V123" s="8"/>
-      <c r="W123" s="8"/>
-      <c r="X123" s="28"/>
-      <c r="Y123" s="28"/>
-      <c r="Z123" s="28"/>
-      <c r="AA123" s="28"/>
-      <c r="AB123" s="28"/>
-      <c r="AC123" s="28"/>
-      <c r="AD123" s="28"/>
-      <c r="AE123" s="28"/>
-      <c r="AF123" s="33"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="27"/>
+      <c r="Y123" s="27"/>
+      <c r="Z123" s="27"/>
+      <c r="AA123" s="27"/>
+      <c r="AB123" s="27"/>
+      <c r="AC123" s="27"/>
+      <c r="AD123" s="27"/>
+      <c r="AE123" s="27"/>
+      <c r="AF123" s="7"/>
     </row>
     <row r="124" spans="1:32">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <v>44648</v>
       </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="8"/>
-      <c r="X124" s="28"/>
-      <c r="Y124" s="28"/>
-      <c r="Z124" s="28"/>
-      <c r="AA124" s="28"/>
-      <c r="AB124" s="28"/>
-      <c r="AC124" s="28"/>
-      <c r="AD124" s="28"/>
-      <c r="AE124" s="28"/>
-      <c r="AF124" s="33"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
+      <c r="S124" s="7"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+      <c r="W124" s="7"/>
+      <c r="X124" s="27"/>
+      <c r="Y124" s="27"/>
+      <c r="Z124" s="27"/>
+      <c r="AA124" s="27"/>
+      <c r="AB124" s="27"/>
+      <c r="AC124" s="27"/>
+      <c r="AD124" s="27"/>
+      <c r="AE124" s="27"/>
+      <c r="AF124" s="7"/>
     </row>
     <row r="125" spans="1:32">
-      <c r="A125" s="6">
+      <c r="A125" s="5">
         <v>44649</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="8"/>
-      <c r="S125" s="8"/>
-      <c r="T125" s="8"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="8"/>
-      <c r="W125" s="8"/>
-      <c r="X125" s="28"/>
-      <c r="Y125" s="28"/>
-      <c r="Z125" s="28"/>
-      <c r="AA125" s="28"/>
-      <c r="AB125" s="28"/>
-      <c r="AC125" s="28"/>
-      <c r="AD125" s="28"/>
-      <c r="AE125" s="28"/>
-      <c r="AF125" s="33"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+      <c r="X125" s="27"/>
+      <c r="Y125" s="27"/>
+      <c r="Z125" s="27"/>
+      <c r="AA125" s="27"/>
+      <c r="AB125" s="27"/>
+      <c r="AC125" s="27"/>
+      <c r="AD125" s="27"/>
+      <c r="AE125" s="27"/>
+      <c r="AF125" s="7"/>
     </row>
     <row r="126" spans="1:23">
       <c r="A126" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -231,10 +231,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -268,17 +268,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,24 +290,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,10 +304,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,60 +329,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +346,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,13 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +602,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,13 +674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,103 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,15 +743,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -762,7 +753,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,17 +823,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -822,144 +837,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,22 +968,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2920,11 +2920,11 @@
   <dimension ref="A1:AF496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4:O5"/>
+      <selection pane="bottomRight" activeCell="AF8" sqref="AF8:AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3405,7 +3405,7 @@
         <f>(B8-B7)/B7</f>
         <v>-0.0298456260720411</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="13">
         <f>(B8-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
         <v>-0.0513250587051324</v>
       </c>
@@ -3461,26 +3461,71 @@
       <c r="A9" s="5">
         <v>44533</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="B9" s="6">
+        <v>27.76</v>
+      </c>
+      <c r="C9" s="6">
+        <v>28.06</v>
+      </c>
+      <c r="D9" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>27.44</v>
+      </c>
+      <c r="F9" s="6">
+        <v>27.3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="H9" s="6">
+        <v>17.42</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <f>(B9-B8)/B8</f>
+        <v>-0.0183875530410184</v>
+      </c>
+      <c r="K9" s="13">
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
+        <v>-0.0687688695068768</v>
+      </c>
+      <c r="L9" s="13">
+        <f>I9/(ROW()-4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="17" t="str">
+        <f>IF(B9&gt;=(D9-(D9-E9)/2),"上部","下部")</f>
+        <v>下部</v>
+      </c>
+      <c r="N9" s="7" t="str">
+        <f>IF(B9&lt;F9,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
       <c r="X9" s="27"/>
@@ -3491,7 +3536,10 @@
       <c r="AC9" s="27"/>
       <c r="AD9" s="27"/>
       <c r="AE9" s="27"/>
-      <c r="AF9" s="7"/>
+      <c r="AF9" s="7">
+        <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G9,AF8)</f>
+        <v>27.72</v>
+      </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="5">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -231,10 +231,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -281,16 +281,84 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,40 +373,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,13 +397,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -368,46 +405,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,7 +530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +560,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,31 +632,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,13 +668,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,97 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,11 +758,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,32 +829,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,145 +842,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2920,11 +2920,11 @@
   <dimension ref="A1:AF496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF8" sqref="AF8:AF9"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/万盛股份.xlsx
@@ -231,10 +231,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -275,6 +275,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -282,7 +289,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,10 +319,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,16 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,63 +405,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,7 +443,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,19 +566,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,37 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,31 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,31 +650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +674,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,15 +755,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -788,6 +785,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -799,17 +805,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,157 +832,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,37 +1057,40 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2920,11 +2929,11 @@
   <dimension ref="A1:AF496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2984,22 +2993,22 @@
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="29" t="s">
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3024,22 +3033,22 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24" t="s">
+      <c r="U2" s="24"/>
+      <c r="V2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="30" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="29"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="30"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="2"/>
@@ -3066,18 +3075,18 @@
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="29"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="30"/>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="2"/>
@@ -3138,36 +3147,36 @@
       <c r="T4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="25" t="s">
+      <c r="U4" s="24"/>
+      <c r="V4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="25" t="s">
+      <c r="W4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="X4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="28" t="s">
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="24" t="s">
+      <c r="AA4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="28" t="s">
+      <c r="AB4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="28" t="s">
+      <c r="AC4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AD4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="29"/>
+      <c r="AF4" s="30"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:32">
       <c r="A5" s="2"/>
@@ -3190,22 +3199,22 @@
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="26" t="s">
+      <c r="U5" s="24"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="26" t="s">
+      <c r="Y5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="29"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="30"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="5">
@@ -3238,7 +3247,7 @@
       <c r="J6" s="12">
         <v>0.0248</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="13">
         <f>(B6-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
         <v>-0.00335457900033539</v>
       </c>
@@ -3266,10 +3275,10 @@
       <c r="R6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="21" t="s">
         <v>41</v>
       </c>
       <c r="U6" s="7" t="s">
@@ -3277,14 +3286,14 @@
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
       <c r="AF6" s="7">
         <v>27.72</v>
       </c>
@@ -3321,7 +3330,7 @@
         <f>(B7-B6)/B6</f>
         <v>-0.0188488724335241</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <f>(B7-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
         <v>-0.022140221402214</v>
       </c>
@@ -3352,7 +3361,7 @@
       <c r="S7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="21" t="s">
         <v>41</v>
       </c>
       <c r="U7" s="7" t="s">
@@ -3360,14 +3369,14 @@
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
       <c r="AF7" s="7">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7,AF6)</f>
         <v>27.72</v>
@@ -3436,7 +3445,7 @@
       <c r="S8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T8" s="21" t="s">
         <v>41</v>
       </c>
       <c r="U8" s="7" t="s">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
       <c r="AF8" s="7">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8,AF7)</f>
         <v>27.72</v>
@@ -3528,14 +3537,14 @@
       </c>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
       <c r="AF9" s="7">
         <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$10,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G9,AF8)</f>
         <v>27.72</v>
@@ -3567,14 +3576,14 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
       <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32">
@@ -3603,14 +3612,14 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
       <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="1:32">
@@ -3639,14 +3648,14 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
       <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32">
@@ -3675,14 +3684,14 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
       <c r="AF13" s="7"/>
     </row>
     <row r="14" spans="1:32">
@@ -3711,14 +3720,14 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
       <c r="AF14" s="7"/>
     </row>
     <row r="15" spans="1:32">
@@ -3747,14 +3756,14 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
       <c r="AF15" s="7"/>
     </row>
     <row r="16" spans="1:32">
@@ -3783,14 +3792,14 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
       <c r="AF16" s="7"/>
     </row>
     <row r="17" spans="1:32">
@@ -3819,14 +3828,14 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
       <c r="AF17" s="7"/>
     </row>
     <row r="18" spans="1:32">
@@ -3855,14 +3864,14 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
       <c r="AF18" s="7"/>
     </row>
     <row r="19" spans="1:32">
@@ -3891,14 +3900,14 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
       <c r="AF19" s="7"/>
     </row>
     <row r="20" spans="1:32">
@@ -3927,14 +3936,14 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="6"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
       <c r="AF20" s="7"/>
     </row>
     <row r="21" spans="1:32">
@@ -3963,14 +3972,14 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
       <c r="AF21" s="7"/>
     </row>
     <row r="22" spans="1:32">
@@ -3999,14 +4008,14 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
       <c r="AF22" s="7"/>
     </row>
     <row r="23" spans="1:32">
@@ -4035,14 +4044,14 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
       <c r="AF23" s="7"/>
     </row>
     <row r="24" spans="1:32">
@@ -4071,14 +4080,14 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
       <c r="AF24" s="7"/>
     </row>
     <row r="25" spans="1:32">
@@ -4107,14 +4116,14 @@
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
       <c r="AF25" s="7"/>
     </row>
     <row r="26" spans="1:32">
@@ -4143,14 +4152,14 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
       <c r="AF26" s="7"/>
     </row>
     <row r="27" spans="1:32">
@@ -4179,14 +4188,14 @@
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
       <c r="AF27" s="7"/>
     </row>
     <row r="28" spans="1:32">
@@ -4215,14 +4224,14 @@
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
       <c r="AF28" s="7"/>
     </row>
     <row r="29" spans="1:32">
@@ -4251,14 +4260,14 @@
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
       <c r="AF29" s="7"/>
     </row>
     <row r="30" spans="1:32">
@@ -4287,14 +4296,14 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
       <c r="AF30" s="7"/>
     </row>
     <row r="31" spans="1:32">
@@ -4323,14 +4332,14 @@
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
       <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="1:32">
@@ -4359,14 +4368,14 @@
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
       <c r="AF32" s="7"/>
     </row>
     <row r="33" spans="1:32">
@@ -4395,14 +4404,14 @@
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
       <c r="AF33" s="7"/>
     </row>
     <row r="34" spans="1:32">
@@ -4431,14 +4440,14 @@
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
       <c r="AF34" s="7"/>
     </row>
     <row r="35" spans="1:32">
@@ -4467,14 +4476,14 @@
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
       <c r="AF35" s="7"/>
     </row>
     <row r="36" spans="1:32">
@@ -4503,14 +4512,14 @@
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
       <c r="AF36" s="7"/>
     </row>
     <row r="37" spans="1:32">
@@ -4539,14 +4548,14 @@
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
       <c r="AF37" s="7"/>
     </row>
     <row r="38" spans="1:32">
@@ -4575,14 +4584,14 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
       <c r="AF38" s="7"/>
     </row>
     <row r="39" spans="1:32">
@@ -4611,14 +4620,14 @@
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
       <c r="AF39" s="7"/>
     </row>
     <row r="40" spans="1:32">
@@ -4647,14 +4656,14 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
       <c r="AF40" s="7"/>
     </row>
     <row r="41" spans="1:32">
@@ -4683,14 +4692,14 @@
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
       <c r="AF41" s="7"/>
     </row>
     <row r="42" spans="1:32">
@@ -4719,14 +4728,14 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
       <c r="AF42" s="7"/>
     </row>
     <row r="43" spans="1:32">
@@ -4755,14 +4764,14 @@
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
       <c r="AF43" s="7"/>
     </row>
     <row r="44" spans="1:32">
@@ -4791,14 +4800,14 @@
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
       <c r="AF44" s="7"/>
     </row>
     <row r="45" spans="1:32">
@@ -4827,14 +4836,14 @@
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
       <c r="AF45" s="7"/>
     </row>
     <row r="46" spans="1:32">
@@ -4863,14 +4872,14 @@
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
       <c r="AF46" s="7"/>
     </row>
     <row r="47" spans="1:32">
@@ -4899,14 +4908,14 @@
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
       <c r="AF47" s="7"/>
     </row>
     <row r="48" spans="1:32">
@@ -4935,14 +4944,14 @@
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="27"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
       <c r="AF48" s="7"/>
     </row>
     <row r="49" spans="1:32">
@@ -4971,14 +4980,14 @@
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
       <c r="W49" s="7"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
       <c r="AF49" s="7"/>
     </row>
     <row r="50" spans="1:32">
@@ -5007,14 +5016,14 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
       <c r="AF50" s="7"/>
     </row>
     <row r="51" spans="1:32">
@@ -5043,14 +5052,14 @@
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
       <c r="AF51" s="7"/>
     </row>
     <row r="52" spans="1:32">
@@ -5079,14 +5088,14 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
       <c r="AF52" s="7"/>
     </row>
     <row r="53" spans="1:32">
@@ -5115,14 +5124,14 @@
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
       <c r="AF53" s="7"/>
     </row>
     <row r="54" spans="1:32">
@@ -5151,14 +5160,14 @@
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
       <c r="AF54" s="7"/>
     </row>
     <row r="55" spans="1:32">
@@ -5187,14 +5196,14 @@
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="27"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
       <c r="AF55" s="7"/>
     </row>
     <row r="56" spans="1:32">
@@ -5223,14 +5232,14 @@
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
       <c r="AF56" s="7"/>
     </row>
     <row r="57" spans="1:32">
@@ -5259,14 +5268,14 @@
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="27"/>
-      <c r="AE57" s="27"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
+      <c r="AD57" s="28"/>
+      <c r="AE57" s="28"/>
       <c r="AF57" s="7"/>
     </row>
     <row r="58" spans="1:32">
@@ -5295,14 +5304,14 @@
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
       <c r="AF58" s="7"/>
     </row>
     <row r="59" spans="1:32">
@@ -5331,14 +5340,14 @@
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27"/>
-      <c r="AE59" s="27"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="28"/>
       <c r="AF59" s="7"/>
     </row>
     <row r="60" spans="1:32">
@@ -5367,14 +5376,14 @@
       <c r="U60" s="7"/>
       <c r="V60" s="7"/>
       <c r="W60" s="7"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="27"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
       <c r="AF60" s="7"/>
     </row>
     <row r="61" spans="1:32">
@@ -5403,14 +5412,14 @@
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="27"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="27"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="27"/>
-      <c r="AE61" s="27"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+      <c r="AC61" s="28"/>
+      <c r="AD61" s="28"/>
+      <c r="AE61" s="28"/>
       <c r="AF61" s="7"/>
     </row>
     <row r="62" spans="1:32">
@@ -5439,14 +5448,14 @@
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27"/>
-      <c r="AE62" s="27"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
+      <c r="AD62" s="28"/>
+      <c r="AE62" s="28"/>
       <c r="AF62" s="7"/>
     </row>
     <row r="63" spans="1:32">
@@ -5475,14 +5484,14 @@
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="27"/>
-      <c r="AE63" s="27"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
+      <c r="AD63" s="28"/>
+      <c r="AE63" s="28"/>
       <c r="AF63" s="7"/>
     </row>
     <row r="64" spans="1:32">
@@ -5511,14 +5520,14 @@
       <c r="U64" s="7"/>
       <c r="V64" s="7"/>
       <c r="W64" s="7"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="27"/>
-      <c r="AE64" s="27"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+      <c r="AC64" s="28"/>
+      <c r="AD64" s="28"/>
+      <c r="AE64" s="28"/>
       <c r="AF64" s="7"/>
     </row>
     <row r="65" spans="1:32">
@@ -5547,14 +5556,14 @@
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="27"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
+      <c r="AD65" s="28"/>
+      <c r="AE65" s="28"/>
       <c r="AF65" s="7"/>
     </row>
     <row r="66" spans="1:32">
@@ -5583,14 +5592,14 @@
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="27"/>
-      <c r="AE66" s="27"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
+      <c r="AD66" s="28"/>
+      <c r="AE66" s="28"/>
       <c r="AF66" s="7"/>
     </row>
     <row r="67" spans="1:32">
@@ -5619,14 +5628,14 @@
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="27"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="27"/>
-      <c r="AE67" s="27"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
+      <c r="AD67" s="28"/>
+      <c r="AE67" s="28"/>
       <c r="AF67" s="7"/>
     </row>
     <row r="68" spans="1:32">
@@ -5655,14 +5664,14 @@
       <c r="U68" s="7"/>
       <c r="V68" s="7"/>
       <c r="W68" s="7"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="27"/>
-      <c r="AC68" s="27"/>
-      <c r="AD68" s="27"/>
-      <c r="AE68" s="27"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="28"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="28"/>
+      <c r="AD68" s="28"/>
+      <c r="AE68" s="28"/>
       <c r="AF68" s="7"/>
     </row>
     <row r="69" spans="1:32">
@@ -5691,14 +5700,14 @@
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="27"/>
-      <c r="AE69" s="27"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="28"/>
+      <c r="AD69" s="28"/>
+      <c r="AE69" s="28"/>
       <c r="AF69" s="7"/>
     </row>
     <row r="70" spans="1:32">
@@ -5727,14 +5736,14 @@
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
       <c r="W70" s="7"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="27"/>
-      <c r="AB70" s="27"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="27"/>
-      <c r="AE70" s="27"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="28"/>
+      <c r="AB70" s="28"/>
+      <c r="AC70" s="28"/>
+      <c r="AD70" s="28"/>
+      <c r="AE70" s="28"/>
       <c r="AF70" s="7"/>
     </row>
     <row r="71" spans="1:32">
@@ -5763,14 +5772,14 @@
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="27"/>
-      <c r="AB71" s="27"/>
-      <c r="AC71" s="27"/>
-      <c r="AD71" s="27"/>
-      <c r="AE71" s="27"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="28"/>
+      <c r="AA71" s="28"/>
+      <c r="AB71" s="28"/>
+      <c r="AC71" s="28"/>
+      <c r="AD71" s="28"/>
+      <c r="AE71" s="28"/>
       <c r="AF71" s="7"/>
     </row>
     <row r="72" spans="1:32">
@@ -5799,14 +5808,14 @@
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="27"/>
-      <c r="AD72" s="27"/>
-      <c r="AE72" s="27"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
+      <c r="AD72" s="28"/>
+      <c r="AE72" s="28"/>
       <c r="AF72" s="7"/>
     </row>
     <row r="73" spans="1:32">
@@ -5835,14 +5844,14 @@
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="27"/>
-      <c r="AA73" s="27"/>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="27"/>
-      <c r="AD73" s="27"/>
-      <c r="AE73" s="27"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
+      <c r="AD73" s="28"/>
+      <c r="AE73" s="28"/>
       <c r="AF73" s="7"/>
     </row>
     <row r="74" spans="1:32">
@@ -5871,14 +5880,14 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="27"/>
-      <c r="Z74" s="27"/>
-      <c r="AA74" s="27"/>
-      <c r="AB74" s="27"/>
-      <c r="AC74" s="27"/>
-      <c r="AD74" s="27"/>
-      <c r="AE74" s="27"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="28"/>
+      <c r="AC74" s="28"/>
+      <c r="AD74" s="28"/>
+      <c r="AE74" s="28"/>
       <c r="AF74" s="7"/>
     </row>
     <row r="75" spans="1:32">
@@ -5907,14 +5916,14 @@
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="27"/>
-      <c r="Z75" s="27"/>
-      <c r="AA75" s="27"/>
-      <c r="AB75" s="27"/>
-      <c r="AC75" s="27"/>
-      <c r="AD75" s="27"/>
-      <c r="AE75" s="27"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
+      <c r="AD75" s="28"/>
+      <c r="AE75" s="28"/>
       <c r="AF75" s="7"/>
     </row>
     <row r="76" spans="1:32">
@@ -5943,14 +5952,14 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="27"/>
-      <c r="Z76" s="27"/>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="27"/>
-      <c r="AC76" s="27"/>
-      <c r="AD76" s="27"/>
-      <c r="AE76" s="27"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="28"/>
+      <c r="AD76" s="28"/>
+      <c r="AE76" s="28"/>
       <c r="AF76" s="7"/>
     </row>
     <row r="77" spans="1:32">
@@ -5979,14 +5988,14 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="27"/>
-      <c r="AC77" s="27"/>
-      <c r="AD77" s="27"/>
-      <c r="AE77" s="27"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="28"/>
+      <c r="AC77" s="28"/>
+      <c r="AD77" s="28"/>
+      <c r="AE77" s="28"/>
       <c r="AF77" s="7"/>
     </row>
     <row r="78" spans="1:32">
@@ -6015,14 +6024,14 @@
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="27"/>
-      <c r="AC78" s="27"/>
-      <c r="AD78" s="27"/>
-      <c r="AE78" s="27"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="28"/>
+      <c r="AC78" s="28"/>
+      <c r="AD78" s="28"/>
+      <c r="AE78" s="28"/>
       <c r="AF78" s="7"/>
     </row>
     <row r="79" spans="1:32">
@@ -6051,14 +6060,14 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="27"/>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="27"/>
-      <c r="AD79" s="27"/>
-      <c r="AE79" s="27"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="28"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="28"/>
+      <c r="AC79" s="28"/>
+      <c r="AD79" s="28"/>
+      <c r="AE79" s="28"/>
       <c r="AF79" s="7"/>
     </row>
     <row r="80" spans="1:32">
@@ -6087,14 +6096,14 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="27"/>
-      <c r="Z80" s="27"/>
-      <c r="AA80" s="27"/>
-      <c r="AB80" s="27"/>
-      <c r="AC80" s="27"/>
-      <c r="AD80" s="27"/>
-      <c r="AE80" s="27"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="28"/>
+      <c r="AD80" s="28"/>
+      <c r="AE80" s="28"/>
       <c r="AF80" s="7"/>
     </row>
     <row r="81" spans="1:32">
@@ -6123,14 +6132,14 @@
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="27"/>
-      <c r="AC81" s="27"/>
-      <c r="AD81" s="27"/>
-      <c r="AE81" s="27"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="28"/>
+      <c r="AD81" s="28"/>
+      <c r="AE81" s="28"/>
       <c r="AF81" s="7"/>
     </row>
     <row r="82" spans="1:32">
@@ -6159,14 +6168,14 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="27"/>
-      <c r="AD82" s="27"/>
-      <c r="AE82" s="27"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="28"/>
+      <c r="AC82" s="28"/>
+      <c r="AD82" s="28"/>
+      <c r="AE82" s="28"/>
       <c r="AF82" s="7"/>
     </row>
     <row r="83" spans="1:32">
@@ -6195,14 +6204,14 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="27"/>
-      <c r="AD83" s="27"/>
-      <c r="AE83" s="27"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="28"/>
+      <c r="AA83" s="28"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
+      <c r="AD83" s="28"/>
+      <c r="AE83" s="28"/>
       <c r="AF83" s="7"/>
     </row>
     <row r="84" spans="1:32">
@@ -6231,14 +6240,14 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="28"/>
+      <c r="AE84" s="28"/>
       <c r="AF84" s="7"/>
     </row>
     <row r="85" spans="1:32">
@@ -6267,14 +6276,14 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="27"/>
-      <c r="Z85" s="27"/>
-      <c r="AA85" s="27"/>
-      <c r="AB85" s="27"/>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="27"/>
-      <c r="AE85" s="27"/>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="28"/>
+      <c r="Z85" s="28"/>
+      <c r="AA85" s="28"/>
+      <c r="AB85" s="28"/>
+      <c r="AC85" s="28"/>
+      <c r="AD85" s="28"/>
+      <c r="AE85" s="28"/>
       <c r="AF85" s="7"/>
     </row>
     <row r="86" spans="1:32">
@@ -6303,14 +6312,14 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="27"/>
-      <c r="AE86" s="27"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="28"/>
+      <c r="AC86" s="28"/>
+      <c r="AD86" s="28"/>
+      <c r="AE86" s="28"/>
       <c r="AF86" s="7"/>
     </row>
     <row r="87" spans="1:32">
@@ -6339,14 +6348,14 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="27"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="28"/>
+      <c r="AB87" s="28"/>
+      <c r="AC87" s="28"/>
+      <c r="AD87" s="28"/>
+      <c r="AE87" s="28"/>
       <c r="AF87" s="7"/>
     </row>
     <row r="88" spans="1:32">
@@ -6375,14 +6384,14 @@
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
       <c r="W88" s="7"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="28"/>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="28"/>
       <c r="AF88" s="7"/>
     </row>
     <row r="89" spans="1:32">
@@ -6411,14 +6420,14 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
       <c r="W89" s="7"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="28"/>
+      <c r="AA89" s="28"/>
+      <c r="AB89" s="28"/>
+      <c r="AC89" s="28"/>
+      <c r="AD89" s="28"/>
+      <c r="AE89" s="28"/>
       <c r="AF89" s="7"/>
     </row>
     <row r="90" spans="1:32">
@@ -6447,14 +6456,14 @@
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
       <c r="W90" s="7"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="27"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="27"/>
-      <c r="AE90" s="27"/>
+      <c r="X90" s="28"/>
+      <c r="Y90" s="28"/>
+      <c r="Z90" s="28"/>
+      <c r="AA90" s="28"/>
+      <c r="AB90" s="28"/>
+      <c r="AC90" s="28"/>
+      <c r="AD90" s="28"/>
+      <c r="AE90" s="28"/>
       <c r="AF90" s="7"/>
     </row>
     <row r="91" spans="1:32">
@@ -6483,14 +6492,14 @@
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="27"/>
-      <c r="AE91" s="27"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="28"/>
+      <c r="AA91" s="28"/>
+      <c r="AB91" s="28"/>
+      <c r="AC91" s="28"/>
+      <c r="AD91" s="28"/>
+      <c r="AE91" s="28"/>
       <c r="AF91" s="7"/>
     </row>
     <row r="92" spans="1:32">
@@ -6519,14 +6528,14 @@
       <c r="U92" s="7"/>
       <c r="V92" s="7"/>
       <c r="W92" s="7"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="27"/>
-      <c r="AD92" s="27"/>
-      <c r="AE92" s="27"/>
+      <c r="X92" s="28"/>
+      <c r="Y92" s="28"/>
+      <c r="Z92" s="28"/>
+      <c r="AA92" s="28"/>
+      <c r="AB92" s="28"/>
+      <c r="AC92" s="28"/>
+      <c r="AD92" s="28"/>
+      <c r="AE92" s="28"/>
       <c r="AF92" s="7"/>
     </row>
     <row r="93" spans="1:32">
@@ -6555,14 +6564,14 @@
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
       <c r="W93" s="7"/>
-      <c r="X93" s="27"/>
-      <c r="Y93" s="27"/>
-      <c r="Z93" s="27"/>
-      <c r="AA93" s="27"/>
-      <c r="AB93" s="27"/>
-      <c r="AC93" s="27"/>
-      <c r="AD93" s="27"/>
-      <c r="AE93" s="27"/>
+      <c r="X93" s="28"/>
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="28"/>
+      <c r="AA93" s="28"/>
+      <c r="AB93" s="28"/>
+      <c r="AC93" s="28"/>
+      <c r="AD93" s="28"/>
+      <c r="AE93" s="28"/>
       <c r="AF93" s="7"/>
     </row>
     <row r="94" spans="1:32">
@@ -6591,14 +6600,14 @@
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
       <c r="W94" s="7"/>
-      <c r="X94" s="27"/>
-      <c r="Y94" s="27"/>
-      <c r="Z94" s="27"/>
-      <c r="AA94" s="27"/>
-      <c r="AB94" s="27"/>
-      <c r="AC94" s="27"/>
-      <c r="AD94" s="27"/>
-      <c r="AE94" s="27"/>
+      <c r="X94" s="28"/>
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="28"/>
+      <c r="AA94" s="28"/>
+      <c r="AB94" s="28"/>
+      <c r="AC94" s="28"/>
+      <c r="AD94" s="28"/>
+      <c r="AE94" s="28"/>
       <c r="AF94" s="7"/>
     </row>
     <row r="95" spans="1:32">
@@ -6627,14 +6636,14 @@
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
       <c r="W95" s="7"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="27"/>
-      <c r="AA95" s="27"/>
-      <c r="AB95" s="27"/>
-      <c r="AC95" s="27"/>
-      <c r="AD95" s="27"/>
-      <c r="AE95" s="27"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="28"/>
+      <c r="AA95" s="28"/>
+      <c r="AB95" s="28"/>
+      <c r="AC95" s="28"/>
+      <c r="AD95" s="28"/>
+      <c r="AE95" s="28"/>
       <c r="AF95" s="7"/>
     </row>
     <row r="96" spans="1:32">
@@ -6663,14 +6672,14 @@
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
       <c r="W96" s="7"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="27"/>
-      <c r="AE96" s="27"/>
+      <c r="X96" s="28"/>
+      <c r="Y96" s="28"/>
+      <c r="Z96" s="28"/>
+      <c r="AA96" s="28"/>
+      <c r="AB96" s="28"/>
+      <c r="AC96" s="28"/>
+      <c r="AD96" s="28"/>
+      <c r="AE96" s="28"/>
       <c r="AF96" s="7"/>
     </row>
     <row r="97" spans="1:32">
@@ -6699,14 +6708,14 @@
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
       <c r="W97" s="7"/>
-      <c r="X97" s="27"/>
-      <c r="Y97" s="27"/>
-      <c r="Z97" s="27"/>
-      <c r="AA97" s="27"/>
-      <c r="AB97" s="27"/>
-      <c r="AC97" s="27"/>
-      <c r="AD97" s="27"/>
-      <c r="AE97" s="27"/>
+      <c r="X97" s="28"/>
+      <c r="Y97" s="28"/>
+      <c r="Z97" s="28"/>
+      <c r="AA97" s="28"/>
+      <c r="AB97" s="28"/>
+      <c r="AC97" s="28"/>
+      <c r="AD97" s="28"/>
+      <c r="AE97" s="28"/>
       <c r="AF97" s="7"/>
     </row>
     <row r="98" spans="1:32">
@@ -6735,14 +6744,14 @@
       <c r="U98" s="7"/>
       <c r="V98" s="7"/>
       <c r="W98" s="7"/>
-      <c r="X98" s="27"/>
-      <c r="Y98" s="27"/>
-      <c r="Z98" s="27"/>
-      <c r="AA98" s="27"/>
-      <c r="AB98" s="27"/>
-      <c r="AC98" s="27"/>
-      <c r="AD98" s="27"/>
-      <c r="AE98" s="27"/>
+      <c r="X98" s="28"/>
+      <c r="Y98" s="28"/>
+      <c r="Z98" s="28"/>
+      <c r="AA98" s="28"/>
+      <c r="AB98" s="28"/>
+      <c r="AC98" s="28"/>
+      <c r="AD98" s="28"/>
+      <c r="AE98" s="28"/>
       <c r="AF98" s="7"/>
     </row>
     <row r="99" spans="1:32">
@@ -6771,14 +6780,14 @@
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
       <c r="W99" s="7"/>
-      <c r="X99" s="27"/>
-      <c r="Y99" s="27"/>
-      <c r="Z99" s="27"/>
-      <c r="AA99" s="27"/>
-      <c r="AB99" s="27"/>
-      <c r="AC99" s="27"/>
-      <c r="AD99" s="27"/>
-      <c r="AE99" s="27"/>
+      <c r="X99" s="28"/>
+      <c r="Y99" s="28"/>
+      <c r="Z99" s="28"/>
+      <c r="AA99" s="28"/>
+      <c r="AB99" s="28"/>
+      <c r="AC99" s="28"/>
+      <c r="AD99" s="28"/>
+      <c r="AE99" s="28"/>
       <c r="AF99" s="7"/>
     </row>
     <row r="100" spans="1:32">
@@ -6807,14 +6816,14 @@
       <c r="U100" s="7"/>
       <c r="V100" s="7"/>
       <c r="W100" s="7"/>
-      <c r="X100" s="27"/>
-      <c r="Y100" s="27"/>
-      <c r="Z100" s="27"/>
-      <c r="AA100" s="27"/>
-      <c r="AB100" s="27"/>
-      <c r="AC100" s="27"/>
-      <c r="AD100" s="27"/>
-      <c r="AE100" s="27"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+      <c r="Z100" s="28"/>
+      <c r="AA100" s="28"/>
+      <c r="AB100" s="28"/>
+      <c r="AC100" s="28"/>
+      <c r="AD100" s="28"/>
+      <c r="AE100" s="28"/>
       <c r="AF100" s="7"/>
     </row>
     <row r="101" spans="1:32">
@@ -6843,14 +6852,14 @@
       <c r="U101" s="7"/>
       <c r="V101" s="7"/>
       <c r="W101" s="7"/>
-      <c r="X101" s="27"/>
-      <c r="Y101" s="27"/>
-      <c r="Z101" s="27"/>
-      <c r="AA101" s="27"/>
-      <c r="AB101" s="27"/>
-      <c r="AC101" s="27"/>
-      <c r="AD101" s="27"/>
-      <c r="AE101" s="27"/>
+      <c r="X101" s="28"/>
+      <c r="Y101" s="28"/>
+      <c r="Z101" s="28"/>
+      <c r="AA101" s="28"/>
+      <c r="AB101" s="28"/>
+      <c r="AC101" s="28"/>
+      <c r="AD101" s="28"/>
+      <c r="AE101" s="28"/>
       <c r="AF101" s="7"/>
     </row>
     <row r="102" spans="1:32">
@@ -6879,14 +6888,14 @@
       <c r="U102" s="7"/>
       <c r="V102" s="7"/>
       <c r="W102" s="7"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="27"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="27"/>
-      <c r="AB102" s="27"/>
-      <c r="AC102" s="27"/>
-      <c r="AD102" s="27"/>
-      <c r="AE102" s="27"/>
+      <c r="X102" s="28"/>
+      <c r="Y102" s="28"/>
+      <c r="Z102" s="28"/>
+      <c r="AA102" s="28"/>
+      <c r="AB102" s="28"/>
+      <c r="AC102" s="28"/>
+      <c r="AD102" s="28"/>
+      <c r="AE102" s="28"/>
       <c r="AF102" s="7"/>
     </row>
     <row r="103" spans="1:32">
@@ -6915,14 +6924,14 @@
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
       <c r="W103" s="7"/>
-      <c r="X103" s="27"/>
-      <c r="Y103" s="27"/>
-      <c r="Z103" s="27"/>
-      <c r="AA103" s="27"/>
-      <c r="AB103" s="27"/>
-      <c r="AC103" s="27"/>
-      <c r="AD103" s="27"/>
-      <c r="AE103" s="27"/>
+      <c r="X103" s="28"/>
+      <c r="Y103" s="28"/>
+      <c r="Z103" s="28"/>
+      <c r="AA103" s="28"/>
+      <c r="AB103" s="28"/>
+      <c r="AC103" s="28"/>
+      <c r="AD103" s="28"/>
+      <c r="AE103" s="28"/>
       <c r="AF103" s="7"/>
     </row>
     <row r="104" spans="1:32">
@@ -6951,14 +6960,14 @@
       <c r="U104" s="7"/>
       <c r="V104" s="7"/>
       <c r="W104" s="7"/>
-      <c r="X104" s="27"/>
-      <c r="Y104" s="27"/>
-      <c r="Z104" s="27"/>
-      <c r="AA104" s="27"/>
-      <c r="AB104" s="27"/>
-      <c r="AC104" s="27"/>
-      <c r="AD104" s="27"/>
-      <c r="AE104" s="27"/>
+      <c r="X104" s="28"/>
+      <c r="Y104" s="28"/>
+      <c r="Z104" s="28"/>
+      <c r="AA104" s="28"/>
+      <c r="AB104" s="28"/>
+      <c r="AC104" s="28"/>
+      <c r="AD104" s="28"/>
+      <c r="AE104" s="28"/>
       <c r="AF104" s="7"/>
     </row>
     <row r="105" spans="1:32">
@@ -6987,14 +6996,14 @@
       <c r="U105" s="7"/>
       <c r="V105" s="7"/>
       <c r="W105" s="7"/>
-      <c r="X105" s="27"/>
-      <c r="Y105" s="27"/>
-      <c r="Z105" s="27"/>
-      <c r="AA105" s="27"/>
-      <c r="AB105" s="27"/>
-      <c r="AC105" s="27"/>
-      <c r="AD105" s="27"/>
-      <c r="AE105" s="27"/>
+      <c r="X105" s="28"/>
+      <c r="Y105" s="28"/>
+      <c r="Z105" s="28"/>
+      <c r="AA105" s="28"/>
+      <c r="AB105" s="28"/>
+      <c r="AC105" s="28"/>
+      <c r="AD105" s="28"/>
+      <c r="AE105" s="28"/>
       <c r="AF105" s="7"/>
     </row>
     <row r="106" spans="1:32">
@@ -7023,14 +7032,14 @@
       <c r="U106" s="7"/>
       <c r="V106" s="7"/>
       <c r="W106" s="7"/>
-      <c r="X106" s="27"/>
-      <c r="Y106" s="27"/>
-      <c r="Z106" s="27"/>
-      <c r="AA106" s="27"/>
-      <c r="AB106" s="27"/>
-      <c r="AC106" s="27"/>
-      <c r="AD106" s="27"/>
-      <c r="AE106" s="27"/>
+      <c r="X106" s="28"/>
+      <c r="Y106" s="28"/>
+      <c r="Z106" s="28"/>
+      <c r="AA106" s="28"/>
+      <c r="AB106" s="28"/>
+      <c r="AC106" s="28"/>
+      <c r="AD106" s="28"/>
+      <c r="AE106" s="28"/>
       <c r="AF106" s="7"/>
     </row>
     <row r="107" spans="1:32">
@@ -7059,14 +7068,14 @@
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
       <c r="W107" s="7"/>
-      <c r="X107" s="27"/>
-      <c r="Y107" s="27"/>
-      <c r="Z107" s="27"/>
-      <c r="AA107" s="27"/>
-      <c r="AB107" s="27"/>
-      <c r="AC107" s="27"/>
-      <c r="AD107" s="27"/>
-      <c r="AE107" s="27"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="28"/>
+      <c r="AB107" s="28"/>
+      <c r="AC107" s="28"/>
+      <c r="AD107" s="28"/>
+      <c r="AE107" s="28"/>
       <c r="AF107" s="7"/>
     </row>
     <row r="108" spans="1:32">
@@ -7095,14 +7104,14 @@
       <c r="U108" s="7"/>
       <c r="V108" s="7"/>
       <c r="W108" s="7"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27"/>
-      <c r="AA108" s="27"/>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="27"/>
-      <c r="AD108" s="27"/>
-      <c r="AE108" s="27"/>
+      <c r="X108" s="28"/>
+      <c r="Y108" s="28"/>
+      <c r="Z108" s="28"/>
+      <c r="AA108" s="28"/>
+      <c r="AB108" s="28"/>
+      <c r="AC108" s="28"/>
+      <c r="AD108" s="28"/>
+      <c r="AE108" s="28"/>
       <c r="AF108" s="7"/>
     </row>
     <row r="109" spans="1:32">
@@ -7131,14 +7140,14 @@
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
       <c r="W109" s="7"/>
-      <c r="X109" s="27"/>
-      <c r="Y109" s="27"/>
-      <c r="Z109" s="27"/>
-      <c r="AA109" s="27"/>
-      <c r="AB109" s="27"/>
-      <c r="AC109" s="27"/>
-      <c r="AD109" s="27"/>
-      <c r="AE109" s="27"/>
+      <c r="X109" s="28"/>
+      <c r="Y109" s="28"/>
+      <c r="Z109" s="28"/>
+      <c r="AA109" s="28"/>
+      <c r="AB109" s="28"/>
+      <c r="AC109" s="28"/>
+      <c r="AD109" s="28"/>
+      <c r="AE109" s="28"/>
       <c r="AF109" s="7"/>
     </row>
     <row r="110" spans="1:32">
@@ -7167,14 +7176,14 @@
       <c r="U110" s="7"/>
       <c r="V110" s="7"/>
       <c r="W110" s="7"/>
-      <c r="X110" s="27"/>
-      <c r="Y110" s="27"/>
-      <c r="Z110" s="27"/>
-      <c r="AA110" s="27"/>
-      <c r="AB110" s="27"/>
-      <c r="AC110" s="27"/>
-      <c r="AD110" s="27"/>
-      <c r="AE110" s="27"/>
+      <c r="X110" s="28"/>
+      <c r="Y110" s="28"/>
+      <c r="Z110" s="28"/>
+      <c r="AA110" s="28"/>
+      <c r="AB110" s="28"/>
+      <c r="AC110" s="28"/>
+      <c r="AD110" s="28"/>
+      <c r="AE110" s="28"/>
       <c r="AF110" s="7"/>
     </row>
     <row r="111" spans="1:32">
@@ -7203,14 +7212,14 @@
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
       <c r="W111" s="7"/>
-      <c r="X111" s="27"/>
-      <c r="Y111" s="27"/>
-      <c r="Z111" s="27"/>
-      <c r="AA111" s="27"/>
-      <c r="AB111" s="27"/>
-      <c r="AC111" s="27"/>
-      <c r="AD111" s="27"/>
-      <c r="AE111" s="27"/>
+      <c r="X111" s="28"/>
+      <c r="Y111" s="28"/>
+      <c r="Z111" s="28"/>
+      <c r="AA111" s="28"/>
+      <c r="AB111" s="28"/>
+      <c r="AC111" s="28"/>
+      <c r="AD111" s="28"/>
+      <c r="AE111" s="28"/>
       <c r="AF111" s="7"/>
     </row>
     <row r="112" spans="1:32">
@@ -7239,14 +7248,14 @@
       <c r="U112" s="7"/>
       <c r="V112" s="7"/>
       <c r="W112" s="7"/>
-      <c r="X112" s="27"/>
-      <c r="Y112" s="27"/>
-      <c r="Z112" s="27"/>
-      <c r="AA112" s="27"/>
-      <c r="AB112" s="27"/>
-      <c r="AC112" s="27"/>
-      <c r="AD112" s="27"/>
-      <c r="AE112" s="27"/>
+      <c r="X112" s="28"/>
+      <c r="Y112" s="28"/>
+      <c r="Z112" s="28"/>
+      <c r="AA112" s="28"/>
+      <c r="AB112" s="28"/>
+      <c r="AC112" s="28"/>
+      <c r="AD112" s="28"/>
+      <c r="AE112" s="28"/>
       <c r="AF112" s="7"/>
     </row>
     <row r="113" spans="1:32">
@@ -7275,14 +7284,14 @@
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
       <c r="W113" s="7"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="27"/>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="27"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="27"/>
-      <c r="AE113" s="27"/>
+      <c r="X113" s="28"/>
+      <c r="Y113" s="28"/>
+      <c r="Z113" s="28"/>
+      <c r="AA113" s="28"/>
+      <c r="AB113" s="28"/>
+      <c r="AC113" s="28"/>
+      <c r="AD113" s="28"/>
+      <c r="AE113" s="28"/>
       <c r="AF113" s="7"/>
     </row>
     <row r="114" spans="1:32">
@@ -7311,14 +7320,14 @@
       <c r="U114" s="7"/>
       <c r="V114" s="7"/>
       <c r="W114" s="7"/>
-      <c r="X114" s="27"/>
-      <c r="Y114" s="27"/>
-      <c r="Z114" s="27"/>
-      <c r="AA114" s="27"/>
-      <c r="AB114" s="27"/>
-      <c r="AC114" s="27"/>
-      <c r="AD114" s="27"/>
-      <c r="AE114" s="27"/>
+      <c r="X114" s="28"/>
+      <c r="Y114" s="28"/>
+      <c r="Z114" s="28"/>
+      <c r="AA114" s="28"/>
+      <c r="AB114" s="28"/>
+      <c r="AC114" s="28"/>
+      <c r="AD114" s="28"/>
+      <c r="AE114" s="28"/>
       <c r="AF114" s="7"/>
     </row>
     <row r="115" spans="1:32">
@@ -7347,14 +7356,14 @@
       <c r="U115" s="7"/>
       <c r="V115" s="7"/>
       <c r="W115" s="7"/>
-      <c r="X115" s="27"/>
-      <c r="Y115" s="27"/>
-      <c r="Z115" s="27"/>
-      <c r="AA115" s="27"/>
-      <c r="AB115" s="27"/>
-      <c r="AC115" s="27"/>
-      <c r="AD115" s="27"/>
-      <c r="AE115" s="27"/>
+      <c r="X115" s="28"/>
+      <c r="Y115" s="28"/>
+      <c r="Z115" s="28"/>
+      <c r="AA115" s="28"/>
+      <c r="AB115" s="28"/>
+      <c r="AC115" s="28"/>
+      <c r="AD115" s="28"/>
+      <c r="AE115" s="28"/>
       <c r="AF115" s="7"/>
     </row>
     <row r="116" spans="1:32">
@@ -7383,14 +7392,14 @@
       <c r="U116" s="7"/>
       <c r="V116" s="7"/>
       <c r="W116" s="7"/>
-      <c r="X116" s="27"/>
-      <c r="Y116" s="27"/>
-      <c r="Z116" s="27"/>
-      <c r="AA116" s="27"/>
-      <c r="AB116" s="27"/>
-      <c r="AC116" s="27"/>
-      <c r="AD116" s="27"/>
-      <c r="AE116" s="27"/>
+      <c r="X116" s="28"/>
+      <c r="Y116" s="28"/>
+      <c r="Z116" s="28"/>
+      <c r="AA116" s="28"/>
+      <c r="AB116" s="28"/>
+      <c r="AC116" s="28"/>
+      <c r="AD116" s="28"/>
+      <c r="AE116" s="28"/>
       <c r="AF116" s="7"/>
     </row>
     <row r="117" spans="1:32">
@@ -7419,14 +7428,14 @@
       <c r="U117" s="7"/>
       <c r="V117" s="7"/>
       <c r="W117" s="7"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-      <c r="AA117" s="27"/>
-      <c r="AB117" s="27"/>
-      <c r="AC117" s="27"/>
-      <c r="AD117" s="27"/>
-      <c r="AE117" s="27"/>
+      <c r="X117" s="28"/>
+      <c r="Y117" s="28"/>
+      <c r="Z117" s="28"/>
+      <c r="AA117" s="28"/>
+      <c r="AB117" s="28"/>
+      <c r="AC117" s="28"/>
+      <c r="AD117" s="28"/>
+      <c r="AE117" s="28"/>
       <c r="AF117" s="7"/>
     </row>
     <row r="118" spans="1:32">
@@ -7455,14 +7464,14 @@
       <c r="U118" s="7"/>
       <c r="V118" s="7"/>
       <c r="W118" s="7"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="27"/>
-      <c r="AA118" s="27"/>
-      <c r="AB118" s="27"/>
-      <c r="AC118" s="27"/>
-      <c r="AD118" s="27"/>
-      <c r="AE118" s="27"/>
+      <c r="X118" s="28"/>
+      <c r="Y118" s="28"/>
+      <c r="Z118" s="28"/>
+      <c r="AA118" s="28"/>
+      <c r="AB118" s="28"/>
+      <c r="AC118" s="28"/>
+      <c r="AD118" s="28"/>
+      <c r="AE118" s="28"/>
       <c r="AF118" s="7"/>
     </row>
     <row r="119" spans="1:32">
@@ -7491,14 +7500,14 @@
       <c r="U119" s="7"/>
       <c r="V119" s="7"/>
       <c r="W119" s="7"/>
-      <c r="X119" s="27"/>
-      <c r="Y119" s="27"/>
-      <c r="Z119" s="27"/>
-      <c r="AA119" s="27"/>
-      <c r="AB119" s="27"/>
-      <c r="AC119" s="27"/>
-      <c r="AD119" s="27"/>
-      <c r="AE119" s="27"/>
+      <c r="X119" s="28"/>
+      <c r="Y119" s="28"/>
+      <c r="Z119" s="28"/>
+      <c r="AA119" s="28"/>
+      <c r="AB119" s="28"/>
+      <c r="AC119" s="28"/>
+      <c r="AD119" s="28"/>
+      <c r="AE119" s="28"/>
       <c r="AF119" s="7"/>
     </row>
     <row r="120" spans="1:32">
@@ -7527,14 +7536,14 @@
       <c r="U120" s="7"/>
       <c r="V120" s="7"/>
       <c r="W120" s="7"/>
-      <c r="X120" s="27"/>
-      <c r="Y120" s="27"/>
-      <c r="Z120" s="27"/>
-      <c r="AA120" s="27"/>
-      <c r="AB120" s="27"/>
-      <c r="AC120" s="27"/>
-      <c r="AD120" s="27"/>
-      <c r="AE120" s="27"/>
+      <c r="X120" s="28"/>
+      <c r="Y120" s="28"/>
+      <c r="Z120" s="28"/>
+      <c r="AA120" s="28"/>
+      <c r="AB120" s="28"/>
+      <c r="AC120" s="28"/>
+      <c r="AD120" s="28"/>
+      <c r="AE120" s="28"/>
       <c r="AF120" s="7"/>
     </row>
     <row r="121" spans="1:32">
@@ -7563,14 +7572,14 @@
       <c r="U121" s="7"/>
       <c r="V121" s="7"/>
       <c r="W121" s="7"/>
-      <c r="X121" s="27"/>
-      <c r="Y121" s="27"/>
-      <c r="Z121" s="27"/>
-      <c r="AA121" s="27"/>
-      <c r="AB121" s="27"/>
-      <c r="AC121" s="27"/>
-      <c r="AD121" s="27"/>
-      <c r="AE121" s="27"/>
+      <c r="X121" s="28"/>
+      <c r="Y121" s="28"/>
+      <c r="Z121" s="28"/>
+      <c r="AA121" s="28"/>
+      <c r="AB121" s="28"/>
+      <c r="AC121" s="28"/>
+      <c r="AD121" s="28"/>
+      <c r="AE121" s="28"/>
       <c r="AF121" s="7"/>
     </row>
     <row r="122" spans="1:32">
@@ -7599,14 +7608,14 @@
       <c r="U122" s="7"/>
       <c r="V122" s="7"/>
       <c r="W122" s="7"/>
-      <c r="X122" s="27"/>
-      <c r="Y122" s="27"/>
-      <c r="Z122" s="27"/>
-      <c r="AA122" s="27"/>
-      <c r="AB122" s="27"/>
-      <c r="AC122" s="27"/>
-      <c r="AD122" s="27"/>
-      <c r="AE122" s="27"/>
+      <c r="X122" s="28"/>
+      <c r="Y122" s="28"/>
+      <c r="Z122" s="28"/>
+      <c r="AA122" s="28"/>
+      <c r="AB122" s="28"/>
+      <c r="AC122" s="28"/>
+      <c r="AD122" s="28"/>
+      <c r="AE122" s="28"/>
       <c r="AF122" s="7"/>
     </row>
     <row r="123" spans="1:32">
@@ -7635,14 +7644,14 @@
       <c r="U123" s="7"/>
       <c r="V123" s="7"/>
       <c r="W123" s="7"/>
-      <c r="X123" s="27"/>
-      <c r="Y123" s="27"/>
-      <c r="Z123" s="27"/>
-      <c r="AA123" s="27"/>
-      <c r="AB123" s="27"/>
-      <c r="AC123" s="27"/>
-      <c r="AD123" s="27"/>
-      <c r="AE123" s="27"/>
+      <c r="X123" s="28"/>
+      <c r="Y123" s="28"/>
+      <c r="Z123" s="28"/>
+      <c r="AA123" s="28"/>
+      <c r="AB123" s="28"/>
+      <c r="AC123" s="28"/>
+      <c r="AD123" s="28"/>
+      <c r="AE123" s="28"/>
       <c r="AF123" s="7"/>
     </row>
     <row r="124" spans="1:32">
@@ -7671,14 +7680,14 @@
       <c r="U124" s="7"/>
       <c r="V124" s="7"/>
       <c r="W124" s="7"/>
-      <c r="X124" s="27"/>
-      <c r="Y124" s="27"/>
-      <c r="Z124" s="27"/>
-      <c r="AA124" s="27"/>
-      <c r="AB124" s="27"/>
-      <c r="AC124" s="27"/>
-      <c r="AD124" s="27"/>
-      <c r="AE124" s="27"/>
+      <c r="X124" s="28"/>
+      <c r="Y124" s="28"/>
+      <c r="Z124" s="28"/>
+      <c r="AA124" s="28"/>
+      <c r="AB124" s="28"/>
+      <c r="AC124" s="28"/>
+      <c r="AD124" s="28"/>
+      <c r="AE124" s="28"/>
       <c r="AF124" s="7"/>
     </row>
     <row r="125" spans="1:32">
@@ -7707,14 +7716,14 @@
       <c r="U125" s="7"/>
       <c r="V125" s="7"/>
       <c r="W125" s="7"/>
-      <c r="X125" s="27"/>
-      <c r="Y125" s="27"/>
-      <c r="Z125" s="27"/>
-      <c r="AA125" s="27"/>
-      <c r="AB125" s="27"/>
-      <c r="AC125" s="27"/>
-      <c r="AD125" s="27"/>
-      <c r="AE125" s="27"/>
+      <c r="X125" s="28"/>
+      <c r="Y125" s="28"/>
+      <c r="Z125" s="28"/>
+      <c r="AA125" s="28"/>
+      <c r="AB125" s="28"/>
+      <c r="AC125" s="28"/>
+      <c r="AD125" s="28"/>
+      <c r="AE125" s="28"/>
       <c r="AF125" s="7"/>
     </row>
     <row r="126" spans="1:23">
